--- a/Converter/assets/UnitConversion.xlsx
+++ b/Converter/assets/UnitConversion.xlsx
@@ -1,29 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pekep\OneDrive\Project\Python\AnalysisTool\Converter\assets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://photonicinc-my.sharepoint.com/personal/iyoneda_photonic_com/Documents/Python/AnalysisTool/Converter/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DF20ABB-31BE-43E8-8425-D5A329B5AEFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="76" documentId="13_ncr:1_{3526BA9F-BF21-4658-B8E7-F913F97A7B59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7ADC3CFC-E4E7-40A3-8997-B31C8574561C}"/>
   <bookViews>
-    <workbookView xWindow="893" yWindow="1185" windowWidth="17437" windowHeight="10935" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5712" yWindow="2022" windowWidth="16338" windowHeight="10944" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Elec" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Elec!$A$1:$O$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Elec!$A$1:$Q$48</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="199">
   <si>
     <t>No</t>
   </si>
@@ -304,9 +304,6 @@
     <t>20 * sympy.log((P[1]),10) - P[0] -29.79</t>
   </si>
   <si>
-    <t>dBi MHz</t>
-  </si>
-  <si>
     <t>"r'$AF[dB] = 20 \times \log _{10}(Freq[MHz]) - dBi - 29.79$'"</t>
   </si>
   <si>
@@ -419,6 +416,210 @@
   </si>
   <si>
     <t>Ampare [A]</t>
+  </si>
+  <si>
+    <t>EMC</t>
+  </si>
+  <si>
+    <t>sympy.Pow(10,(P[0]-120)/20)</t>
+  </si>
+  <si>
+    <t>"r'$Voltage[V] = 10^{\frac{[dB{\mu}V]-120}{20}}$'"</t>
+  </si>
+  <si>
+    <t>dVuV</t>
+  </si>
+  <si>
+    <t>Voltage [dBV]</t>
+  </si>
+  <si>
+    <t>[dBV]</t>
+  </si>
+  <si>
+    <t>sympy.Pow(10,(P[0])/20)</t>
+  </si>
+  <si>
+    <t>"r'$Voltage[V] = 10^{\frac{[dBV]}{20}}$'"</t>
+  </si>
+  <si>
+    <t>dBV</t>
+  </si>
+  <si>
+    <t>20 * sympy.log((P[0]),10)</t>
+  </si>
+  <si>
+    <t>"r'$Voltage[dBV] = 20 \times \log _{10}(Voltage[V]) $'"</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>P[0] + 120</t>
+  </si>
+  <si>
+    <t>"r'$Voltage[dB{\mu}V] = Voltage[dBV] + 120 $'"</t>
+  </si>
+  <si>
+    <t>P[0] - 120</t>
+  </si>
+  <si>
+    <t>"r'$Voltage[dBV] = Voltage[dB{\mu}V] - 120 $'"</t>
+  </si>
+  <si>
+    <t>dBuV</t>
+  </si>
+  <si>
+    <t>dBuV Z</t>
+  </si>
+  <si>
+    <t>P[0] -10 * sympy.log((P[1]),10) - 90</t>
+  </si>
+  <si>
+    <t>Current [dBuA]</t>
+  </si>
+  <si>
+    <t>[dBuA]</t>
+  </si>
+  <si>
+    <t>P[0] +10 * sympy.log((P[1]),10) - 90</t>
+  </si>
+  <si>
+    <t>dBuA Z</t>
+  </si>
+  <si>
+    <t>P[0] +20 * sympy.log((P[1]),10)</t>
+  </si>
+  <si>
+    <t>"r'$Watt[dBm] = Current[dB{\mu}A] -90 + 10 \times \log _{10}(Z)$'"</t>
+  </si>
+  <si>
+    <t>"r'$Watt[dBm] = Voltage[dB{\mu}V] -90 -10 \times \log _{10}(Z)$'"</t>
+  </si>
+  <si>
+    <t>"r'$Voltage[dB{\mu}V] = Current[dB{\mu}A] + 20 \times \log _{10}(Z) $'"</t>
+  </si>
+  <si>
+    <t>P[0] - 20 * sympy.log((P[1]),10)</t>
+  </si>
+  <si>
+    <t>"r'$Current[dB{\mu}A] = Voltage[dB{\mu}V] - 20 \times \log _{10}(Z) $'"</t>
+  </si>
+  <si>
+    <t>Current [A]</t>
+  </si>
+  <si>
+    <t>P[0] / P[1]</t>
+  </si>
+  <si>
+    <t>V Z</t>
+  </si>
+  <si>
+    <t>"r'$Current[A] = \frac{Voltage[V]}{Z}$'"</t>
+  </si>
+  <si>
+    <t>P[0] * P[1]</t>
+  </si>
+  <si>
+    <t>"r'$Voltage[V] = Current[A] \times Z$'"</t>
+  </si>
+  <si>
+    <t>A Z</t>
+  </si>
+  <si>
+    <t>sympy.Pow(P[0],2)*P[1]</t>
+  </si>
+  <si>
+    <t>"r'$Watt[W] = (Current[A])^2 \times Z$'"</t>
+  </si>
+  <si>
+    <t>sympy.Pow((P[0]/P[1]),0.5)</t>
+  </si>
+  <si>
+    <t>"r'$Current[A] = \sqrt{\frac{Watt[W]}{[Z]}}$'"</t>
+  </si>
+  <si>
+    <t>sympy.Pow(10, ((P[0]-30)/10))</t>
+  </si>
+  <si>
+    <t>"r'$Watt[W] = 10^{\frac{Watt[dBm] - 30}{10}}$'"</t>
+  </si>
+  <si>
+    <t>dBm</t>
+  </si>
+  <si>
+    <t>Watt [dBW]</t>
+  </si>
+  <si>
+    <t>[dBW]</t>
+  </si>
+  <si>
+    <t>sympy.Pow(10, (P[0]/10))</t>
+  </si>
+  <si>
+    <t>"r'$Watt[W] = 10^{\frac{Watt[dBW]}{10}}$'"</t>
+  </si>
+  <si>
+    <t>dBW</t>
+  </si>
+  <si>
+    <t>10 * sympy.log(P[0],10)</t>
+  </si>
+  <si>
+    <t>"r'$Watt[dBW] = 10 \times \log _{10}(Watt[W])$'"</t>
+  </si>
+  <si>
+    <t>P[0] + 30</t>
+  </si>
+  <si>
+    <t>"r'$Watt[dBm] = Watt[dBW] + 30$'"</t>
+  </si>
+  <si>
+    <t>P[0] - 30</t>
+  </si>
+  <si>
+    <t>"r'$Watt[dBW] = Watt[dBm] - 30$'"</t>
+  </si>
+  <si>
+    <t>Current [uA]</t>
+  </si>
+  <si>
+    <t>[uA]</t>
+  </si>
+  <si>
+    <t>sympy.Pow(10, (P[0]/20))</t>
+  </si>
+  <si>
+    <t>"r'$Current[{\mu}A] = 10^{\frac{dB{\mu}A}{20}}$'"</t>
+  </si>
+  <si>
+    <t>dBuA</t>
+  </si>
+  <si>
+    <t>"r'$Current[dB{\mu}A] = 20 \times \log _{10}({\mu}A) $'"</t>
+  </si>
+  <si>
+    <t>uA</t>
+  </si>
+  <si>
+    <t>Current [dBA]</t>
+  </si>
+  <si>
+    <t>[dBA]</t>
+  </si>
+  <si>
+    <t>"r'$Current[A] = 10^{\frac{dBA}{20}}$'"</t>
+  </si>
+  <si>
+    <t>dBA</t>
+  </si>
+  <si>
+    <t>X-Axis</t>
+  </si>
+  <si>
+    <t>Y-Axis</t>
+  </si>
+  <si>
+    <t>log</t>
   </si>
 </sst>
 </file>
@@ -531,6 +732,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -830,31 +1035,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O28"/>
+  <dimension ref="A1:Q48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="82" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.06640625" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="9.05078125" defaultRowHeight="18.3" x14ac:dyDescent="0.7"/>
   <cols>
-    <col min="1" max="1" width="9.265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.46484375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.26171875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.68359375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.47265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.7890625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.20703125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="72.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="102.53125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="26.265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="15" width="14.265625" style="6" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.06640625" style="5"/>
+    <col min="7" max="8" width="14" style="1" customWidth="1"/>
+    <col min="9" max="9" width="72.20703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="102.5234375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="26.26171875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.41796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.20703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.26171875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="17" width="14.26171875" style="6" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.05078125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="4" customFormat="1" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:17" s="4" customFormat="1" ht="36.6" x14ac:dyDescent="0.7">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -874,42 +1080,48 @@
         <v>4</v>
       </c>
       <c r="G1" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.7">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>77</v>
@@ -920,36 +1132,36 @@
       <c r="F2" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="J2" s="1">
+      <c r="L2" s="1">
         <v>0</v>
       </c>
-      <c r="K2" s="1">
+      <c r="M2" s="1">
         <v>10</v>
       </c>
-      <c r="L2" s="1">
+      <c r="N2" s="1">
         <v>10</v>
       </c>
-      <c r="M2" s="1">
+      <c r="O2" s="1">
         <v>0.1</v>
       </c>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.7">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>90</v>
@@ -963,29 +1175,29 @@
       <c r="F3" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="H3" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="I3" s="1" t="s">
+      <c r="J3" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="J3" s="1">
+      <c r="K3" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="L3" s="1">
         <v>-50</v>
       </c>
-      <c r="K3" s="1">
-        <v>50</v>
-      </c>
-      <c r="L3" s="1">
+      <c r="M3" s="1">
+        <v>50</v>
+      </c>
+      <c r="N3" s="1">
         <v>100</v>
       </c>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
       <c r="O3" s="1"/>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.7">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -993,42 +1205,42 @@
         <v>11</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>113</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>114</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="I4" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="J4" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="K4" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="I4" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="J4" s="1">
+      <c r="L4" s="1">
         <v>0.5</v>
       </c>
-      <c r="K4" s="1">
+      <c r="M4" s="1">
         <v>10</v>
       </c>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
       <c r="O4" s="1"/>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.7">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>81</v>
@@ -1042,31 +1254,34 @@
       <c r="F5" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="H5" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="I5" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="J5" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="K5" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="J5" s="1">
+      <c r="L5" s="1">
         <v>-50</v>
       </c>
-      <c r="K5" s="1">
-        <v>50</v>
-      </c>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
+      <c r="M5" s="1">
+        <v>50</v>
+      </c>
       <c r="O5" s="1"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.7">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>81</v>
@@ -1080,34 +1295,34 @@
       <c r="F6" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="I6" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="J6" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="K6" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="I6" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="J6" s="1">
+      <c r="L6" s="1">
         <v>-50</v>
       </c>
-      <c r="K6" s="1">
-        <v>50</v>
-      </c>
-      <c r="L6" s="1">
+      <c r="M6" s="1">
+        <v>50</v>
+      </c>
+      <c r="N6" s="1">
         <v>100</v>
       </c>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
       <c r="O6" s="1"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.7">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>81</v>
@@ -1121,36 +1336,39 @@
       <c r="F7" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="H7" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="J7" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="H7" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="J7" s="1">
+      <c r="K7" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="L7" s="1">
         <v>-50</v>
       </c>
-      <c r="K7" s="1">
-        <v>50</v>
-      </c>
-      <c r="L7" s="1">
+      <c r="M7" s="1">
+        <v>50</v>
+      </c>
+      <c r="N7" s="1">
         <v>10</v>
       </c>
-      <c r="M7" s="1">
+      <c r="O7" s="1">
         <v>0.01</v>
       </c>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.7">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>71</v>
@@ -1164,31 +1382,31 @@
       <c r="F8" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="I8" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="J8" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="I8" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="J8" s="1">
+      <c r="K8" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="L8" s="1">
         <v>0</v>
       </c>
-      <c r="K8" s="1">
+      <c r="M8" s="1">
         <v>100</v>
       </c>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
       <c r="O8" s="1"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.7">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>83</v>
@@ -1203,30 +1421,33 @@
         <v>82</v>
       </c>
       <c r="G9" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="I9" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="H9" s="2" t="s">
+      <c r="J9" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="I9" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="J9" s="1">
+      <c r="K9" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="L9" s="1">
         <v>1E-3</v>
       </c>
-      <c r="K9" s="1">
+      <c r="M9" s="1">
         <v>100</v>
       </c>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
       <c r="O9" s="1"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.7">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>60</v>
@@ -1240,26 +1461,26 @@
       <c r="F10" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="I10" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="H10" s="2" t="s">
+      <c r="J10" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="I10" s="1" t="s">
+      <c r="K10" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="J10" s="1">
+      <c r="L10" s="1">
         <v>0</v>
       </c>
-      <c r="K10" s="1">
+      <c r="M10" s="1">
         <v>100</v>
       </c>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
       <c r="O10" s="1"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.7">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1278,26 +1499,26 @@
       <c r="F11" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="I11" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="H11" s="2" t="s">
+      <c r="J11" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="I11" s="1" t="s">
+      <c r="K11" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="J11" s="1">
+      <c r="L11" s="1">
         <v>0</v>
       </c>
-      <c r="K11" s="1">
+      <c r="M11" s="1">
         <v>100</v>
       </c>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
       <c r="O11" s="1"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.7">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -1316,31 +1537,31 @@
       <c r="F12" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="I12" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="H12" s="2" t="s">
+      <c r="J12" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="I12" s="1" t="s">
+      <c r="K12" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="J12" s="1">
+      <c r="L12" s="1">
         <v>0.01</v>
       </c>
-      <c r="K12" s="1">
+      <c r="M12" s="1">
         <v>10</v>
       </c>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
       <c r="O12" s="1"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.7">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>72</v>
@@ -1354,26 +1575,26 @@
       <c r="F13" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="I13" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="H13" s="2" t="s">
+      <c r="J13" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="I13" s="1" t="s">
+      <c r="K13" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="J13" s="1">
+      <c r="L13" s="1">
         <v>0</v>
       </c>
-      <c r="K13" s="1">
+      <c r="M13" s="1">
         <v>100</v>
       </c>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
       <c r="O13" s="1"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.7">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -1392,26 +1613,26 @@
       <c r="F14" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G14" s="1" t="s">
+      <c r="I14" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="H14" s="2" t="s">
+      <c r="J14" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="I14" s="1" t="s">
+      <c r="K14" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="J14" s="1">
+      <c r="L14" s="1">
         <v>1.6</v>
       </c>
-      <c r="K14" s="1">
+      <c r="M14" s="1">
         <v>5</v>
       </c>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
       <c r="O14" s="1"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.7">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -1425,28 +1646,28 @@
         <v>50</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G15" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>119</v>
-      </c>
       <c r="I15" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="K15" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="J15" s="1">
+      <c r="L15" s="1">
         <v>1.6</v>
       </c>
-      <c r="K15" s="1">
+      <c r="M15" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.7">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -1460,71 +1681,71 @@
         <v>50</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G16" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="H16" s="2" t="s">
+      <c r="I16" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="I16" s="1" t="s">
+      <c r="J16" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="K16" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="J16" s="1">
+      <c r="L16" s="1">
         <v>1.6</v>
       </c>
-      <c r="K16" s="1">
+      <c r="M16" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.7">
       <c r="A17" s="1">
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>91</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="G17" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>122</v>
-      </c>
       <c r="I17" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="J17" s="1">
+        <v>101</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="L17" s="1">
         <v>0</v>
       </c>
-      <c r="K17" s="1">
+      <c r="M17" s="1">
         <v>20</v>
       </c>
-      <c r="M17" s="1"/>
-      <c r="N17" s="1"/>
       <c r="O17" s="1"/>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.7">
       <c r="A18" s="1">
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>73</v>
@@ -1538,26 +1759,26 @@
       <c r="F18" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="G18" s="1" t="s">
+      <c r="I18" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="H18" s="2" t="s">
+      <c r="J18" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="I18" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="J18" s="1">
+      <c r="K18" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="L18" s="1">
         <v>0</v>
       </c>
-      <c r="K18" s="1">
+      <c r="M18" s="1">
         <v>100</v>
       </c>
-      <c r="M18" s="1"/>
-      <c r="N18" s="1"/>
       <c r="O18" s="1"/>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.7">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -1568,7 +1789,7 @@
         <v>16</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>6</v>
+        <v>52</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>17</v>
@@ -1576,29 +1797,29 @@
       <c r="F19" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G19" s="1" t="s">
+      <c r="I19" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H19" s="1" t="s">
+      <c r="J19" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I19" s="1" t="s">
+      <c r="K19" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J19" s="1">
+      <c r="L19" s="1">
         <v>0</v>
       </c>
-      <c r="K19" s="1">
+      <c r="M19" s="1">
         <v>100</v>
       </c>
-      <c r="L19" s="1">
-        <v>50</v>
-      </c>
-      <c r="M19" s="1"/>
-      <c r="N19" s="1"/>
+      <c r="N19" s="1">
+        <v>50</v>
+      </c>
       <c r="O19" s="1"/>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="P19" s="1"/>
+      <c r="Q19" s="1"/>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.7">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -1617,29 +1838,32 @@
       <c r="F20" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G20" s="1" t="s">
+      <c r="H20" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="I20" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H20" s="2" t="s">
+      <c r="J20" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="I20" s="1" t="s">
+      <c r="K20" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J20" s="1">
+      <c r="L20" s="1">
         <v>0</v>
       </c>
-      <c r="K20" s="1">
+      <c r="M20" s="1">
         <v>100</v>
       </c>
-      <c r="L20" s="1">
-        <v>50</v>
-      </c>
-      <c r="M20" s="1"/>
-      <c r="N20" s="1"/>
+      <c r="N20" s="1">
+        <v>50</v>
+      </c>
       <c r="O20" s="1"/>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="P20" s="1"/>
+      <c r="Q20" s="1"/>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.7">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -1659,63 +1883,69 @@
         <v>53</v>
       </c>
       <c r="G21" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="I21" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="H21" s="2" t="s">
+      <c r="J21" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="I21" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="J21" s="1">
-        <v>0</v>
-      </c>
-      <c r="K21" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="M21" s="1"/>
-      <c r="N21" s="1"/>
+      <c r="K21" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="L21" s="1">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="M21" s="1">
+        <v>50</v>
+      </c>
       <c r="O21" s="1"/>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="P21" s="1"/>
+      <c r="Q21" s="1"/>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.7">
       <c r="A22" s="1">
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>91</v>
       </c>
       <c r="G22" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="J22" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="H22" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="I22" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="J22" s="1">
+      <c r="K22" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="L22" s="1">
         <v>1</v>
       </c>
-      <c r="K22" s="1">
+      <c r="M22" s="1">
         <v>10</v>
       </c>
-      <c r="M22" s="1"/>
-      <c r="N22" s="1"/>
       <c r="O22" s="1"/>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="P22" s="1"/>
+      <c r="Q22" s="1"/>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.7">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -1734,29 +1964,32 @@
       <c r="F23" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G23" s="1" t="s">
+      <c r="H23" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="I23" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="H23" s="2" t="s">
+      <c r="J23" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="I23" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="J23" s="1">
+      <c r="K23" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="L23" s="1">
         <v>0</v>
       </c>
-      <c r="K23" s="1">
-        <v>50</v>
-      </c>
-      <c r="L23" s="1">
-        <v>50</v>
-      </c>
-      <c r="M23" s="1"/>
-      <c r="N23" s="1"/>
+      <c r="M23" s="1">
+        <v>50</v>
+      </c>
+      <c r="N23" s="1">
+        <v>50</v>
+      </c>
       <c r="O23" s="1"/>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="P23" s="1"/>
+      <c r="Q23" s="1"/>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.7">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -1775,29 +2008,29 @@
       <c r="F24" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="G24" s="1" t="s">
+      <c r="I24" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="H24" s="2" t="s">
+      <c r="J24" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="I24" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="J24" s="1">
+      <c r="K24" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="L24" s="1">
         <v>-120</v>
       </c>
-      <c r="K24" s="1">
-        <v>50</v>
-      </c>
-      <c r="L24" s="1">
-        <v>50</v>
-      </c>
-      <c r="M24" s="1"/>
-      <c r="N24" s="1"/>
+      <c r="M24" s="1">
+        <v>50</v>
+      </c>
+      <c r="N24" s="1">
+        <v>50</v>
+      </c>
       <c r="O24" s="1"/>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="P24" s="1"/>
+      <c r="Q24" s="1"/>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.7">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -1816,29 +2049,32 @@
       <c r="F25" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G25" s="1" t="s">
+      <c r="H25" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="I25" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H25" s="2" t="s">
+      <c r="J25" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="I25" s="1" t="s">
+      <c r="K25" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J25" s="1">
+      <c r="L25" s="1">
         <v>0</v>
       </c>
-      <c r="K25" s="1">
+      <c r="M25" s="1">
         <v>100</v>
       </c>
-      <c r="L25" s="1">
-        <v>50</v>
-      </c>
-      <c r="M25" s="1"/>
-      <c r="N25" s="1"/>
+      <c r="N25" s="1">
+        <v>50</v>
+      </c>
       <c r="O25" s="1"/>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="P25" s="1"/>
+      <c r="Q25" s="1"/>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.7">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -1857,31 +2093,31 @@
       <c r="F26" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G26" s="1" t="s">
+      <c r="I26" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="H26" s="2" t="s">
+      <c r="J26" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="I26" s="1" t="s">
+      <c r="K26" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="J26" s="1">
+      <c r="L26" s="1">
         <v>0</v>
       </c>
-      <c r="K26" s="1">
+      <c r="M26" s="1">
         <v>100</v>
       </c>
-      <c r="M26" s="1"/>
-      <c r="N26" s="1"/>
       <c r="O26" s="1"/>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="P26" s="1"/>
+      <c r="Q26" s="1"/>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.7">
       <c r="A27" s="1">
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>15</v>
@@ -1895,36 +2131,819 @@
       <c r="F27" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="G27" s="1" t="s">
+      <c r="I27" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="J27" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="H27" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="I27" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="J27" s="1">
+      <c r="K27" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="L27" s="1">
         <v>0</v>
       </c>
-      <c r="K27" s="1">
+      <c r="M27" s="1">
         <v>100</v>
       </c>
-      <c r="L27" s="1">
+      <c r="N27" s="1">
         <v>10</v>
       </c>
-      <c r="M27" s="1">
+      <c r="O27" s="1">
         <v>0.01</v>
       </c>
-      <c r="N27" s="1"/>
-      <c r="O27" s="1"/>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="H28" s="2"/>
+      <c r="P27" s="1"/>
+      <c r="Q27" s="1"/>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.7">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="L28" s="1">
+        <v>-120</v>
+      </c>
+      <c r="M28" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.7">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="L29" s="1">
+        <v>-120</v>
+      </c>
+      <c r="M29" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.7">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="L30" s="1">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="M30" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.7">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="L31" s="1">
+        <v>-120</v>
+      </c>
+      <c r="M31" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.7">
+      <c r="A32" s="1">
+        <v>31</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="L32" s="1">
+        <v>0</v>
+      </c>
+      <c r="M32" s="1">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.7">
+      <c r="A33" s="1">
+        <v>32</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="L33" s="1">
+        <v>0</v>
+      </c>
+      <c r="M33" s="1">
+        <v>170</v>
+      </c>
+      <c r="N33" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.7">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="J34" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="K34" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="L34" s="1">
+        <v>0</v>
+      </c>
+      <c r="M34" s="1">
+        <v>170</v>
+      </c>
+      <c r="N34" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.7">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="J35" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="K35" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="L35" s="1">
+        <v>0</v>
+      </c>
+      <c r="M35" s="1">
+        <v>170</v>
+      </c>
+      <c r="N35" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.7">
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="J36" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="K36" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="L36" s="1">
+        <v>0</v>
+      </c>
+      <c r="M36" s="1">
+        <v>170</v>
+      </c>
+      <c r="N36" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.7">
+      <c r="A37" s="1">
+        <v>36</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="J37" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="K37" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="L37" s="1">
+        <v>0</v>
+      </c>
+      <c r="M37" s="1">
+        <v>100</v>
+      </c>
+      <c r="N37" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.7">
+      <c r="A38" s="1">
+        <v>37</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="J38" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="K38" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="L38" s="1">
+        <v>0</v>
+      </c>
+      <c r="M38" s="1">
+        <v>100</v>
+      </c>
+      <c r="N38" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.7">
+      <c r="A39" s="1">
+        <v>38</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="J39" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="K39" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="L39" s="1">
+        <v>0</v>
+      </c>
+      <c r="M39" s="1">
+        <v>100</v>
+      </c>
+      <c r="N39" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.7">
+      <c r="A40" s="1">
+        <v>39</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="J40" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="K40" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L40" s="1">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="M40" s="1">
+        <v>50</v>
+      </c>
+      <c r="N40" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.7">
+      <c r="A41" s="1">
+        <v>40</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="J41" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="K41" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="L41" s="1">
+        <v>-120</v>
+      </c>
+      <c r="M41" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.7">
+      <c r="A42" s="1">
+        <v>41</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="J42" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="K42" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="L42" s="1">
+        <v>-90</v>
+      </c>
+      <c r="M42" s="1">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.7">
+      <c r="A43" s="1">
+        <v>42</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="J43" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="K43" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L43" s="1">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="M43" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.7">
+      <c r="A44" s="1">
+        <v>43</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="J44" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="K44" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="L44" s="1">
+        <v>-90</v>
+      </c>
+      <c r="M44" s="1">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.7">
+      <c r="A45" s="1">
+        <v>44</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="J45" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="K45" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="L45" s="1">
+        <v>-90</v>
+      </c>
+      <c r="M45" s="1">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.7">
+      <c r="A46" s="1">
+        <v>45</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="J46" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="K46" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="L46" s="1">
+        <v>-90</v>
+      </c>
+      <c r="M46" s="1">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.7">
+      <c r="A47" s="1">
+        <v>46</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="J47" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="K47" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="L47" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="M47" s="1">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.7">
+      <c r="A48" s="1">
+        <v>47</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="J48" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="K48" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="L48" s="1">
+        <v>-120</v>
+      </c>
+      <c r="M48" s="1">
+        <v>50</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:O1" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:O27">
+  <autoFilter ref="A1:Q48" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q27">
       <sortCondition ref="C1"/>
     </sortState>
   </autoFilter>

--- a/Converter/assets/UnitConversion.xlsx
+++ b/Converter/assets/UnitConversion.xlsx
@@ -1,29 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://photonicinc-my.sharepoint.com/personal/iyoneda_photonic_com/Documents/Python/AnalysisTool/Converter/assets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1d78e2062db64e14/Project/Python/AnalysisTool/Converter/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="76" documentId="13_ncr:1_{3526BA9F-BF21-4658-B8E7-F913F97A7B59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7ADC3CFC-E4E7-40A3-8997-B31C8574561C}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="13_ncr:1_{4CCCEAE6-5D0C-4A8E-AD1B-C17E928355D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7A0B93C5-21E4-4C41-8C04-DD8BA09B5332}"/>
   <bookViews>
-    <workbookView xWindow="5712" yWindow="2022" windowWidth="16338" windowHeight="10944" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Elec" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Elec!$A$1:$Q$48</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Elec!$A$1:$Q$85</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="725" uniqueCount="286">
   <si>
     <t>No</t>
   </si>
@@ -43,9 +43,6 @@
     <t>[dBm]</t>
   </si>
   <si>
-    <t>[Vrms]</t>
-  </si>
-  <si>
     <t>Input</t>
   </si>
   <si>
@@ -88,9 +85,6 @@
     <t>"r'$\text{Watt = }\frac{Voltage^2}{Z}$'"</t>
   </si>
   <si>
-    <t>"r'$Voltage = \sqrt{Z \times Watt}$'"</t>
-  </si>
-  <si>
     <t>Default min</t>
   </si>
   <si>
@@ -118,9 +112,6 @@
     <t>sympy.Pow((P[1]/1000),0.5) * sympy.Pow(10, P[0]/20)</t>
   </si>
   <si>
-    <t>"r'$Voltage = \sqrt{\frac{Z}{1000}} \times 10^\frac{Watt[dBm]}{20}$'"</t>
-  </si>
-  <si>
     <t>"r'$Watt[dBm] = 10 \times \log _{10}(Watt[W]) + 30$'"</t>
   </si>
   <si>
@@ -304,12 +295,6 @@
     <t>20 * sympy.log((P[1]),10) - P[0] -29.79</t>
   </si>
   <si>
-    <t>"r'$AF[dB] = 20 \times \log _{10}(Freq[MHz]) - dBi - 29.79$'"</t>
-  </si>
-  <si>
-    <t>"r'$[dBi] = 20 \times \log _{10}(Freq[MHz]) - AF[dB] - 29.79$'"</t>
-  </si>
-  <si>
     <t>dB MHz</t>
   </si>
   <si>
@@ -427,9 +412,6 @@
     <t>"r'$Voltage[V] = 10^{\frac{[dB{\mu}V]-120}{20}}$'"</t>
   </si>
   <si>
-    <t>dVuV</t>
-  </si>
-  <si>
     <t>Voltage [dBV]</t>
   </si>
   <si>
@@ -620,6 +602,285 @@
   </si>
   <si>
     <t>log</t>
+  </si>
+  <si>
+    <t>"r'$Gain[dBi] = 20 \times \log _{10}(Freq[MHz]) - AF[dB] - 29.79$'"</t>
+  </si>
+  <si>
+    <t>"r'$AF[dB] = 20 \times \log _{10}(Freq[MHz]) - Gain[dBi] - 29.79$'"</t>
+  </si>
+  <si>
+    <t>Voltage [dBmV]</t>
+  </si>
+  <si>
+    <t>[dBmV]</t>
+  </si>
+  <si>
+    <t>P[0] - 60</t>
+  </si>
+  <si>
+    <t>"r'$Voltage[dB{\mu}V] = Voltage[dBmV] - 60$'"</t>
+  </si>
+  <si>
+    <t>dBmV</t>
+  </si>
+  <si>
+    <t>Current [dBmA]</t>
+  </si>
+  <si>
+    <t>[dBmA]</t>
+  </si>
+  <si>
+    <t>P[0] - 20 * sympy.log((P[1]),10) - 60</t>
+  </si>
+  <si>
+    <t>"r'$Current[dBmA] = Voltage[dB{\mu}V] - 20 \times \log _{10}(Z) - 60$'"</t>
+  </si>
+  <si>
+    <t>P[0] - 20 * sympy.log((P[1]),10) - 120</t>
+  </si>
+  <si>
+    <t>"r'$Current[dBmA] = Voltage[dB{\mu}V] - 20 \times \log _{10}(Z) - 120$'"</t>
+  </si>
+  <si>
+    <t>Watt [dBpW]</t>
+  </si>
+  <si>
+    <t>[dBpW]</t>
+  </si>
+  <si>
+    <t>P[0] - 10 * sympy.log((P[1]),10)</t>
+  </si>
+  <si>
+    <t>"r'$Watt[dBpW] = Voltage[dB{\mu}V] - 10 \times \log _{10}(Z)$'"</t>
+  </si>
+  <si>
+    <t>P[0] -10 * sympy.log((P[1]),10) - 120</t>
+  </si>
+  <si>
+    <t>"r'$Watt[dBm] = Voltage[dB{\mu}V] -120 -10 \times \log _{10}(Z)$'"</t>
+  </si>
+  <si>
+    <t>Voltage [uV]</t>
+  </si>
+  <si>
+    <t>[uV]</t>
+  </si>
+  <si>
+    <t>sympy.Pow(10,P[0]/20)</t>
+  </si>
+  <si>
+    <t>"r'$Voltage[{\mu}V] = 10^{\frac{[dB{\mu}V]}{20}}$'"</t>
+  </si>
+  <si>
+    <t>Voltage [mV]</t>
+  </si>
+  <si>
+    <t>[mV]</t>
+  </si>
+  <si>
+    <t>sympy.Pow(10,(P[0]-60)/20)</t>
+  </si>
+  <si>
+    <t>"r'$Voltage[mV] = 10^{\frac{[dB{\mu}V]-60}{20}}$'"</t>
+  </si>
+  <si>
+    <t>"r'$Current[{\mu}A]=10^{\frac{Voltage[dB{\mu}V]-20 \times \log _{10}(Z)}{20}}$'"</t>
+  </si>
+  <si>
+    <t>sympy.Pow(10, (P[0] - 20 * sympy.log(P[1],10))/20)</t>
+  </si>
+  <si>
+    <t>Current [mA]</t>
+  </si>
+  <si>
+    <t>[mA]</t>
+  </si>
+  <si>
+    <t>sympy.Pow(10, (P[0] - 20 * sympy.log(P[1],10)-60)/20)</t>
+  </si>
+  <si>
+    <t>"r'$Current[mA]=10^{\frac{Voltage[dB{\mu}V]-20 \times \log _{10}(Z)-60}{20}}$'"</t>
+  </si>
+  <si>
+    <t>sympy.Pow(10, (P[0] - 20 * sympy.log(P[1],10)-120)/20)</t>
+  </si>
+  <si>
+    <t>"r'$Current[A]=10^{\frac{Voltage[dB{\mu}V]-20 \times \log _{10}(Z)-120}{20}}$'"</t>
+  </si>
+  <si>
+    <t>Watt [pW]</t>
+  </si>
+  <si>
+    <t>[pW]</t>
+  </si>
+  <si>
+    <t>sympy.Pow(sympy.Pow(10,(P[0]/20)),2)/P[1]</t>
+  </si>
+  <si>
+    <t>"r'$Watt[pW]=\frac{(10^{\frac{Voltage[dB{\mu}V]}{20}})^2}{Z}$'"</t>
+  </si>
+  <si>
+    <t>Watt [mW]</t>
+  </si>
+  <si>
+    <t>[mW]</t>
+  </si>
+  <si>
+    <t>sympy.Pow(sympy.Pow(10,(P[0]/20)),2)/P[1] * sympy.Pow(10,-9)</t>
+  </si>
+  <si>
+    <t>sympy.Pow(sympy.Pow(10,(P[0]/20)),2)/P[1] * sympy.Pow(10,-12)</t>
+  </si>
+  <si>
+    <t>"r'$Watt[mW]=\frac{(10^{\frac{Voltage[dB{\mu}V]}{20}})^2}{Z} \times 10^{-9}$'"</t>
+  </si>
+  <si>
+    <t>"r'$Watt[W]=\frac{(10^{\frac{Voltage[dB{\mu}V]}{20}})^2}{Z} \times 10^{-12}$'"</t>
+  </si>
+  <si>
+    <t>P[0] + 60</t>
+  </si>
+  <si>
+    <t>"r'$Voltage[dBmV] = Voltage[dBV] + 60 $'"</t>
+  </si>
+  <si>
+    <t>P[0] - 20 * sympy.log(P[1],10)+120</t>
+  </si>
+  <si>
+    <t>"r'$Current[dB{\mu}A] = Voltage[dBV]-20 \times \log _{10}(Z) + 120 $'"</t>
+  </si>
+  <si>
+    <t>dBV Z</t>
+  </si>
+  <si>
+    <t>P[0] - 20 * sympy.log(P[1],10)+60</t>
+  </si>
+  <si>
+    <t>"r'$Current[dBmA] = Voltage[dBV]-20 \times \log _{10}(Z) + 60 $'"</t>
+  </si>
+  <si>
+    <t>P[0] - 20 * sympy.log(P[1],10)</t>
+  </si>
+  <si>
+    <t>"r'$Current[dBA] = Voltage[dBV]-20 \times \log _{10}(Z) $'"</t>
+  </si>
+  <si>
+    <t>P[0] - 10 * sympy.log(P[1],10)+120</t>
+  </si>
+  <si>
+    <t>"r'$Watt[dBpW] = Voltage[dBV]-10 \times \log _{10}(Z) + 120 $'"</t>
+  </si>
+  <si>
+    <t>P[0] - 10 * sympy.log(P[1],10)+30</t>
+  </si>
+  <si>
+    <t>"r'$Watt[dBm] = Voltage[dBV]-10 \times \log _{10}(Z) + 30 $'"</t>
+  </si>
+  <si>
+    <t>P[0] - 10 * sympy.log(P[1],10)</t>
+  </si>
+  <si>
+    <t>"r'$Watt[dBW] = Voltage[dBV]-10 \times \log _{10}(Z) $'"</t>
+  </si>
+  <si>
+    <t>sympy.Pow(10,(P[0]+120)/20)</t>
+  </si>
+  <si>
+    <t>"r'$Voltage[{\mu}V] = 10^{\frac{[dBV]+120}{20}}$'"</t>
+  </si>
+  <si>
+    <t>sympy.Pow(10,(P[0]+60)/20)</t>
+  </si>
+  <si>
+    <t>"r'$Voltage[mV] = 10^{\frac{[dBV]+60}{20}}$'"</t>
+  </si>
+  <si>
+    <t>sympy.Pow(10, (P[0] - 20 * sympy.log(P[1],10) +120)/20)</t>
+  </si>
+  <si>
+    <t>"r'$Current[{\mu}A]=10^{\frac{Voltage[dB{\mu}V]-20 \times \log _{10}(Z)+120}{20}}$'"</t>
+  </si>
+  <si>
+    <t>sympy.Pow(10, (P[0] - 20 * sympy.log(P[1],10)+60)/20)</t>
+  </si>
+  <si>
+    <t>"r'$Current[mA]=10^{\frac{Voltage[dB{\mu}V]-20 \times \log _{10}(Z)+60}{20}}$'"</t>
+  </si>
+  <si>
+    <t>"r'$Current[A]=10^{\frac{Voltage[dB{\mu}V]-20 \times \log _{10}(Z)}{20}}$'"</t>
+  </si>
+  <si>
+    <t>sympy.Pow(sympy.Pow(10,(P[0]/20)),2)/P[1]  * sympy.Pow(10,12)</t>
+  </si>
+  <si>
+    <t>"r'$Watt[pW]=\frac{(10^{\frac{Voltage[dBV]}{20}})^2}{Z} \times 10^{12}$'"</t>
+  </si>
+  <si>
+    <t>sympy.Pow(sympy.Pow(10,(P[0]/20)),2)/P[1]  * sympy.Pow(10,3)</t>
+  </si>
+  <si>
+    <t>"r'$Watt[mW]=\frac{(10^{\frac{Voltage[dBV]}{20}})^2}{Z} \times 10^{3}$'"</t>
+  </si>
+  <si>
+    <t>"r'$Watt[mW]=\frac{(10^{\frac{Voltage[dBV]}{20}})^2}{Z}$'"</t>
+  </si>
+  <si>
+    <t>"r'$Voltage[V] = \sqrt{\frac{Z}{1000}} \times 10^\frac{Watt[dBm]}{20}$'"</t>
+  </si>
+  <si>
+    <t>"r'$Voltage[V] = \sqrt{Z \times Watt[W]}$'"</t>
+  </si>
+  <si>
+    <t>10 * sympy.log((P[1]),10) + P[0] + 30</t>
+  </si>
+  <si>
+    <t>"r'$Voltage[dBmV] = 10 \times \log _{10}(Z[{\Omega}]) + Watt[dBm] + 30$'"</t>
+  </si>
+  <si>
+    <t>10 * sympy.log((P[1]),10) + P[0] - 30</t>
+  </si>
+  <si>
+    <t>"r'$Voltage[dBmV] = 10 \times \log _{10}(Z[{\Omega}]) + Watt[dBm] - 30$'"</t>
+  </si>
+  <si>
+    <t>P[0] - 10 * sympy.log((P[1]),10) + 90</t>
+  </si>
+  <si>
+    <t>"r'$Current[dB{\mu}A] = -10 \times \log _{10}(Z[{\Omega}]) + Watt[dBm] +90$'"</t>
+  </si>
+  <si>
+    <t>P[0] - 10 * sympy.log((P[1]),10) + 30</t>
+  </si>
+  <si>
+    <t>"r'$Current[dBmA] = -10 \times \log _{10}(Z[{\Omega}]) + Watt[dBm] +30$'"</t>
+  </si>
+  <si>
+    <t>"r'$Current[dBA] = -10 \times \log _{10}(Z[{\Omega}]) + Watt[dBm]$'"</t>
+  </si>
+  <si>
+    <t>P[0] +90</t>
+  </si>
+  <si>
+    <t>"r'$Watt[dBW] = Watt[dBm] + 90$'"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sympy.Pow((P[1]/1000),0.5) * sympy.Pow(10, P[0]/20) *sympy.Pow(10,6) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sympy.Pow((P[1]/1000),0.5) * sympy.Pow(10, P[0]/20) *sympy.Pow(10,3) </t>
+  </si>
+  <si>
+    <t>"r'$Voltage[{\mu}V] = \sqrt{\frac{Z}{1000}} \times 10^\frac{Watt[dBm]}{20} \times 10^{6}$'"</t>
+  </si>
+  <si>
+    <t>"r'$Voltage[mV] = \sqrt{\frac{Z}{1000}} \times 10^\frac{Watt[dBm]}{20} \times 10^{3}$'"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sympy.Pow((sympy.Pow(10,(P[0]/10)))*sympy.Pow(10,-3)/P[1],0.5)*sympy.Pow(10,6) </t>
+  </si>
+  <si>
+    <t>"r'$Voltage[V] = \sqrt{(10^{-3} \times \frac{(10^{\frac{Watt[dBm]}{10}})}{Z})} \times 10^{6}$'"</t>
   </si>
 </sst>
 </file>
@@ -734,14 +995,10 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -779,7 +1036,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -885,7 +1142,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1027,7 +1284,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1035,37 +1292,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q48"/>
+  <dimension ref="A1:Q85"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" topLeftCell="A51" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C87" sqref="C87"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.05078125" defaultRowHeight="18.3" x14ac:dyDescent="0.7"/>
+  <sheetFormatPr defaultColWidth="9.06640625" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="9.26171875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.68359375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.47265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.7890625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.20703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.46484375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="14" style="1" customWidth="1"/>
-    <col min="9" max="9" width="72.20703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="102.5234375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="26.26171875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.41796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19.20703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.26171875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="17" width="14.26171875" style="6" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.05078125" style="5"/>
+    <col min="9" max="9" width="89.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="102.53125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="26.265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="17" width="14.265625" style="6" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.06640625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="4" customFormat="1" ht="36.6" x14ac:dyDescent="0.7">
+    <row r="1" spans="1:17" s="4" customFormat="1" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>1</v>
@@ -1080,66 +1337,66 @@
         <v>4</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="I1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="J1" s="3" t="s">
-        <v>14</v>
-      </c>
       <c r="K1" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="P1" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.7">
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>80</v>
-      </c>
       <c r="J2" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="L2" s="1">
         <v>0</v>
@@ -1156,33 +1413,33 @@
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.7">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="K3" s="1" t="s">
         <v>90</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>95</v>
       </c>
       <c r="L3" s="1">
         <v>-50</v>
@@ -1197,33 +1454,33 @@
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.7">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>113</v>
-      </c>
       <c r="F4" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="L4" s="1">
         <v>0.5</v>
@@ -1235,538 +1492,544 @@
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.7">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>107</v>
+        <v>10</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>81</v>
+        <v>154</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>83</v>
+        <v>15</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>198</v>
+        <v>49</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>85</v>
+        <v>158</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>86</v>
+        <v>159</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>87</v>
+        <v>160</v>
       </c>
       <c r="L5" s="1">
-        <v>-50</v>
+        <v>0</v>
       </c>
       <c r="M5" s="1">
-        <v>50</v>
-      </c>
-      <c r="O5" s="1"/>
-      <c r="P5" s="1"/>
-      <c r="Q5" s="1"/>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.7">
+        <v>100</v>
+      </c>
+      <c r="N5" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>107</v>
+        <v>10</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>81</v>
+        <v>154</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>90</v>
+        <v>14</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>91</v>
+        <v>8</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>92</v>
+        <v>161</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>94</v>
+        <v>162</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>95</v>
+        <v>160</v>
       </c>
       <c r="L6" s="1">
-        <v>-50</v>
+        <v>0</v>
       </c>
       <c r="M6" s="1">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N6" s="1">
-        <v>100</v>
-      </c>
-      <c r="O6" s="1"/>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="1"/>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.7">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>107</v>
+        <v>126</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>81</v>
+        <v>186</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>82</v>
+        <v>187</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>71</v>
+        <v>154</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>98</v>
+        <v>181</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>99</v>
+        <v>188</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>123</v>
+        <v>189</v>
       </c>
       <c r="L7" s="1">
-        <v>-50</v>
+        <v>-120</v>
       </c>
       <c r="M7" s="1">
         <v>50</v>
       </c>
-      <c r="N7" s="1">
-        <v>10</v>
-      </c>
-      <c r="O7" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="1"/>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.7">
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>107</v>
+        <v>126</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>71</v>
+        <v>144</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>59</v>
+        <v>145</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>60</v>
+        <v>16</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>61</v>
+        <v>5</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>65</v>
+        <v>146</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>66</v>
+        <v>149</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>127</v>
+        <v>147</v>
       </c>
       <c r="L8" s="1">
         <v>0</v>
       </c>
       <c r="M8" s="1">
-        <v>100</v>
-      </c>
-      <c r="O8" s="1"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="1"/>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.7">
+        <v>170</v>
+      </c>
+      <c r="N8" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>107</v>
+        <v>126</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>83</v>
+        <v>144</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>84</v>
+        <v>145</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>198</v>
+        <v>50</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>88</v>
+        <v>148</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>89</v>
+        <v>151</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>124</v>
+        <v>147</v>
       </c>
       <c r="L9" s="1">
-        <v>1E-3</v>
+        <v>0</v>
       </c>
       <c r="M9" s="1">
-        <v>100</v>
-      </c>
-      <c r="O9" s="1"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="1"/>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.7">
+        <v>170</v>
+      </c>
+      <c r="N9" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>107</v>
+        <v>126</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>60</v>
+        <v>144</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>61</v>
+        <v>145</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>71</v>
+        <v>179</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>59</v>
+        <v>180</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>192</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>62</v>
+        <v>181</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>63</v>
+        <v>182</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>64</v>
+        <v>183</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>-90</v>
       </c>
       <c r="M10" s="1">
-        <v>100</v>
-      </c>
-      <c r="O10" s="1"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="1"/>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.7">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>35</v>
+        <v>126</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>41</v>
+        <v>179</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>37</v>
+        <v>180</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>42</v>
+        <v>144</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>38</v>
+        <v>145</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>192</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>39</v>
+        <v>134</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>40</v>
+        <v>184</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>36</v>
+        <v>185</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="M11" s="1">
-        <v>100</v>
-      </c>
-      <c r="O11" s="1"/>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="1"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.7">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>35</v>
+        <v>102</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>41</v>
+        <v>80</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>37</v>
+        <v>81</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>192</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>43</v>
+        <v>82</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>44</v>
+        <v>83</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>45</v>
+        <v>84</v>
       </c>
       <c r="L12" s="1">
-        <v>0.01</v>
+        <v>-50</v>
       </c>
       <c r="M12" s="1">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.7">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>68</v>
+        <v>88</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>69</v>
+        <v>89</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>74</v>
+        <v>194</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>-50</v>
       </c>
       <c r="M13" s="1">
+        <v>50</v>
+      </c>
+      <c r="N13" s="1">
         <v>100</v>
       </c>
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.7">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>35</v>
+        <v>102</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>46</v>
+        <v>78</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>50</v>
+        <v>79</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>47</v>
+        <v>68</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>38</v>
+        <v>56</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>192</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>49</v>
+        <v>93</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>51</v>
+        <v>94</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>48</v>
+        <v>118</v>
       </c>
       <c r="L14" s="1">
-        <v>1.6</v>
+        <v>-50</v>
       </c>
       <c r="M14" s="1">
-        <v>5</v>
-      </c>
-      <c r="O14" s="1"/>
+        <v>50</v>
+      </c>
+      <c r="N14" s="1">
+        <v>10</v>
+      </c>
+      <c r="O14" s="1">
+        <v>0.01</v>
+      </c>
       <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.7">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>35</v>
+        <v>102</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>46</v>
+        <v>68</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>116</v>
+        <v>57</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>115</v>
+        <v>62</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>118</v>
+        <v>63</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>48</v>
+        <v>122</v>
       </c>
       <c r="L15" s="1">
-        <v>1.6</v>
+        <v>0</v>
       </c>
       <c r="M15" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.7">
+        <v>100</v>
+      </c>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>35</v>
+        <v>102</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>46</v>
+        <v>80</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>50</v>
+        <v>81</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>117</v>
+        <v>78</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>38</v>
+        <v>79</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>192</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>120</v>
+        <v>85</v>
       </c>
       <c r="J16" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="K16" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="K16" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="L16" s="1">
-        <v>1.6</v>
+        <v>1E-3</v>
       </c>
       <c r="M16" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.7">
+        <v>100</v>
+      </c>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="1">
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>100</v>
+        <v>57</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>91</v>
+        <v>58</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>102</v>
+        <v>68</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>91</v>
+        <v>56</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>101</v>
+        <v>59</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>121</v>
+        <v>60</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>125</v>
+        <v>61</v>
       </c>
       <c r="L17" s="1">
         <v>0</v>
       </c>
       <c r="M17" s="1">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.7">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="1">
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>107</v>
+        <v>32</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>73</v>
+        <v>38</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>68</v>
+        <v>34</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>72</v>
+        <v>39</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>67</v>
+        <v>35</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>75</v>
+        <v>36</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>126</v>
+        <v>33</v>
       </c>
       <c r="L18" s="1">
         <v>0</v>
@@ -1778,413 +2041,369 @@
       <c r="P18" s="1"/>
       <c r="Q18" s="1"/>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.7">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="1">
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>29</v>
+        <v>40</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>8</v>
+        <v>42</v>
       </c>
       <c r="L19" s="1">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="M19" s="1">
-        <v>100</v>
-      </c>
-      <c r="N19" s="1">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
       <c r="Q19" s="1"/>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.7">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="1">
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>11</v>
+        <v>102</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>16</v>
+        <v>69</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>6</v>
+        <v>64</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>15</v>
+        <v>70</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>198</v>
+        <v>65</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>19</v>
+        <v>66</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>20</v>
+        <v>71</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>8</v>
+        <v>67</v>
       </c>
       <c r="L20" s="1">
         <v>0</v>
       </c>
       <c r="M20" s="1">
         <v>100</v>
-      </c>
-      <c r="N20" s="1">
-        <v>50</v>
       </c>
       <c r="O20" s="1"/>
       <c r="P20" s="1"/>
       <c r="Q20" s="1"/>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.7">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="1">
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>198</v>
+        <v>35</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>128</v>
+        <v>45</v>
       </c>
       <c r="L21" s="1">
-        <v>9.9999999999999995E-7</v>
+        <v>1.6</v>
       </c>
       <c r="M21" s="1">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="O21" s="1"/>
       <c r="P21" s="1"/>
       <c r="Q21" s="1"/>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.7">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="1">
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>107</v>
+        <v>32</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>114</v>
+        <v>43</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>104</v>
+        <v>47</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>198</v>
+        <v>35</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>103</v>
+        <v>45</v>
       </c>
       <c r="L22" s="1">
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="M22" s="1">
         <v>10</v>
       </c>
-      <c r="O22" s="1"/>
-      <c r="P22" s="1"/>
-      <c r="Q22" s="1"/>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.7">
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="1">
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>5</v>
+        <v>47</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>16</v>
+        <v>112</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>198</v>
+        <v>35</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>30</v>
+        <v>115</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>31</v>
+        <v>114</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>122</v>
+        <v>45</v>
       </c>
       <c r="L23" s="1">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="M23" s="1">
-        <v>50</v>
-      </c>
-      <c r="N23" s="1">
-        <v>50</v>
-      </c>
-      <c r="O23" s="1"/>
-      <c r="P23" s="1"/>
-      <c r="Q23" s="1"/>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="1">
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>11</v>
+        <v>102</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>17</v>
+        <v>95</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>5</v>
+        <v>88</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>54</v>
+        <v>97</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>53</v>
+        <v>88</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>57</v>
+        <v>96</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>58</v>
+        <v>116</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="L24" s="1">
-        <v>-120</v>
+        <v>0</v>
       </c>
       <c r="M24" s="1">
-        <v>50</v>
-      </c>
-      <c r="N24" s="1">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="O24" s="1"/>
       <c r="P24" s="1"/>
       <c r="Q24" s="1"/>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.7">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="1">
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>11</v>
+        <v>102</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>15</v>
+        <v>70</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>16</v>
+        <v>69</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>198</v>
+        <v>64</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>18</v>
+        <v>72</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>21</v>
+        <v>73</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>12</v>
+        <v>121</v>
       </c>
       <c r="L25" s="1">
         <v>0</v>
       </c>
       <c r="M25" s="1">
         <v>100</v>
-      </c>
-      <c r="N25" s="1">
-        <v>50</v>
       </c>
       <c r="O25" s="1"/>
       <c r="P25" s="1"/>
       <c r="Q25" s="1"/>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.7">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="1">
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>11</v>
+        <v>126</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>15</v>
+        <v>195</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>9</v>
+        <v>196</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>34</v>
+        <v>197</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>32</v>
+        <v>198</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>33</v>
+        <v>199</v>
       </c>
       <c r="L26" s="1">
-        <v>0</v>
+        <v>-60</v>
       </c>
       <c r="M26" s="1">
-        <v>100</v>
-      </c>
-      <c r="O26" s="1"/>
-      <c r="P26" s="1"/>
-      <c r="Q26" s="1"/>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.7">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="1">
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>107</v>
+        <v>126</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>71</v>
+        <v>154</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>59</v>
+        <v>74</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>192</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>96</v>
+        <v>226</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>97</v>
+        <v>227</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="L27" s="1">
-        <v>0</v>
+        <v>-120</v>
       </c>
       <c r="M27" s="1">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N27" s="1">
-        <v>10</v>
-      </c>
-      <c r="O27" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="P27" s="1"/>
-      <c r="Q27" s="1"/>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.7">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="1">
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>16</v>
+        <v>186</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>198</v>
+        <v>187</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>132</v>
+        <v>204</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>133</v>
+        <v>205</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="L28" s="1">
         <v>-120</v>
@@ -2192,37 +2411,37 @@
       <c r="M28" s="1">
         <v>50</v>
       </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.7">
+      <c r="N28" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="1">
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>135</v>
+        <v>51</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>136</v>
+        <v>50</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>198</v>
+        <v>5</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="L29" s="1">
         <v>-120</v>
@@ -2230,72 +2449,75 @@
       <c r="M29" s="1">
         <v>50</v>
       </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.7">
+      <c r="N29" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="1">
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>135</v>
+        <v>200</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>140</v>
+        <v>202</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>141</v>
+        <v>203</v>
       </c>
       <c r="K30" s="1" t="s">
         <v>142</v>
       </c>
       <c r="L30" s="1">
-        <v>9.9999999999999995E-7</v>
+        <v>-120</v>
       </c>
       <c r="M30" s="1">
         <v>50</v>
       </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.7">
+      <c r="N30" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="1">
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>135</v>
+        <v>51</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>136</v>
+        <v>50</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>54</v>
+        <v>206</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>53</v>
+        <v>207</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>143</v>
+        <v>208</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>144</v>
+        <v>209</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="L31" s="1">
         <v>-120</v>
@@ -2303,376 +2525,391 @@
       <c r="M31" s="1">
         <v>50</v>
       </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.7">
+      <c r="N31" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="1">
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="L32" s="1">
-        <v>0</v>
+        <v>-120</v>
       </c>
       <c r="M32" s="1">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.7">
+        <v>50</v>
+      </c>
+      <c r="N32" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="1">
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>17</v>
+        <v>129</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>5</v>
+        <v>130</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>156</v>
+        <v>140</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="L33" s="1">
-        <v>0</v>
+        <v>-120</v>
       </c>
       <c r="M33" s="1">
-        <v>170</v>
-      </c>
-      <c r="N33" s="1">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.7">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="1">
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>150</v>
+        <v>51</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>151</v>
+        <v>50</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>17</v>
+        <v>168</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>5</v>
+        <v>169</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>152</v>
+        <v>210</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>155</v>
+        <v>211</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="L34" s="1">
-        <v>0</v>
+        <v>-120</v>
       </c>
       <c r="M34" s="1">
-        <v>170</v>
+        <v>50</v>
       </c>
       <c r="N34" s="1">
         <v>50</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.7">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="1">
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>150</v>
+        <v>51</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>151</v>
+        <v>50</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>54</v>
+        <v>222</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>53</v>
+        <v>223</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>192</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>154</v>
+        <v>224</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>157</v>
+        <v>225</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="L35" s="1">
-        <v>0</v>
+        <v>-120</v>
       </c>
       <c r="M35" s="1">
-        <v>170</v>
+        <v>50</v>
       </c>
       <c r="N35" s="1">
         <v>50</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.7">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="1">
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>150</v>
+        <v>216</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>151</v>
+        <v>217</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>192</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>158</v>
+        <v>218</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>159</v>
+        <v>219</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="L36" s="1">
-        <v>0</v>
+        <v>-120</v>
       </c>
       <c r="M36" s="1">
-        <v>170</v>
-      </c>
-      <c r="N36" s="1">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.7">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="1">
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>11</v>
+        <v>126</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>160</v>
+        <v>51</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>77</v>
+        <v>50</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>16</v>
+        <v>232</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>52</v>
+        <v>233</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>192</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>161</v>
+        <v>234</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>163</v>
+        <v>236</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>162</v>
+        <v>142</v>
       </c>
       <c r="L37" s="1">
-        <v>0</v>
+        <v>-120</v>
       </c>
       <c r="M37" s="1">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N37" s="1">
         <v>50</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.7">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="1">
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>11</v>
+        <v>126</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>160</v>
+        <v>51</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>77</v>
+        <v>50</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>16</v>
+        <v>228</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>52</v>
+        <v>229</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>192</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>164</v>
+        <v>230</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>165</v>
+        <v>231</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>166</v>
+        <v>142</v>
       </c>
       <c r="L38" s="1">
-        <v>0</v>
+        <v>-120</v>
       </c>
       <c r="M38" s="1">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N38" s="1">
         <v>50</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.7">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="1">
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>11</v>
+        <v>126</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>160</v>
+        <v>51</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>77</v>
+        <v>50</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>15</v>
+        <v>179</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>9</v>
+        <v>180</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>192</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>167</v>
+        <v>221</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>168</v>
+        <v>220</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>166</v>
+        <v>142</v>
       </c>
       <c r="L39" s="1">
-        <v>0</v>
+        <v>-120</v>
       </c>
       <c r="M39" s="1">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N39" s="1">
         <v>50</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.7">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="1">
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>11</v>
+        <v>126</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>160</v>
+        <v>212</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>77</v>
+        <v>213</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>192</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>169</v>
+        <v>214</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>170</v>
+        <v>215</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>12</v>
+        <v>141</v>
       </c>
       <c r="L40" s="1">
-        <v>9.9999999999999995E-7</v>
+        <v>-120</v>
       </c>
       <c r="M40" s="1">
         <v>50</v>
       </c>
-      <c r="N40" s="1">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.7">
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="1">
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>11</v>
+        <v>126</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>171</v>
+        <v>127</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>172</v>
+        <v>128</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>173</v>
+        <v>141</v>
       </c>
       <c r="L41" s="1">
         <v>-120</v>
@@ -2681,258 +2918,258 @@
         <v>50</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.7">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="1">
         <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>11</v>
+        <v>126</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>174</v>
+        <v>51</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>175</v>
+        <v>50</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>176</v>
+        <v>235</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>177</v>
+        <v>237</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>178</v>
+        <v>142</v>
       </c>
       <c r="L42" s="1">
-        <v>-90</v>
+        <v>-120</v>
       </c>
       <c r="M42" s="1">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.7">
+        <v>50</v>
+      </c>
+      <c r="N42" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="1">
         <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>11</v>
+        <v>126</v>
       </c>
       <c r="C43" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E43" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D43" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>174</v>
-      </c>
       <c r="F43" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>198</v>
+        <v>49</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>192</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>179</v>
+        <v>131</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>180</v>
+        <v>132</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>33</v>
+        <v>133</v>
       </c>
       <c r="L43" s="1">
-        <v>9.9999999999999995E-7</v>
+        <v>-120</v>
       </c>
       <c r="M43" s="1">
         <v>50</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.7">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="1">
         <v>43</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>11</v>
+        <v>126</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>174</v>
+        <v>129</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>175</v>
+        <v>130</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>181</v>
+        <v>137</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>182</v>
+        <v>138</v>
       </c>
       <c r="K44" s="1" t="s">
-        <v>178</v>
+        <v>133</v>
       </c>
       <c r="L44" s="1">
-        <v>-90</v>
+        <v>-120</v>
       </c>
       <c r="M44" s="1">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.7">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="1">
         <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>11</v>
+        <v>126</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>17</v>
+        <v>129</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>5</v>
+        <v>130</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>174</v>
+        <v>195</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>175</v>
+        <v>196</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>183</v>
+        <v>238</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>184</v>
+        <v>239</v>
       </c>
       <c r="K45" s="1" t="s">
-        <v>173</v>
+        <v>133</v>
       </c>
       <c r="L45" s="1">
-        <v>-90</v>
+        <v>-120</v>
       </c>
       <c r="M45" s="1">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.7">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="1">
         <v>45</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>150</v>
+        <v>129</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>151</v>
+        <v>130</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>185</v>
+        <v>144</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="H46" s="1" t="s">
-        <v>198</v>
+        <v>145</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>187</v>
+        <v>240</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>188</v>
+        <v>241</v>
       </c>
       <c r="K46" s="1" t="s">
-        <v>189</v>
+        <v>242</v>
       </c>
       <c r="L46" s="1">
-        <v>-90</v>
+        <v>-120</v>
       </c>
       <c r="M46" s="1">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.7">
+        <v>50</v>
+      </c>
+      <c r="N46" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="1">
         <v>46</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>185</v>
+        <v>129</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>186</v>
+        <v>130</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="G47" s="1" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>140</v>
+        <v>243</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>190</v>
+        <v>244</v>
       </c>
       <c r="K47" s="1" t="s">
-        <v>191</v>
+        <v>242</v>
       </c>
       <c r="L47" s="1">
-        <v>0.01</v>
+        <v>-120</v>
       </c>
       <c r="M47" s="1">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.7">
+        <v>50</v>
+      </c>
+      <c r="N47" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="1">
         <v>47</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>192</v>
+        <v>129</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>193</v>
+        <v>130</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>160</v>
+        <v>186</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="H48" s="1" t="s">
-        <v>198</v>
+        <v>187</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>187</v>
+        <v>245</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>194</v>
+        <v>246</v>
       </c>
       <c r="K48" s="1" t="s">
-        <v>195</v>
+        <v>242</v>
       </c>
       <c r="L48" s="1">
         <v>-120</v>
@@ -2940,11 +3177,1473 @@
       <c r="M48" s="1">
         <v>50</v>
       </c>
+      <c r="N48" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A49" s="1">
+        <v>48</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="J49" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="K49" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="L49" s="1">
+        <v>-120</v>
+      </c>
+      <c r="M49" s="1">
+        <v>50</v>
+      </c>
+      <c r="N49" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A50" s="1">
+        <v>49</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="J50" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="K50" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="L50" s="1">
+        <v>-120</v>
+      </c>
+      <c r="M50" s="1">
+        <v>50</v>
+      </c>
+      <c r="N50" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A51" s="1">
+        <v>50</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="I51" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="J51" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="K51" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="L51" s="1">
+        <v>-120</v>
+      </c>
+      <c r="M51" s="1">
+        <v>50</v>
+      </c>
+      <c r="N51" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A52" s="1">
+        <v>51</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="I52" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="J52" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="K52" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="L52" s="1">
+        <v>-120</v>
+      </c>
+      <c r="M52" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A53" s="1">
+        <v>52</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="I53" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="J53" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="K53" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="L53" s="1">
+        <v>-120</v>
+      </c>
+      <c r="M53" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A54" s="1">
+        <v>53</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="I54" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="J54" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="K54" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="L54" s="1">
+        <v>-120</v>
+      </c>
+      <c r="M54" s="1">
+        <v>50</v>
+      </c>
+      <c r="N54" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A55" s="1">
+        <v>54</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="I55" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="J55" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="K55" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="L55" s="1">
+        <v>-120</v>
+      </c>
+      <c r="M55" s="1">
+        <v>50</v>
+      </c>
+      <c r="N55" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A56" s="1">
+        <v>55</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="I56" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="J56" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="K56" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="L56" s="1">
+        <v>-120</v>
+      </c>
+      <c r="M56" s="1">
+        <v>50</v>
+      </c>
+      <c r="N56" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A57" s="1">
+        <v>56</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="I57" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="J57" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="K57" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="L57" s="1">
+        <v>-120</v>
+      </c>
+      <c r="M57" s="1">
+        <v>50</v>
+      </c>
+      <c r="N57" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A58" s="1">
+        <v>57</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="H58" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="I58" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="J58" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="K58" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="L58" s="1">
+        <v>-120</v>
+      </c>
+      <c r="M58" s="1">
+        <v>50</v>
+      </c>
+      <c r="N58" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A59" s="1">
+        <v>58</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H59" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="I59" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="J59" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="K59" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="L59" s="1">
+        <v>-120</v>
+      </c>
+      <c r="M59" s="1">
+        <v>50</v>
+      </c>
+      <c r="N59" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A60" s="1">
+        <v>59</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="I60" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="J60" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="K60" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="L60" s="1">
+        <v>0</v>
+      </c>
+      <c r="M60" s="1">
+        <v>100</v>
+      </c>
+      <c r="N60" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A61" s="1">
+        <v>60</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I61" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J61" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K61" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L61" s="1">
+        <v>0</v>
+      </c>
+      <c r="M61" s="1">
+        <v>100</v>
+      </c>
+      <c r="N61" s="1">
+        <v>50</v>
+      </c>
+      <c r="O61" s="1"/>
+      <c r="P61" s="1"/>
+      <c r="Q61" s="1"/>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A62" s="1">
+        <v>61</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H62" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="I62" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J62" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K62" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L62" s="1">
+        <v>0</v>
+      </c>
+      <c r="M62" s="1">
+        <v>100</v>
+      </c>
+      <c r="N62" s="1">
+        <v>50</v>
+      </c>
+      <c r="O62" s="1"/>
+      <c r="P62" s="1"/>
+      <c r="Q62" s="1"/>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A63" s="1">
+        <v>62</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="I63" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="J63" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="K63" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="L63" s="1">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="M63" s="1">
+        <v>50</v>
+      </c>
+      <c r="O63" s="1"/>
+      <c r="P63" s="1"/>
+      <c r="Q63" s="1"/>
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A64" s="1">
+        <v>63</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="I64" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="J64" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="K64" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="L64" s="1">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="M64" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A65" s="1">
+        <v>64</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="I65" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="J65" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="K65" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="L65" s="1">
+        <v>1</v>
+      </c>
+      <c r="M65" s="1">
+        <v>10</v>
+      </c>
+      <c r="O65" s="1"/>
+      <c r="P65" s="1"/>
+      <c r="Q65" s="1"/>
+    </row>
+    <row r="66" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A66" s="1">
+        <v>65</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I66" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="J66" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K66" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="L66" s="1">
+        <v>-120</v>
+      </c>
+      <c r="M66" s="1">
+        <v>50</v>
+      </c>
+      <c r="N66" s="1">
+        <v>50</v>
+      </c>
+      <c r="O66" s="1"/>
+      <c r="P66" s="1"/>
+      <c r="Q66" s="1"/>
+    </row>
+    <row r="67" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A67" s="1">
+        <v>66</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H67" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="I67" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J67" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="K67" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="L67" s="1">
+        <v>-120</v>
+      </c>
+      <c r="M67" s="1">
+        <v>50</v>
+      </c>
+      <c r="N67" s="1">
+        <v>50</v>
+      </c>
+      <c r="O67" s="1"/>
+      <c r="P67" s="1"/>
+      <c r="Q67" s="1"/>
+    </row>
+    <row r="68" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A68" s="1">
+        <v>67</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="I68" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="J68" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="K68" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="L68" s="1">
+        <v>-120</v>
+      </c>
+      <c r="M68" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A69" s="1">
+        <v>68</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H69" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="I69" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="J69" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="K69" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="L69" s="1">
+        <v>-120</v>
+      </c>
+      <c r="M69" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A70" s="1">
+        <v>69</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="I70" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="J70" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="K70" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="L70" s="1">
+        <v>-120</v>
+      </c>
+      <c r="M70" s="1">
+        <v>50</v>
+      </c>
+      <c r="N70" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="71" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A71" s="1">
+        <v>70</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="I71" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="J71" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="K71" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="L71" s="1">
+        <v>-120</v>
+      </c>
+      <c r="M71" s="1">
+        <v>50</v>
+      </c>
+      <c r="N71" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="72" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A72" s="1">
+        <v>71</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="I72" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="J72" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="K72" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="L72" s="1">
+        <v>-120</v>
+      </c>
+      <c r="M72" s="1">
+        <v>50</v>
+      </c>
+      <c r="N72" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="73" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A73" s="1">
+        <v>72</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="I73" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="J73" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="K73" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="L73" s="1">
+        <v>-120</v>
+      </c>
+      <c r="M73" s="1">
+        <v>50</v>
+      </c>
+      <c r="N73" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="74" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A74" s="1">
+        <v>73</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="I74" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="J74" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="K74" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="L74" s="1">
+        <v>-120</v>
+      </c>
+      <c r="M74" s="1">
+        <v>50</v>
+      </c>
+      <c r="N74" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="75" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A75" s="1">
+        <v>74</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="I75" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="J75" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="K75" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="L75" s="1">
+        <v>-120</v>
+      </c>
+      <c r="M75" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="76" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A76" s="1">
+        <v>75</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="H76" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="I76" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="J76" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="K76" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="L76" s="1">
+        <v>-120</v>
+      </c>
+      <c r="M76" s="1">
+        <v>50</v>
+      </c>
+      <c r="N76" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="77" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A77" s="1">
+        <v>76</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="H77" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="I77" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="J77" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="K77" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="L77" s="1">
+        <v>-120</v>
+      </c>
+      <c r="M77" s="1">
+        <v>50</v>
+      </c>
+      <c r="N77" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="78" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A78" s="1">
+        <v>77</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="H78" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="I78" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="J78" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="K78" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="L78" s="1">
+        <v>-120</v>
+      </c>
+      <c r="M78" s="1">
+        <v>50</v>
+      </c>
+      <c r="N78" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="79" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A79" s="1">
+        <v>78</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H79" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="I79" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="J79" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="K79" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="L79" s="1">
+        <v>-90</v>
+      </c>
+      <c r="M79" s="1">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="80" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A80" s="1">
+        <v>79</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I80" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="J80" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="K80" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="L80" s="1">
+        <v>-90</v>
+      </c>
+      <c r="M80" s="1">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="81" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A81" s="1">
+        <v>80</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H81" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="I81" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J81" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="K81" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L81" s="1">
+        <v>0</v>
+      </c>
+      <c r="M81" s="1">
+        <v>100</v>
+      </c>
+      <c r="N81" s="1">
+        <v>50</v>
+      </c>
+      <c r="O81" s="1"/>
+      <c r="P81" s="1"/>
+      <c r="Q81" s="1"/>
+    </row>
+    <row r="82" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A82" s="1">
+        <v>81</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I82" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J82" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K82" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L82" s="1">
+        <v>0</v>
+      </c>
+      <c r="M82" s="1">
+        <v>100</v>
+      </c>
+      <c r="O82" s="1"/>
+      <c r="P82" s="1"/>
+      <c r="Q82" s="1"/>
+    </row>
+    <row r="83" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A83" s="1">
+        <v>82</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I83" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="J83" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="K83" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="L83" s="1">
+        <v>0</v>
+      </c>
+      <c r="M83" s="1">
+        <v>100</v>
+      </c>
+      <c r="N83" s="1">
+        <v>10</v>
+      </c>
+      <c r="O83" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="P83" s="1"/>
+      <c r="Q83" s="1"/>
+    </row>
+    <row r="84" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A84" s="1">
+        <v>83</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="I84" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="J84" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="K84" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L84" s="1">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="M84" s="1">
+        <v>50</v>
+      </c>
+      <c r="N84" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="85" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A85" s="1">
+        <v>84</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="G85" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="I85" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="J85" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="K85" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L85" s="1">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="M85" s="1">
+        <v>50</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Q48" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q27">
-      <sortCondition ref="C1"/>
+  <autoFilter ref="A1:Q85" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q85">
+      <sortCondition ref="C1:C85"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/Converter/assets/UnitConversion.xlsx
+++ b/Converter/assets/UnitConversion.xlsx
@@ -8,22 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1d78e2062db64e14/Project/Python/AnalysisTool/Converter/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="12" documentId="13_ncr:1_{4CCCEAE6-5D0C-4A8E-AD1B-C17E928355D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7A0B93C5-21E4-4C41-8C04-DD8BA09B5332}"/>
+  <xr:revisionPtr revIDLastSave="405" documentId="13_ncr:1_{4CCCEAE6-5D0C-4A8E-AD1B-C17E928355D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A1ECE3C1-9189-419B-8F2B-1A393B83A904}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1695" windowWidth="9945" windowHeight="12585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Elec" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Elec!$A$1:$Q$85</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Elec!$A$1:$Q$119</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="725" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1031" uniqueCount="390">
   <si>
     <t>No</t>
   </si>
@@ -881,6 +881,318 @@
   </si>
   <si>
     <t>"r'$Voltage[V] = \sqrt{(10^{-3} \times \frac{(10^{\frac{Watt[dBm]}{10}})}{Z})} \times 10^{6}$'"</t>
+  </si>
+  <si>
+    <t>Length</t>
+  </si>
+  <si>
+    <t>Length [inch]</t>
+  </si>
+  <si>
+    <t>[inch]</t>
+  </si>
+  <si>
+    <t>Inch</t>
+  </si>
+  <si>
+    <t>Length [ft]</t>
+  </si>
+  <si>
+    <t>[ft]</t>
+  </si>
+  <si>
+    <t>P[0]/12</t>
+  </si>
+  <si>
+    <t>"r'$Length[ft] = \frac{Length[inch]}{12}$'"</t>
+  </si>
+  <si>
+    <t>Length [Mile]</t>
+  </si>
+  <si>
+    <t>[Mile]</t>
+  </si>
+  <si>
+    <t>P[0]/63360</t>
+  </si>
+  <si>
+    <t>"r'$Length[ft] = \frac{Length[inch]}{63360}$'"</t>
+  </si>
+  <si>
+    <t>[Yard]</t>
+  </si>
+  <si>
+    <t>P[0]/36</t>
+  </si>
+  <si>
+    <t>Length [Yard]</t>
+  </si>
+  <si>
+    <t>Length [km]</t>
+  </si>
+  <si>
+    <t>[km]</t>
+  </si>
+  <si>
+    <t>P[0]/39370</t>
+  </si>
+  <si>
+    <t>"r'$Length[Yard] = \frac{Length[inch]}{36}$'"</t>
+  </si>
+  <si>
+    <t>"r'$Length[km] = \frac{Length[inch]}{39370}$'"</t>
+  </si>
+  <si>
+    <t>Length [m]</t>
+  </si>
+  <si>
+    <t>[m]</t>
+  </si>
+  <si>
+    <t>"r'$Length[m] = \frac{Length[inch]}{39.37}$'"</t>
+  </si>
+  <si>
+    <t>Length [cm]</t>
+  </si>
+  <si>
+    <t>[cm]</t>
+  </si>
+  <si>
+    <t>P[0] *2.54</t>
+  </si>
+  <si>
+    <t>P[0] *25.4</t>
+  </si>
+  <si>
+    <t>"r'$Length[cm] = 2.54 \times Length[inch]$'"</t>
+  </si>
+  <si>
+    <t>"r'$Length[mm] = 25.4 \times Length[inch]$'"</t>
+  </si>
+  <si>
+    <t>P[0]*12</t>
+  </si>
+  <si>
+    <t>"r'$Length[inch] = 12 \times Length[ft]$'"</t>
+  </si>
+  <si>
+    <t>ft</t>
+  </si>
+  <si>
+    <t>P[0]/3</t>
+  </si>
+  <si>
+    <t>"r'$Length[Yard] = \frac{Length[ft]}{3}$'"</t>
+  </si>
+  <si>
+    <t>P[0]/5280</t>
+  </si>
+  <si>
+    <t>"r'$Length[Mile] = \frac{Length[ft]}{5280}$'"</t>
+  </si>
+  <si>
+    <t>P[0]*304.8</t>
+  </si>
+  <si>
+    <t>"r'$Length[mm] = 304.8 \times Length[ft]$'"</t>
+  </si>
+  <si>
+    <t>P[0]*0.3048</t>
+  </si>
+  <si>
+    <t>"r'$Length[m] = 0.3048 \times Length[ft]$'"</t>
+  </si>
+  <si>
+    <t>P[0]*0.0003048</t>
+  </si>
+  <si>
+    <t>"r'$Length[m] = 0.0003048 \times Length[ft]$'"</t>
+  </si>
+  <si>
+    <t>P[0] /25.4</t>
+  </si>
+  <si>
+    <t>"r'$Length[inch] = \frac{Length[mm]}{25.4}$'"</t>
+  </si>
+  <si>
+    <t>P[0] /304.8</t>
+  </si>
+  <si>
+    <t>"r'$Length[ft] = \frac{Length[mm]}{304.8}$'"</t>
+  </si>
+  <si>
+    <t>P[0] /914.4</t>
+  </si>
+  <si>
+    <t>"r'$Length[Yard] = \frac{Length[mm]}{914.4}$'"</t>
+  </si>
+  <si>
+    <t>P[0] /1.609e+6</t>
+  </si>
+  <si>
+    <t>"r'$Length[Mile] = \frac{Length[mm]}{1.609\times10^6}$'"</t>
+  </si>
+  <si>
+    <t>P[0] /10</t>
+  </si>
+  <si>
+    <t>"r'$Length[cm] = \frac{Length[mm]}{10}$'"</t>
+  </si>
+  <si>
+    <t>P[0] /1000</t>
+  </si>
+  <si>
+    <t>"r'$Length[m] = \frac{Length[mm]}{1000}$'"</t>
+  </si>
+  <si>
+    <t>P[0] /1000e3</t>
+  </si>
+  <si>
+    <t>"r'$Length[km] = \frac{Length[mm]}{10^6}$'"</t>
+  </si>
+  <si>
+    <t>P[0]/2.54</t>
+  </si>
+  <si>
+    <t>"r'$Length[inch] = \frac{Length[cm]}{2.54}$'"</t>
+  </si>
+  <si>
+    <t>cm</t>
+  </si>
+  <si>
+    <t>P[0] /30.48</t>
+  </si>
+  <si>
+    <t>"r'$Length[ft] = \frac{Length[cm]}{30.48}$'"</t>
+  </si>
+  <si>
+    <t>P[0] /91.44</t>
+  </si>
+  <si>
+    <t>"r'$Length[Yard] = \frac{Length[cm]}{91.44}$'"</t>
+  </si>
+  <si>
+    <t>P[0] /160900</t>
+  </si>
+  <si>
+    <t>"r'$Length[Mile] = \frac{Length[cm]}{160900}$'"</t>
+  </si>
+  <si>
+    <t>P[0] *10</t>
+  </si>
+  <si>
+    <t>"r'$Length[mm] = 10 \times Length[cm]$'"</t>
+  </si>
+  <si>
+    <t>P[0] /100</t>
+  </si>
+  <si>
+    <t>"r'$Length[m] = \frac{Length[cm]}{100}$'"</t>
+  </si>
+  <si>
+    <t>P[0] /100000</t>
+  </si>
+  <si>
+    <t>"r'$Length[km] = \frac{Length[mm]}{10^5}$'"</t>
+  </si>
+  <si>
+    <t>"r'$Length[inch] = \frac{Length[m]}{39.37}$'"</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>P[0] * 39.37</t>
+  </si>
+  <si>
+    <t>P[0] *3.28084</t>
+  </si>
+  <si>
+    <t>"r'$Length[ft] = 3.28084 \times Length[m]$'"</t>
+  </si>
+  <si>
+    <t>P[0] * 1.0936132983</t>
+  </si>
+  <si>
+    <t>"r'$Length[Yard] = 1.0936132983 \times Length[m]$'"</t>
+  </si>
+  <si>
+    <t>P[0] *1000</t>
+  </si>
+  <si>
+    <t>"r'$Length[mm] = 1000 \times Length[m]$'"</t>
+  </si>
+  <si>
+    <t>P[0] *1609.344</t>
+  </si>
+  <si>
+    <t>"r'$Length[Mile] = 1609.344 \times Length[m]$'"</t>
+  </si>
+  <si>
+    <t>P[0] *100</t>
+  </si>
+  <si>
+    <t>"r'$Length[cm] = 100 \times Length[m]$'"</t>
+  </si>
+  <si>
+    <t>"r'$Length[km] = \frac{Length[m]}{1000}$'"</t>
+  </si>
+  <si>
+    <t>WireGage</t>
+  </si>
+  <si>
+    <t>Wire Diameter [inch]</t>
+  </si>
+  <si>
+    <t>0.3249 * sympy.exp(-0.116*P[0])</t>
+  </si>
+  <si>
+    <t>"r'$Wire Diameter [inch] = 0.3249 \times e^{-0.116 \times WireGage[number]}$'"</t>
+  </si>
+  <si>
+    <t>Wnum</t>
+  </si>
+  <si>
+    <t>Wire Diameter [mm]</t>
+  </si>
+  <si>
+    <t>8.2527 * sympy.exp(-0.116*P[0])</t>
+  </si>
+  <si>
+    <t>"r'$Wire Diameter [mm] = 8.2527 \times e^{-0.116 \times WireGage[number]}$'"</t>
+  </si>
+  <si>
+    <t>Heat</t>
+  </si>
+  <si>
+    <t>Fahrenheit [°F]</t>
+  </si>
+  <si>
+    <t>[°F]</t>
+  </si>
+  <si>
+    <t>Celsius [°C]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [°C]</t>
+  </si>
+  <si>
+    <t>(P[0]-32) *5/9</t>
+  </si>
+  <si>
+    <t>DegreesC</t>
+  </si>
+  <si>
+    <t>(P[0]*9/5)+32</t>
+  </si>
+  <si>
+    <t>"r'$Celsius [°C] = \frac{(Fahrenheit [°F] - 32) \times 5}{9}$'"</t>
+  </si>
+  <si>
+    <t>"r'$Fahrenheit [°F] = \frac{9 \times Celsius [°C]}{5} +32$'"</t>
+  </si>
+  <si>
+    <t>DegreesF</t>
   </si>
 </sst>
 </file>
@@ -993,6 +1305,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1292,10 +1608,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q85"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:Q123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C87" sqref="C87"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M129" sqref="M129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06640625" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -1370,7 +1687,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:17" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1413,7 +1730,7 @@
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:17" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1454,7 +1771,7 @@
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:17" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1492,7 +1809,7 @@
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:17" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1530,7 +1847,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:17" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1568,7 +1885,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:17" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1606,7 +1923,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:17" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1644,7 +1961,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:17" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1682,7 +1999,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:17" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1720,7 +2037,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:17" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1758,7 +2075,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:17" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -1799,7 +2116,7 @@
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:17" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -1840,7 +2157,7 @@
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:17" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -1886,7 +2203,7 @@
       <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:17" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -1924,7 +2241,7 @@
       <c r="P15" s="1"/>
       <c r="Q15" s="1"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:17" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -1965,7 +2282,7 @@
       <c r="P16" s="1"/>
       <c r="Q16" s="1"/>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:17" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -2003,12 +2320,12 @@
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:17" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="1">
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>32</v>
+        <v>286</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>38</v>
@@ -2041,12 +2358,12 @@
       <c r="P18" s="1"/>
       <c r="Q18" s="1"/>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:17" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="1">
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>32</v>
+        <v>286</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>39</v>
@@ -2079,7 +2396,7 @@
       <c r="P19" s="1"/>
       <c r="Q19" s="1"/>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:17" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -2225,7 +2542,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:17" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -2263,7 +2580,7 @@
       <c r="P24" s="1"/>
       <c r="Q24" s="1"/>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:17" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -2301,7 +2618,7 @@
       <c r="P25" s="1"/>
       <c r="Q25" s="1"/>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:17" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -2336,7 +2653,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:17" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -2377,7 +2694,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:17" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -2415,7 +2732,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:17" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -2453,7 +2770,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:17" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -2491,7 +2808,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:17" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -2529,7 +2846,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:17" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -2567,7 +2884,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:14" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -2602,7 +2919,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:14" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -2640,7 +2957,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:14" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -2681,7 +2998,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:14" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -2719,7 +3036,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:14" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -2760,7 +3077,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:14" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -2801,7 +3118,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:14" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -2842,7 +3159,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:14" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -2880,7 +3197,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:14" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -2918,7 +3235,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:14" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -2959,7 +3276,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:14" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -2997,7 +3314,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:14" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -3032,7 +3349,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:14" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -3067,7 +3384,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:14" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -3105,7 +3422,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:14" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -3143,7 +3460,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:14" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -3181,7 +3498,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:17" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -3219,7 +3536,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:17" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -3257,7 +3574,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:17" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -3295,7 +3612,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:17" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -3333,7 +3650,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:17" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -3371,7 +3688,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:17" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -3412,7 +3729,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:17" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -3453,7 +3770,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:17" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -3494,7 +3811,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:17" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="1">
         <v>56</v>
       </c>
@@ -3535,7 +3852,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:17" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -3576,7 +3893,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:17" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="1">
         <v>58</v>
       </c>
@@ -3617,7 +3934,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:17" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="1">
         <v>59</v>
       </c>
@@ -3655,7 +3972,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:17" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="1">
         <v>60</v>
       </c>
@@ -3696,7 +4013,7 @@
       <c r="P61" s="1"/>
       <c r="Q61" s="1"/>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:17" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="1">
         <v>61</v>
       </c>
@@ -3740,7 +4057,7 @@
       <c r="P62" s="1"/>
       <c r="Q62" s="1"/>
     </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:17" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="1">
         <v>62</v>
       </c>
@@ -3781,7 +4098,7 @@
       <c r="P63" s="1"/>
       <c r="Q63" s="1"/>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:17" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="1">
         <v>63</v>
       </c>
@@ -3819,7 +4136,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:17" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="1">
         <v>64</v>
       </c>
@@ -3860,7 +4177,7 @@
       <c r="P65" s="1"/>
       <c r="Q65" s="1"/>
     </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:17" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="1">
         <v>65</v>
       </c>
@@ -3901,7 +4218,7 @@
       <c r="P66" s="1"/>
       <c r="Q66" s="1"/>
     </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:17" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="1">
         <v>66</v>
       </c>
@@ -3945,7 +4262,7 @@
       <c r="P67" s="1"/>
       <c r="Q67" s="1"/>
     </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:17" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="1">
         <v>67</v>
       </c>
@@ -3980,7 +4297,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:17" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="1">
         <v>68</v>
       </c>
@@ -4018,7 +4335,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:17" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="1">
         <v>69</v>
       </c>
@@ -4056,7 +4373,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:17" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="1">
         <v>70</v>
       </c>
@@ -4094,7 +4411,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:17" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="1">
         <v>71</v>
       </c>
@@ -4132,7 +4449,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:17" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" s="1">
         <v>72</v>
       </c>
@@ -4170,7 +4487,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:17" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" s="1">
         <v>73</v>
       </c>
@@ -4208,7 +4525,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:17" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" s="1">
         <v>74</v>
       </c>
@@ -4243,7 +4560,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:17" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" s="1">
         <v>75</v>
       </c>
@@ -4284,7 +4601,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:17" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" s="1">
         <v>76</v>
       </c>
@@ -4325,7 +4642,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="1:17" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" s="1">
         <v>77</v>
       </c>
@@ -4366,7 +4683,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:17" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" s="1">
         <v>78</v>
       </c>
@@ -4404,7 +4721,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="1:17" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" s="1">
         <v>79</v>
       </c>
@@ -4439,7 +4756,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="1:17" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" s="1">
         <v>80</v>
       </c>
@@ -4483,7 +4800,7 @@
       <c r="P81" s="1"/>
       <c r="Q81" s="1"/>
     </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="1:17" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" s="1">
         <v>81</v>
       </c>
@@ -4521,7 +4838,7 @@
       <c r="P82" s="1"/>
       <c r="Q82" s="1"/>
     </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="1:17" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" s="1">
         <v>82</v>
       </c>
@@ -4564,7 +4881,7 @@
       <c r="P83" s="1"/>
       <c r="Q83" s="1"/>
     </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="1:17" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" s="1">
         <v>83</v>
       </c>
@@ -4602,7 +4919,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="1:17" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" s="1">
         <v>84</v>
       </c>
@@ -4640,8 +4957,1250 @@
         <v>50</v>
       </c>
     </row>
+    <row r="86" spans="1:17" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A86" s="1">
+        <v>85</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="I86" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="J86" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="K86" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="L86" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="M86" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="87" spans="1:17" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A87" s="1">
+        <v>86</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="I87" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="J87" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="K87" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="L87" s="1">
+        <v>1</v>
+      </c>
+      <c r="M87" s="1">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="88" spans="1:17" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A88" s="1">
+        <v>87</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="I88" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="J88" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="K88" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="L88" s="1">
+        <v>1</v>
+      </c>
+      <c r="M88" s="1">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="89" spans="1:17" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A89" s="1">
+        <v>88</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="I89" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="J89" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="K89" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="L89" s="1">
+        <v>1</v>
+      </c>
+      <c r="M89" s="1">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="90" spans="1:17" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A90" s="1">
+        <v>89</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="I90" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J90" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="K90" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="L90" s="1">
+        <v>1</v>
+      </c>
+      <c r="M90" s="1">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="91" spans="1:17" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B91" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="F91" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="I91" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="J91" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="K91" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="L91" s="1">
+        <v>1</v>
+      </c>
+      <c r="M91" s="1">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="92" spans="1:17" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B92" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F92" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I92" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="J92" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="K92" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="L92" s="1">
+        <v>1</v>
+      </c>
+      <c r="M92" s="1">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="93" spans="1:17" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B93" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="I93" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="J93" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="K93" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="L93" s="1">
+        <v>1</v>
+      </c>
+      <c r="M93" s="1">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="94" spans="1:17" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B94" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="F94" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="I94" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="J94" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="K94" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="L94" s="1">
+        <v>1</v>
+      </c>
+      <c r="M94" s="1">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="95" spans="1:17" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B95" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="F95" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="I95" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="J95" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="K95" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="L95" s="1">
+        <v>1</v>
+      </c>
+      <c r="M95" s="1">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="96" spans="1:17" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B96" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F96" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I96" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="J96" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="K96" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="L96" s="1">
+        <v>1</v>
+      </c>
+      <c r="M96" s="1">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="97" spans="2:13" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B97" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="F97" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="I97" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="J97" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="K97" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="L97" s="1">
+        <v>1</v>
+      </c>
+      <c r="M97" s="1">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="98" spans="2:13" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B98" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="F98" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="I98" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="J98" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="K98" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="L98" s="1">
+        <v>1</v>
+      </c>
+      <c r="M98" s="1">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="99" spans="2:13" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B99" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="I99" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="J99" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="K99" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L99" s="1">
+        <v>1</v>
+      </c>
+      <c r="M99" s="1">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="100" spans="2:13" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B100" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="F100" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="I100" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="J100" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="K100" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L100" s="1">
+        <v>1</v>
+      </c>
+      <c r="M100" s="1">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="101" spans="2:13" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B101" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="F101" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="I101" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="J101" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="K101" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L101" s="1">
+        <v>1</v>
+      </c>
+      <c r="M101" s="1">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="102" spans="2:13" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B102" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="F102" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="I102" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="J102" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="K102" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L102" s="1">
+        <v>1</v>
+      </c>
+      <c r="M102" s="1">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="103" spans="2:13" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B103" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="F103" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="I103" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="J103" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="K103" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L103" s="1">
+        <v>1</v>
+      </c>
+      <c r="M103" s="1">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="104" spans="2:13" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B104" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="F104" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="I104" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="J104" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="K104" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L104" s="1">
+        <v>1</v>
+      </c>
+      <c r="M104" s="1">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="105" spans="2:13" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B105" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E105" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="F105" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="I105" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="J105" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="K105" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L105" s="1">
+        <v>1</v>
+      </c>
+      <c r="M105" s="1">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="106" spans="2:13" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B106" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="F106" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="I106" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="J106" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="K106" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="L106" s="1">
+        <v>1</v>
+      </c>
+      <c r="M106" s="1">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="107" spans="2:13" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B107" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="F107" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="I107" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="J107" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="K107" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="L107" s="1">
+        <v>1</v>
+      </c>
+      <c r="M107" s="1">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="108" spans="2:13" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B108" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="F108" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="I108" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="J108" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="K108" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="L108" s="1">
+        <v>1</v>
+      </c>
+      <c r="M108" s="1">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="109" spans="2:13" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B109" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="F109" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="I109" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="J109" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="K109" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="L109" s="1">
+        <v>1</v>
+      </c>
+      <c r="M109" s="1">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="110" spans="2:13" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B110" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="E110" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F110" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I110" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="J110" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="K110" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="L110" s="1">
+        <v>1</v>
+      </c>
+      <c r="M110" s="1">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="111" spans="2:13" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B111" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="F111" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="I111" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="J111" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="K111" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="L111" s="1">
+        <v>1</v>
+      </c>
+      <c r="M111" s="1">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="112" spans="2:13" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B112" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="F112" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="I112" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="J112" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="K112" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="L112" s="1">
+        <v>1</v>
+      </c>
+      <c r="M112" s="1">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="113" spans="2:13" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B113" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="E113" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="F113" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="I113" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="J113" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="K113" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="L113" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="M113" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="114" spans="2:13" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B114" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="E114" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="F114" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="I114" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="J114" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="K114" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="L114" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="M114" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="115" spans="2:13" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B115" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="E115" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="F115" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="I115" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="J115" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="K115" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="L115" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="M115" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="116" spans="2:13" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B116" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="E116" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F116" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I116" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="J116" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="K116" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="L116" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="M116" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="117" spans="2:13" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B117" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="E117" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="F117" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="I117" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="J117" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="K117" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="L117" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="M117" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="118" spans="2:13" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B118" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="D118" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="E118" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="F118" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="I118" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="J118" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="K118" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="L118" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="M118" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="119" spans="2:13" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B119" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="D119" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="E119" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="F119" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="I119" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="J119" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="K119" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="L119" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="M119" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="120" spans="2:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="B120" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="D120" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E120" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="F120" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="H120" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="I120" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="J120" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="K120" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="L120" s="1">
+        <v>14</v>
+      </c>
+      <c r="M120" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="121" spans="2:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="B121" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E121" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="F121" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H121" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="I121" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="J121" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="K121" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="L121" s="1">
+        <v>14</v>
+      </c>
+      <c r="M121" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="122" spans="2:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="B122" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="D122" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="E122" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="F122" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="I122" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="J122" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="K122" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="L122" s="1">
+        <v>-459.4</v>
+      </c>
+      <c r="M122" s="1">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="123" spans="2:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="B123" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="D123" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="E123" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="F123" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="I123" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="J123" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="K123" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="L123" s="1">
+        <v>-273</v>
+      </c>
+      <c r="M123" s="1">
+        <v>100</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:Q85" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <autoFilter ref="A1:Q119" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="MECH"/>
+      </filters>
+    </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q85">
       <sortCondition ref="C1:C85"/>
     </sortState>

--- a/Converter/assets/UnitConversion.xlsx
+++ b/Converter/assets/UnitConversion.xlsx
@@ -1,29 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1d78e2062db64e14/Project/Python/AnalysisTool/Converter/assets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://photonicinc-my.sharepoint.com/personal/iyoneda_photonic_com/Documents/Python/AnalysisTool/Converter/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="405" documentId="13_ncr:1_{4CCCEAE6-5D0C-4A8E-AD1B-C17E928355D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A1ECE3C1-9189-419B-8F2B-1A393B83A904}"/>
+  <xr:revisionPtr revIDLastSave="434" documentId="13_ncr:1_{4CCCEAE6-5D0C-4A8E-AD1B-C17E928355D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{018A6435-C738-46EF-A3CC-00981DD05CAB}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1695" windowWidth="9945" windowHeight="12585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6942" yWindow="696" windowWidth="13938" windowHeight="12072" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Elec" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Elec!$A$1:$Q$119</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Elec!$A$1:$Q$123</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1031" uniqueCount="390">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1040" uniqueCount="398">
   <si>
     <t>No</t>
   </si>
@@ -1193,6 +1193,30 @@
   </si>
   <si>
     <t>DegreesF</t>
+  </si>
+  <si>
+    <t>Instrument</t>
+  </si>
+  <si>
+    <t>[MHz]</t>
+  </si>
+  <si>
+    <t>[Point]</t>
+  </si>
+  <si>
+    <t>MHz GSAperSec</t>
+  </si>
+  <si>
+    <t>"r'$Datapoints[Point] = \frac{Sampling Frequency[GSa/s] \times 10^9}{Frequency [MHz] \times 10^6}$'"</t>
+  </si>
+  <si>
+    <t>(P[1] * sympy.Pow(10,9))/(P[0]* sympy.Pow(10,6))</t>
+  </si>
+  <si>
+    <t>DataRate [MHz]</t>
+  </si>
+  <si>
+    <t>SamplingPoints [Gsa/s]</t>
   </si>
 </sst>
 </file>
@@ -1608,33 +1632,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:Q123"/>
+  <dimension ref="A1:Q124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M129" sqref="M129"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A104" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E125" sqref="E125"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.06640625" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="9.05078125" defaultRowHeight="18.3" x14ac:dyDescent="0.7"/>
   <cols>
-    <col min="1" max="1" width="9.265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.46484375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.26171875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.68359375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.47265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.7890625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.20703125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="14" style="1" customWidth="1"/>
-    <col min="9" max="9" width="89.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="102.53125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="26.265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="17" width="14.265625" style="6" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.06640625" style="5"/>
+    <col min="9" max="9" width="89.3125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="102.5234375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="26.26171875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.41796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.20703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.26171875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="17" width="14.26171875" style="6" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.05078125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="4" customFormat="1" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:17" s="4" customFormat="1" ht="36.6" x14ac:dyDescent="0.7">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1687,7 +1711,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:17" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.7">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1730,7 +1754,7 @@
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
     </row>
-    <row r="3" spans="1:17" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.7">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1771,7 +1795,7 @@
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
     </row>
-    <row r="4" spans="1:17" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.7">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1809,7 +1833,7 @@
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
     </row>
-    <row r="5" spans="1:17" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.7">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1847,7 +1871,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:17" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.7">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1885,7 +1909,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:17" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.7">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1923,7 +1947,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:17" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.7">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1961,7 +1985,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:17" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.7">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1999,7 +2023,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:17" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.7">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -2037,7 +2061,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="11" spans="1:17" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.7">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -2075,7 +2099,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="12" spans="1:17" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.7">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -2116,7 +2140,7 @@
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
     </row>
-    <row r="13" spans="1:17" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.7">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -2157,7 +2181,7 @@
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
     </row>
-    <row r="14" spans="1:17" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.7">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -2203,7 +2227,7 @@
       <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
     </row>
-    <row r="15" spans="1:17" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.7">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -2241,7 +2265,7 @@
       <c r="P15" s="1"/>
       <c r="Q15" s="1"/>
     </row>
-    <row r="16" spans="1:17" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.7">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -2282,7 +2306,7 @@
       <c r="P16" s="1"/>
       <c r="Q16" s="1"/>
     </row>
-    <row r="17" spans="1:17" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.7">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -2320,7 +2344,7 @@
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
     </row>
-    <row r="18" spans="1:17" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.7">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -2358,7 +2382,7 @@
       <c r="P18" s="1"/>
       <c r="Q18" s="1"/>
     </row>
-    <row r="19" spans="1:17" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.7">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -2396,7 +2420,7 @@
       <c r="P19" s="1"/>
       <c r="Q19" s="1"/>
     </row>
-    <row r="20" spans="1:17" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.7">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -2434,7 +2458,7 @@
       <c r="P20" s="1"/>
       <c r="Q20" s="1"/>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.7">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -2472,7 +2496,7 @@
       <c r="P21" s="1"/>
       <c r="Q21" s="1"/>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.7">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -2507,7 +2531,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.7">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -2542,7 +2566,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:17" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.7">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -2580,7 +2604,7 @@
       <c r="P24" s="1"/>
       <c r="Q24" s="1"/>
     </row>
-    <row r="25" spans="1:17" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.7">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -2618,7 +2642,7 @@
       <c r="P25" s="1"/>
       <c r="Q25" s="1"/>
     </row>
-    <row r="26" spans="1:17" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.7">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -2653,7 +2677,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="27" spans="1:17" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.7">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -2694,7 +2718,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="28" spans="1:17" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.7">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -2732,7 +2756,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="29" spans="1:17" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.7">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -2770,7 +2794,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="30" spans="1:17" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.7">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -2808,7 +2832,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="31" spans="1:17" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.7">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -2846,7 +2870,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="32" spans="1:17" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.7">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -2884,7 +2908,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="33" spans="1:14" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.7">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -2919,7 +2943,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="34" spans="1:14" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.7">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -2957,7 +2981,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="35" spans="1:14" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.7">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -2998,7 +3022,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="36" spans="1:14" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.7">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -3036,7 +3060,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="37" spans="1:14" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.7">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -3077,7 +3101,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="38" spans="1:14" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.7">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -3118,7 +3142,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="39" spans="1:14" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.7">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -3159,7 +3183,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="40" spans="1:14" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.7">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -3197,7 +3221,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="41" spans="1:14" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.7">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -3235,7 +3259,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="42" spans="1:14" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.7">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -3276,7 +3300,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="43" spans="1:14" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.7">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -3314,7 +3338,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="44" spans="1:14" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.7">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -3349,7 +3373,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="45" spans="1:14" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.7">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -3384,7 +3408,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="46" spans="1:14" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.7">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -3422,7 +3446,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="47" spans="1:14" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.7">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -3460,7 +3484,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="48" spans="1:14" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.7">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -3498,7 +3522,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="49" spans="1:17" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.7">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -3536,7 +3560,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="50" spans="1:17" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.7">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -3574,7 +3598,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="51" spans="1:17" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.7">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -3612,7 +3636,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:17" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.7">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -3650,7 +3674,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="53" spans="1:17" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.7">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -3688,7 +3712,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="54" spans="1:17" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.7">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -3729,7 +3753,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="55" spans="1:17" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.7">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -3770,7 +3794,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="56" spans="1:17" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.7">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -3811,7 +3835,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="57" spans="1:17" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.7">
       <c r="A57" s="1">
         <v>56</v>
       </c>
@@ -3852,7 +3876,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="58" spans="1:17" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.7">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -3893,7 +3917,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="59" spans="1:17" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.7">
       <c r="A59" s="1">
         <v>58</v>
       </c>
@@ -3934,7 +3958,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="60" spans="1:17" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.7">
       <c r="A60" s="1">
         <v>59</v>
       </c>
@@ -3972,7 +3996,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="61" spans="1:17" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.7">
       <c r="A61" s="1">
         <v>60</v>
       </c>
@@ -4013,7 +4037,7 @@
       <c r="P61" s="1"/>
       <c r="Q61" s="1"/>
     </row>
-    <row r="62" spans="1:17" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.7">
       <c r="A62" s="1">
         <v>61</v>
       </c>
@@ -4057,7 +4081,7 @@
       <c r="P62" s="1"/>
       <c r="Q62" s="1"/>
     </row>
-    <row r="63" spans="1:17" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:17" x14ac:dyDescent="0.7">
       <c r="A63" s="1">
         <v>62</v>
       </c>
@@ -4098,7 +4122,7 @@
       <c r="P63" s="1"/>
       <c r="Q63" s="1"/>
     </row>
-    <row r="64" spans="1:17" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.7">
       <c r="A64" s="1">
         <v>63</v>
       </c>
@@ -4136,7 +4160,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="65" spans="1:17" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:17" x14ac:dyDescent="0.7">
       <c r="A65" s="1">
         <v>64</v>
       </c>
@@ -4177,7 +4201,7 @@
       <c r="P65" s="1"/>
       <c r="Q65" s="1"/>
     </row>
-    <row r="66" spans="1:17" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:17" x14ac:dyDescent="0.7">
       <c r="A66" s="1">
         <v>65</v>
       </c>
@@ -4218,7 +4242,7 @@
       <c r="P66" s="1"/>
       <c r="Q66" s="1"/>
     </row>
-    <row r="67" spans="1:17" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:17" x14ac:dyDescent="0.7">
       <c r="A67" s="1">
         <v>66</v>
       </c>
@@ -4262,7 +4286,7 @@
       <c r="P67" s="1"/>
       <c r="Q67" s="1"/>
     </row>
-    <row r="68" spans="1:17" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:17" x14ac:dyDescent="0.7">
       <c r="A68" s="1">
         <v>67</v>
       </c>
@@ -4297,7 +4321,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="69" spans="1:17" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:17" x14ac:dyDescent="0.7">
       <c r="A69" s="1">
         <v>68</v>
       </c>
@@ -4335,7 +4359,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="70" spans="1:17" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:17" x14ac:dyDescent="0.7">
       <c r="A70" s="1">
         <v>69</v>
       </c>
@@ -4373,7 +4397,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="71" spans="1:17" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:17" x14ac:dyDescent="0.7">
       <c r="A71" s="1">
         <v>70</v>
       </c>
@@ -4411,7 +4435,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="72" spans="1:17" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:17" x14ac:dyDescent="0.7">
       <c r="A72" s="1">
         <v>71</v>
       </c>
@@ -4449,7 +4473,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="73" spans="1:17" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:17" x14ac:dyDescent="0.7">
       <c r="A73" s="1">
         <v>72</v>
       </c>
@@ -4487,7 +4511,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="74" spans="1:17" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:17" x14ac:dyDescent="0.7">
       <c r="A74" s="1">
         <v>73</v>
       </c>
@@ -4525,7 +4549,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="75" spans="1:17" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:17" x14ac:dyDescent="0.7">
       <c r="A75" s="1">
         <v>74</v>
       </c>
@@ -4560,7 +4584,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="76" spans="1:17" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:17" x14ac:dyDescent="0.7">
       <c r="A76" s="1">
         <v>75</v>
       </c>
@@ -4601,7 +4625,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="77" spans="1:17" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:17" x14ac:dyDescent="0.7">
       <c r="A77" s="1">
         <v>76</v>
       </c>
@@ -4642,7 +4666,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="78" spans="1:17" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="1:17" x14ac:dyDescent="0.7">
       <c r="A78" s="1">
         <v>77</v>
       </c>
@@ -4683,7 +4707,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="79" spans="1:17" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:17" x14ac:dyDescent="0.7">
       <c r="A79" s="1">
         <v>78</v>
       </c>
@@ -4721,7 +4745,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="80" spans="1:17" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="1:17" x14ac:dyDescent="0.7">
       <c r="A80" s="1">
         <v>79</v>
       </c>
@@ -4756,7 +4780,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="81" spans="1:17" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="1:17" x14ac:dyDescent="0.7">
       <c r="A81" s="1">
         <v>80</v>
       </c>
@@ -4800,7 +4824,7 @@
       <c r="P81" s="1"/>
       <c r="Q81" s="1"/>
     </row>
-    <row r="82" spans="1:17" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="1:17" x14ac:dyDescent="0.7">
       <c r="A82" s="1">
         <v>81</v>
       </c>
@@ -4838,7 +4862,7 @@
       <c r="P82" s="1"/>
       <c r="Q82" s="1"/>
     </row>
-    <row r="83" spans="1:17" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="1:17" x14ac:dyDescent="0.7">
       <c r="A83" s="1">
         <v>82</v>
       </c>
@@ -4881,7 +4905,7 @@
       <c r="P83" s="1"/>
       <c r="Q83" s="1"/>
     </row>
-    <row r="84" spans="1:17" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="1:17" x14ac:dyDescent="0.7">
       <c r="A84" s="1">
         <v>83</v>
       </c>
@@ -4919,7 +4943,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="85" spans="1:17" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="1:17" x14ac:dyDescent="0.7">
       <c r="A85" s="1">
         <v>84</v>
       </c>
@@ -4957,7 +4981,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="86" spans="1:17" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="1:17" x14ac:dyDescent="0.7">
       <c r="A86" s="1">
         <v>85</v>
       </c>
@@ -4992,7 +5016,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="87" spans="1:17" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="1:17" x14ac:dyDescent="0.7">
       <c r="A87" s="1">
         <v>86</v>
       </c>
@@ -5027,7 +5051,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="88" spans="1:17" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="1:17" x14ac:dyDescent="0.7">
       <c r="A88" s="1">
         <v>87</v>
       </c>
@@ -5062,7 +5086,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="89" spans="1:17" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="89" spans="1:17" x14ac:dyDescent="0.7">
       <c r="A89" s="1">
         <v>88</v>
       </c>
@@ -5097,7 +5121,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="90" spans="1:17" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="90" spans="1:17" x14ac:dyDescent="0.7">
       <c r="A90" s="1">
         <v>89</v>
       </c>
@@ -5132,7 +5156,10 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="91" spans="1:17" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="91" spans="1:17" x14ac:dyDescent="0.7">
+      <c r="A91" s="1">
+        <v>90</v>
+      </c>
       <c r="B91" s="1" t="s">
         <v>286</v>
       </c>
@@ -5164,7 +5191,10 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="92" spans="1:17" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="92" spans="1:17" x14ac:dyDescent="0.7">
+      <c r="A92" s="1">
+        <v>91</v>
+      </c>
       <c r="B92" s="1" t="s">
         <v>286</v>
       </c>
@@ -5196,7 +5226,10 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="93" spans="1:17" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="93" spans="1:17" x14ac:dyDescent="0.7">
+      <c r="A93" s="1">
+        <v>92</v>
+      </c>
       <c r="B93" s="1" t="s">
         <v>286</v>
       </c>
@@ -5228,7 +5261,10 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="94" spans="1:17" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="94" spans="1:17" x14ac:dyDescent="0.7">
+      <c r="A94" s="1">
+        <v>93</v>
+      </c>
       <c r="B94" s="1" t="s">
         <v>286</v>
       </c>
@@ -5260,7 +5296,10 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="95" spans="1:17" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="95" spans="1:17" x14ac:dyDescent="0.7">
+      <c r="A95" s="1">
+        <v>94</v>
+      </c>
       <c r="B95" s="1" t="s">
         <v>286</v>
       </c>
@@ -5292,7 +5331,10 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="96" spans="1:17" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="96" spans="1:17" x14ac:dyDescent="0.7">
+      <c r="A96" s="1">
+        <v>95</v>
+      </c>
       <c r="B96" s="1" t="s">
         <v>286</v>
       </c>
@@ -5324,7 +5366,10 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="97" spans="2:13" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.7">
+      <c r="A97" s="1">
+        <v>96</v>
+      </c>
       <c r="B97" s="1" t="s">
         <v>286</v>
       </c>
@@ -5356,7 +5401,10 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="98" spans="2:13" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.7">
+      <c r="A98" s="1">
+        <v>97</v>
+      </c>
       <c r="B98" s="1" t="s">
         <v>286</v>
       </c>
@@ -5388,7 +5436,10 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="99" spans="2:13" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.7">
+      <c r="A99" s="1">
+        <v>98</v>
+      </c>
       <c r="B99" s="1" t="s">
         <v>286</v>
       </c>
@@ -5420,7 +5471,10 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="100" spans="2:13" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.7">
+      <c r="A100" s="1">
+        <v>99</v>
+      </c>
       <c r="B100" s="1" t="s">
         <v>286</v>
       </c>
@@ -5452,7 +5506,10 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="101" spans="2:13" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.7">
+      <c r="A101" s="1">
+        <v>100</v>
+      </c>
       <c r="B101" s="1" t="s">
         <v>286</v>
       </c>
@@ -5484,7 +5541,10 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="102" spans="2:13" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.7">
+      <c r="A102" s="1">
+        <v>101</v>
+      </c>
       <c r="B102" s="1" t="s">
         <v>286</v>
       </c>
@@ -5516,7 +5576,10 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="103" spans="2:13" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.7">
+      <c r="A103" s="1">
+        <v>102</v>
+      </c>
       <c r="B103" s="1" t="s">
         <v>286</v>
       </c>
@@ -5548,7 +5611,10 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="104" spans="2:13" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.7">
+      <c r="A104" s="1">
+        <v>103</v>
+      </c>
       <c r="B104" s="1" t="s">
         <v>286</v>
       </c>
@@ -5580,7 +5646,10 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="105" spans="2:13" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.7">
+      <c r="A105" s="1">
+        <v>104</v>
+      </c>
       <c r="B105" s="1" t="s">
         <v>286</v>
       </c>
@@ -5612,7 +5681,10 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="106" spans="2:13" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.7">
+      <c r="A106" s="1">
+        <v>105</v>
+      </c>
       <c r="B106" s="1" t="s">
         <v>286</v>
       </c>
@@ -5644,7 +5716,10 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="107" spans="2:13" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.7">
+      <c r="A107" s="1">
+        <v>106</v>
+      </c>
       <c r="B107" s="1" t="s">
         <v>286</v>
       </c>
@@ -5676,7 +5751,10 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="108" spans="2:13" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.7">
+      <c r="A108" s="1">
+        <v>107</v>
+      </c>
       <c r="B108" s="1" t="s">
         <v>286</v>
       </c>
@@ -5708,7 +5786,10 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="109" spans="2:13" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.7">
+      <c r="A109" s="1">
+        <v>108</v>
+      </c>
       <c r="B109" s="1" t="s">
         <v>286</v>
       </c>
@@ -5740,7 +5821,10 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="110" spans="2:13" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.7">
+      <c r="A110" s="1">
+        <v>109</v>
+      </c>
       <c r="B110" s="1" t="s">
         <v>286</v>
       </c>
@@ -5772,7 +5856,10 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="111" spans="2:13" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.7">
+      <c r="A111" s="1">
+        <v>110</v>
+      </c>
       <c r="B111" s="1" t="s">
         <v>286</v>
       </c>
@@ -5804,7 +5891,10 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="112" spans="2:13" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.7">
+      <c r="A112" s="1">
+        <v>111</v>
+      </c>
       <c r="B112" s="1" t="s">
         <v>286</v>
       </c>
@@ -5836,7 +5926,10 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="113" spans="2:13" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="113" spans="1:14" x14ac:dyDescent="0.7">
+      <c r="A113" s="1">
+        <v>112</v>
+      </c>
       <c r="B113" s="1" t="s">
         <v>286</v>
       </c>
@@ -5868,7 +5961,10 @@
         <v>100</v>
       </c>
     </row>
-    <row r="114" spans="2:13" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="114" spans="1:14" x14ac:dyDescent="0.7">
+      <c r="A114" s="1">
+        <v>113</v>
+      </c>
       <c r="B114" s="1" t="s">
         <v>286</v>
       </c>
@@ -5900,7 +5996,10 @@
         <v>100</v>
       </c>
     </row>
-    <row r="115" spans="2:13" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="115" spans="1:14" x14ac:dyDescent="0.7">
+      <c r="A115" s="1">
+        <v>114</v>
+      </c>
       <c r="B115" s="1" t="s">
         <v>286</v>
       </c>
@@ -5932,7 +6031,10 @@
         <v>100</v>
       </c>
     </row>
-    <row r="116" spans="2:13" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="116" spans="1:14" x14ac:dyDescent="0.7">
+      <c r="A116" s="1">
+        <v>115</v>
+      </c>
       <c r="B116" s="1" t="s">
         <v>286</v>
       </c>
@@ -5964,7 +6066,10 @@
         <v>100</v>
       </c>
     </row>
-    <row r="117" spans="2:13" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="117" spans="1:14" x14ac:dyDescent="0.7">
+      <c r="A117" s="1">
+        <v>116</v>
+      </c>
       <c r="B117" s="1" t="s">
         <v>286</v>
       </c>
@@ -5996,7 +6101,10 @@
         <v>100</v>
       </c>
     </row>
-    <row r="118" spans="2:13" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="118" spans="1:14" x14ac:dyDescent="0.7">
+      <c r="A118" s="1">
+        <v>117</v>
+      </c>
       <c r="B118" s="1" t="s">
         <v>286</v>
       </c>
@@ -6028,7 +6136,10 @@
         <v>100</v>
       </c>
     </row>
-    <row r="119" spans="2:13" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="119" spans="1:14" x14ac:dyDescent="0.7">
+      <c r="A119" s="1">
+        <v>118</v>
+      </c>
       <c r="B119" s="1" t="s">
         <v>286</v>
       </c>
@@ -6060,7 +6171,10 @@
         <v>100</v>
       </c>
     </row>
-    <row r="120" spans="2:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="120" spans="1:14" x14ac:dyDescent="0.7">
+      <c r="A120" s="1">
+        <v>119</v>
+      </c>
       <c r="B120" s="1" t="s">
         <v>32</v>
       </c>
@@ -6095,7 +6209,10 @@
         <v>32</v>
       </c>
     </row>
-    <row r="121" spans="2:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="121" spans="1:14" x14ac:dyDescent="0.7">
+      <c r="A121" s="1">
+        <v>120</v>
+      </c>
       <c r="B121" s="1" t="s">
         <v>32</v>
       </c>
@@ -6130,7 +6247,10 @@
         <v>32</v>
       </c>
     </row>
-    <row r="122" spans="2:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="122" spans="1:14" x14ac:dyDescent="0.7">
+      <c r="A122" s="1">
+        <v>121</v>
+      </c>
       <c r="B122" s="1" t="s">
         <v>379</v>
       </c>
@@ -6162,7 +6282,10 @@
         <v>212</v>
       </c>
     </row>
-    <row r="123" spans="2:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="123" spans="1:14" x14ac:dyDescent="0.7">
+      <c r="A123" s="1">
+        <v>122</v>
+      </c>
       <c r="B123" s="1" t="s">
         <v>379</v>
       </c>
@@ -6194,13 +6317,49 @@
         <v>100</v>
       </c>
     </row>
+    <row r="124" spans="1:14" x14ac:dyDescent="0.7">
+      <c r="A124" s="1">
+        <v>123</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="D124" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="E124" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="F124" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="H124" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="I124" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="J124" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="K124" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="L124" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="M124" s="1">
+        <v>100</v>
+      </c>
+      <c r="N124" s="1">
+        <v>64</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:Q119" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="MECH"/>
-      </filters>
-    </filterColumn>
+  <autoFilter ref="A1:Q123" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q85">
       <sortCondition ref="C1:C85"/>
     </sortState>

--- a/Converter/assets/UnitConversion.xlsx
+++ b/Converter/assets/UnitConversion.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://photonicinc-my.sharepoint.com/personal/iyoneda_photonic_com/Documents/Python/AnalysisTool/Converter/assets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1d78e2062db64e14/Project/Python/AnalysisTool/Converter/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="434" documentId="13_ncr:1_{4CCCEAE6-5D0C-4A8E-AD1B-C17E928355D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{018A6435-C738-46EF-A3CC-00981DD05CAB}"/>
+  <xr:revisionPtr revIDLastSave="505" documentId="13_ncr:1_{4CCCEAE6-5D0C-4A8E-AD1B-C17E928355D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C7259BB6-1205-4D2E-877F-0C72133AB6AF}"/>
   <bookViews>
-    <workbookView xWindow="6942" yWindow="696" windowWidth="13938" windowHeight="12072" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1695" windowWidth="9113" windowHeight="12585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Elec" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1040" uniqueCount="398">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1088" uniqueCount="419">
   <si>
     <t>No</t>
   </si>
@@ -1217,6 +1217,69 @@
   </si>
   <si>
     <t>SamplingPoints [Gsa/s]</t>
+  </si>
+  <si>
+    <t>Voltage [Vp]</t>
+  </si>
+  <si>
+    <t>[Vp]</t>
+  </si>
+  <si>
+    <t>sympy.Pow(2,0.5) * P[0]</t>
+  </si>
+  <si>
+    <t>"r'$Voltage [Vpeak] = \sqrt{2} \times Voltage[V]$'"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> P[0]/sympy.Pow(2,0.5)</t>
+  </si>
+  <si>
+    <t>"r'$Voltage [V] = \frac{Voltage[Vpeak]}{\sqrt{2}}$'"</t>
+  </si>
+  <si>
+    <t>Voltage [Vpp]</t>
+  </si>
+  <si>
+    <t>[Vpp]</t>
+  </si>
+  <si>
+    <t>2*sympy.Pow(2,0.5) * P[0]</t>
+  </si>
+  <si>
+    <t>"r'$Voltage [Vpeak-peak] =2 \sqrt{2} \times Voltage[V]$'"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> P[0]/(2*sympy.Pow(2,0.5))</t>
+  </si>
+  <si>
+    <t>Voltage [Vavg]</t>
+  </si>
+  <si>
+    <t>[Vavg]</t>
+  </si>
+  <si>
+    <t>sympy.pi*P[0]/(2*sympy.Pow(2,0.5))</t>
+  </si>
+  <si>
+    <t>"r'$Voltage [V] = \frac{\pi \times Voltage[Vavg]}{2\sqrt{2}}$'"</t>
+  </si>
+  <si>
+    <t>Vp</t>
+  </si>
+  <si>
+    <t>Vpp</t>
+  </si>
+  <si>
+    <t>"r'$Voltage [V] = \frac{Voltage[Vpeak-peak]}{2\sqrt{2}}$'"</t>
+  </si>
+  <si>
+    <t>Vavg</t>
+  </si>
+  <si>
+    <t>"r'$Voltage [Vavg] = \frac{2\sqrt{2}}{\pi} \times Voltage [V]$'"</t>
+  </si>
+  <si>
+    <t>(2*sympy.Pow(2,0.5)*P[0])/sympy.pi</t>
   </si>
 </sst>
 </file>
@@ -1632,33 +1695,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q124"/>
+  <dimension ref="A1:Q130"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A104" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E125" sqref="E125"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A122" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I136" sqref="I136"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.05078125" defaultRowHeight="18.3" x14ac:dyDescent="0.7"/>
+  <sheetFormatPr defaultColWidth="9.06640625" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="9.26171875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.68359375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.47265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.7890625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.20703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.46484375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="14" style="1" customWidth="1"/>
-    <col min="9" max="9" width="89.3125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="102.5234375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="26.26171875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.41796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19.20703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.26171875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="17" width="14.26171875" style="6" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.05078125" style="5"/>
+    <col min="9" max="9" width="89.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="102.53125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="26.265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="17" width="14.265625" style="6" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.06640625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="4" customFormat="1" ht="36.6" x14ac:dyDescent="0.7">
+    <row r="1" spans="1:17" s="4" customFormat="1" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1711,7 +1774,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.7">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1754,7 +1817,7 @@
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.7">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1795,7 +1858,7 @@
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.7">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1833,7 +1896,7 @@
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.7">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1871,7 +1934,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.7">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1909,7 +1972,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.7">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1947,7 +2010,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.7">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1985,7 +2048,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.7">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -2023,7 +2086,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.7">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -2061,7 +2124,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.7">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -2099,7 +2162,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.7">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -2140,7 +2203,7 @@
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.7">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -2181,7 +2244,7 @@
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.7">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -2227,7 +2290,7 @@
       <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.7">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -2265,7 +2328,7 @@
       <c r="P15" s="1"/>
       <c r="Q15" s="1"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.7">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -2306,7 +2369,7 @@
       <c r="P16" s="1"/>
       <c r="Q16" s="1"/>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.7">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -2344,7 +2407,7 @@
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.7">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -2382,7 +2445,7 @@
       <c r="P18" s="1"/>
       <c r="Q18" s="1"/>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.7">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -2420,7 +2483,7 @@
       <c r="P19" s="1"/>
       <c r="Q19" s="1"/>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.7">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -2458,7 +2521,7 @@
       <c r="P20" s="1"/>
       <c r="Q20" s="1"/>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.7">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -2496,7 +2559,7 @@
       <c r="P21" s="1"/>
       <c r="Q21" s="1"/>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.7">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -2531,7 +2594,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.7">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -2566,7 +2629,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.7">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -2604,7 +2667,7 @@
       <c r="P24" s="1"/>
       <c r="Q24" s="1"/>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.7">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -2642,7 +2705,7 @@
       <c r="P25" s="1"/>
       <c r="Q25" s="1"/>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.7">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -2677,7 +2740,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.7">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -2718,7 +2781,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.7">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -2756,7 +2819,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.7">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -2794,7 +2857,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.7">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -2832,7 +2895,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.7">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -2870,7 +2933,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.7">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -2908,7 +2971,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.7">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -2943,7 +3006,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.7">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -2981,7 +3044,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.7">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -3022,7 +3085,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.7">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -3060,7 +3123,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.7">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -3101,7 +3164,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.7">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -3142,7 +3205,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.7">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -3183,7 +3246,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.7">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -3221,7 +3284,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.7">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -3259,7 +3322,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.7">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -3300,7 +3363,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.7">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -3338,7 +3401,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.7">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -3373,7 +3436,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.7">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -3408,7 +3471,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.7">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -3446,7 +3509,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.7">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -3484,7 +3547,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.7">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -3522,7 +3585,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.7">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -3560,7 +3623,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.7">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -3598,7 +3661,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.7">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -3636,7 +3699,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.7">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -3674,7 +3737,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.7">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -3712,7 +3775,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.7">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -3753,7 +3816,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.7">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -3794,7 +3857,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.7">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -3835,7 +3898,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.7">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="1">
         <v>56</v>
       </c>
@@ -3876,7 +3939,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.7">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -3917,7 +3980,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.7">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="1">
         <v>58</v>
       </c>
@@ -3958,7 +4021,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.7">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="1">
         <v>59</v>
       </c>
@@ -3996,7 +4059,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.7">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="1">
         <v>60</v>
       </c>
@@ -4037,7 +4100,7 @@
       <c r="P61" s="1"/>
       <c r="Q61" s="1"/>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.7">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="1">
         <v>61</v>
       </c>
@@ -4081,7 +4144,7 @@
       <c r="P62" s="1"/>
       <c r="Q62" s="1"/>
     </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.7">
+    <row r="63" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="1">
         <v>62</v>
       </c>
@@ -4122,7 +4185,7 @@
       <c r="P63" s="1"/>
       <c r="Q63" s="1"/>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.7">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="1">
         <v>63</v>
       </c>
@@ -4160,7 +4223,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.7">
+    <row r="65" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="1">
         <v>64</v>
       </c>
@@ -4201,7 +4264,7 @@
       <c r="P65" s="1"/>
       <c r="Q65" s="1"/>
     </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.7">
+    <row r="66" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="1">
         <v>65</v>
       </c>
@@ -4242,7 +4305,7 @@
       <c r="P66" s="1"/>
       <c r="Q66" s="1"/>
     </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.7">
+    <row r="67" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="1">
         <v>66</v>
       </c>
@@ -4286,7 +4349,7 @@
       <c r="P67" s="1"/>
       <c r="Q67" s="1"/>
     </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.7">
+    <row r="68" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="1">
         <v>67</v>
       </c>
@@ -4321,7 +4384,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.7">
+    <row r="69" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="1">
         <v>68</v>
       </c>
@@ -4359,7 +4422,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.7">
+    <row r="70" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="1">
         <v>69</v>
       </c>
@@ -4397,7 +4460,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.7">
+    <row r="71" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="1">
         <v>70</v>
       </c>
@@ -4435,7 +4498,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.7">
+    <row r="72" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="1">
         <v>71</v>
       </c>
@@ -4473,7 +4536,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.7">
+    <row r="73" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" s="1">
         <v>72</v>
       </c>
@@ -4511,7 +4574,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.7">
+    <row r="74" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" s="1">
         <v>73</v>
       </c>
@@ -4549,7 +4612,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.7">
+    <row r="75" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" s="1">
         <v>74</v>
       </c>
@@ -4584,7 +4647,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.7">
+    <row r="76" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" s="1">
         <v>75</v>
       </c>
@@ -4625,7 +4688,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.7">
+    <row r="77" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" s="1">
         <v>76</v>
       </c>
@@ -4666,7 +4729,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.7">
+    <row r="78" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" s="1">
         <v>77</v>
       </c>
@@ -4707,7 +4770,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.7">
+    <row r="79" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" s="1">
         <v>78</v>
       </c>
@@ -4745,7 +4808,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.7">
+    <row r="80" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" s="1">
         <v>79</v>
       </c>
@@ -4780,7 +4843,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.7">
+    <row r="81" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" s="1">
         <v>80</v>
       </c>
@@ -4824,7 +4887,7 @@
       <c r="P81" s="1"/>
       <c r="Q81" s="1"/>
     </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.7">
+    <row r="82" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" s="1">
         <v>81</v>
       </c>
@@ -4862,7 +4925,7 @@
       <c r="P82" s="1"/>
       <c r="Q82" s="1"/>
     </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.7">
+    <row r="83" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" s="1">
         <v>82</v>
       </c>
@@ -4905,7 +4968,7 @@
       <c r="P83" s="1"/>
       <c r="Q83" s="1"/>
     </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.7">
+    <row r="84" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" s="1">
         <v>83</v>
       </c>
@@ -4943,7 +5006,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.7">
+    <row r="85" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" s="1">
         <v>84</v>
       </c>
@@ -4981,7 +5044,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.7">
+    <row r="86" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" s="1">
         <v>85</v>
       </c>
@@ -5016,7 +5079,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.7">
+    <row r="87" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" s="1">
         <v>86</v>
       </c>
@@ -5051,7 +5114,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="88" spans="1:17" x14ac:dyDescent="0.7">
+    <row r="88" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" s="1">
         <v>87</v>
       </c>
@@ -5086,7 +5149,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.7">
+    <row r="89" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" s="1">
         <v>88</v>
       </c>
@@ -5121,7 +5184,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.7">
+    <row r="90" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" s="1">
         <v>89</v>
       </c>
@@ -5156,7 +5219,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="91" spans="1:17" x14ac:dyDescent="0.7">
+    <row r="91" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" s="1">
         <v>90</v>
       </c>
@@ -5191,7 +5254,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="92" spans="1:17" x14ac:dyDescent="0.7">
+    <row r="92" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" s="1">
         <v>91</v>
       </c>
@@ -5226,7 +5289,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="93" spans="1:17" x14ac:dyDescent="0.7">
+    <row r="93" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" s="1">
         <v>92</v>
       </c>
@@ -5261,7 +5324,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="94" spans="1:17" x14ac:dyDescent="0.7">
+    <row r="94" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" s="1">
         <v>93</v>
       </c>
@@ -5296,7 +5359,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="95" spans="1:17" x14ac:dyDescent="0.7">
+    <row r="95" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" s="1">
         <v>94</v>
       </c>
@@ -5331,7 +5394,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="96" spans="1:17" x14ac:dyDescent="0.7">
+    <row r="96" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" s="1">
         <v>95</v>
       </c>
@@ -5366,7 +5429,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.7">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" s="1">
         <v>96</v>
       </c>
@@ -5401,7 +5464,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.7">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" s="1">
         <v>97</v>
       </c>
@@ -5436,7 +5499,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.7">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" s="1">
         <v>98</v>
       </c>
@@ -5471,7 +5534,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.7">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" s="1">
         <v>99</v>
       </c>
@@ -5506,7 +5569,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.7">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" s="1">
         <v>100</v>
       </c>
@@ -5541,7 +5604,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.7">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A102" s="1">
         <v>101</v>
       </c>
@@ -5576,7 +5639,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.7">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A103" s="1">
         <v>102</v>
       </c>
@@ -5611,7 +5674,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.7">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" s="1">
         <v>103</v>
       </c>
@@ -5646,7 +5709,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.7">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A105" s="1">
         <v>104</v>
       </c>
@@ -5681,7 +5744,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.7">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A106" s="1">
         <v>105</v>
       </c>
@@ -5716,7 +5779,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.7">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A107" s="1">
         <v>106</v>
       </c>
@@ -5751,7 +5814,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.7">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A108" s="1">
         <v>107</v>
       </c>
@@ -5786,7 +5849,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.7">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A109" s="1">
         <v>108</v>
       </c>
@@ -5821,7 +5884,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.7">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A110" s="1">
         <v>109</v>
       </c>
@@ -5856,7 +5919,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.7">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A111" s="1">
         <v>110</v>
       </c>
@@ -5891,7 +5954,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.7">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A112" s="1">
         <v>111</v>
       </c>
@@ -5926,7 +5989,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="113" spans="1:14" x14ac:dyDescent="0.7">
+    <row r="113" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A113" s="1">
         <v>112</v>
       </c>
@@ -5961,7 +6024,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="114" spans="1:14" x14ac:dyDescent="0.7">
+    <row r="114" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A114" s="1">
         <v>113</v>
       </c>
@@ -5996,7 +6059,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="115" spans="1:14" x14ac:dyDescent="0.7">
+    <row r="115" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A115" s="1">
         <v>114</v>
       </c>
@@ -6031,7 +6094,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="116" spans="1:14" x14ac:dyDescent="0.7">
+    <row r="116" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A116" s="1">
         <v>115</v>
       </c>
@@ -6066,7 +6129,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="117" spans="1:14" x14ac:dyDescent="0.7">
+    <row r="117" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A117" s="1">
         <v>116</v>
       </c>
@@ -6101,7 +6164,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="118" spans="1:14" x14ac:dyDescent="0.7">
+    <row r="118" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A118" s="1">
         <v>117</v>
       </c>
@@ -6136,7 +6199,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="119" spans="1:14" x14ac:dyDescent="0.7">
+    <row r="119" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A119" s="1">
         <v>118</v>
       </c>
@@ -6171,7 +6234,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="120" spans="1:14" x14ac:dyDescent="0.7">
+    <row r="120" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A120" s="1">
         <v>119</v>
       </c>
@@ -6209,7 +6272,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="121" spans="1:14" x14ac:dyDescent="0.7">
+    <row r="121" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A121" s="1">
         <v>120</v>
       </c>
@@ -6247,7 +6310,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="122" spans="1:14" x14ac:dyDescent="0.7">
+    <row r="122" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A122" s="1">
         <v>121</v>
       </c>
@@ -6282,7 +6345,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="123" spans="1:14" x14ac:dyDescent="0.7">
+    <row r="123" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A123" s="1">
         <v>122</v>
       </c>
@@ -6317,7 +6380,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="124" spans="1:14" x14ac:dyDescent="0.7">
+    <row r="124" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A124" s="1">
         <v>123</v>
       </c>
@@ -6356,6 +6419,216 @@
       </c>
       <c r="N124" s="1">
         <v>64</v>
+      </c>
+    </row>
+    <row r="125" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A125" s="1">
+        <v>124</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D125" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E125" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="F125" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="I125" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="J125" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="K125" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="L125" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="M125" s="1">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="126" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A126" s="1">
+        <v>125</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="D126" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="E126" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F126" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I126" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="J126" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="K126" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="L126" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="M126" s="1">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="127" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A127" s="1">
+        <v>125</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D127" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E127" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="F127" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="I127" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="J127" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="K127" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="L127" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="M127" s="1">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="128" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A128" s="1">
+        <v>125</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="D128" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="E128" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F128" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I128" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="J128" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="K128" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="L128" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="M128" s="1">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="129" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A129" s="1">
+        <v>125</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="D129" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="E129" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F129" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I129" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="J129" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="K129" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="L129" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="M129" s="1">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="130" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A130" s="1">
+        <v>125</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D130" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E130" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="F130" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="I130" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="J130" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="K130" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="L130" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="M130" s="1">
+        <v>340</v>
       </c>
     </row>
   </sheetData>

--- a/Converter/assets/UnitConversion.xlsx
+++ b/Converter/assets/UnitConversion.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1d78e2062db64e14/Project/Python/AnalysisTool/Converter/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="505" documentId="13_ncr:1_{4CCCEAE6-5D0C-4A8E-AD1B-C17E928355D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C7259BB6-1205-4D2E-877F-0C72133AB6AF}"/>
+  <xr:revisionPtr revIDLastSave="22" documentId="13_ncr:1_{28AA09F0-1BFD-4629-8D14-FBC6BDF866C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{035093EF-A928-4F0C-9420-79F400ECAB0C}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1695" windowWidth="9113" windowHeight="12585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1350" windowWidth="14550" windowHeight="12585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Elec" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1088" uniqueCount="419">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1148" uniqueCount="441">
   <si>
     <t>No</t>
   </si>
@@ -1280,6 +1280,72 @@
   </si>
   <si>
     <t>(2*sympy.Pow(2,0.5)*P[0])/sympy.pi</t>
+  </si>
+  <si>
+    <t>Frequency [Hz]</t>
+  </si>
+  <si>
+    <t>[Hz]</t>
+  </si>
+  <si>
+    <t>Skin-Depth (Cu) [m]</t>
+  </si>
+  <si>
+    <t>sympy.Pow((2)/(2*sympy.pi*P[0]*P[1]*P[2]),0.5)</t>
+  </si>
+  <si>
+    <t>Skin-Depth (Al) [m]</t>
+  </si>
+  <si>
+    <t>"r'$SkinDepth (Cu)[m] = \sqrt{\frac{2}{2\pi Frequency[Hz] \times Permetivity {\mu} [H/m] \times Conductibity \sigma[S/m]}}$'"</t>
+  </si>
+  <si>
+    <t>"r'$SkinDepth (Al)[m] = \sqrt{\frac{2}{2\pi Frequency[Hz] \times Permetivity {\mu} [H/m] \times Conductibity \sigma[S/m]}}$'"</t>
+  </si>
+  <si>
+    <t>Freq Permeability:Cu Conductivity:Cu</t>
+  </si>
+  <si>
+    <t>Freq Permeability:Al Conductivity:Al</t>
+  </si>
+  <si>
+    <t>Freq Permeability:Fe Conductivity:Fe</t>
+  </si>
+  <si>
+    <t>"r'$SkinDepth (Fe)[m] = \sqrt{\frac{2}{2\pi Frequency[Hz] \times Permetivity {\mu} [H/m] \times Conductibity \sigma[S/m]}}$'"</t>
+  </si>
+  <si>
+    <t>Skin-Depth (Fe) [m]</t>
+  </si>
+  <si>
+    <t>Abosrption Loss (Cu) [dB]</t>
+  </si>
+  <si>
+    <t>"r'$Absorption Loss (Cu) [dB] = 8.69 \times \frac{Sheild Thickness [mm]}{1000 \times SkinDepth[m]}$'"</t>
+  </si>
+  <si>
+    <t>8.69 * P[3] / (1000*sympy.Pow((2)/(2*sympy.pi*P[0]*P[1]*P[2]),0.5))</t>
+  </si>
+  <si>
+    <t>Freq Permeability:Cu Conductivity:Cu Thickness[mm]</t>
+  </si>
+  <si>
+    <t>Abosrption Loss (Al) [dB]</t>
+  </si>
+  <si>
+    <t>Abosrption Loss (Fe) [dB]</t>
+  </si>
+  <si>
+    <t>Freq Permeability:Fe Conductivity:Fe Thickness[mm]</t>
+  </si>
+  <si>
+    <t>Freq Permeability:Al Conductivity:Al Thickness[mm]</t>
+  </si>
+  <si>
+    <t>"r'$Absorption Loss (Al) [dB] = 8.69 \times \frac{Sheild Thickness [mm]}{1000 \times SkinDepth[m]}$'"</t>
+  </si>
+  <si>
+    <t>"r'$Absorption Loss (Fe) [dB] = 8.69 \times \frac{Sheild Thickness [mm]}{1000 \times SkinDepth[m]}$'"</t>
   </si>
 </sst>
 </file>
@@ -1357,7 +1423,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1376,6 +1442,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1695,11 +1767,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q130"/>
+  <dimension ref="A1:Q136"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="I1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A122" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I136" sqref="I136"/>
+      <pane ySplit="1" topLeftCell="A118" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J140" sqref="J140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06640625" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -1708,12 +1780,12 @@
     <col min="2" max="2" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.46484375" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.1328125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="14" style="1" customWidth="1"/>
     <col min="9" max="9" width="89.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="102.53125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="26.265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="132.1328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="55.86328125" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="17.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="19.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="14.265625" style="1" bestFit="1" customWidth="1"/>
@@ -6493,7 +6565,7 @@
     </row>
     <row r="127" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A127" s="1">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B127" s="1" t="s">
         <v>10</v>
@@ -6528,7 +6600,7 @@
     </row>
     <row r="128" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A128" s="1">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B128" s="1" t="s">
         <v>10</v>
@@ -6561,9 +6633,9 @@
         <v>340</v>
       </c>
     </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="129" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A129" s="1">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B129" s="1" t="s">
         <v>10</v>
@@ -6596,9 +6668,9 @@
         <v>340</v>
       </c>
     </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="130" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A130" s="1">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B130" s="1" t="s">
         <v>10</v>
@@ -6629,6 +6701,297 @@
       </c>
       <c r="M130" s="1">
         <v>340</v>
+      </c>
+    </row>
+    <row r="131" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="A131" s="1">
+        <v>130</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="D131" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="E131" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="F131" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="G131" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="H131" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="I131" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="J131" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="K131" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="L131" s="1">
+        <v>1</v>
+      </c>
+      <c r="M131" s="1">
+        <v>1000000000</v>
+      </c>
+      <c r="N131" s="8">
+        <v>1.25664E-6</v>
+      </c>
+      <c r="O131" s="7">
+        <v>58000000</v>
+      </c>
+    </row>
+    <row r="132" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="A132" s="1">
+        <v>131</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="D132" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="E132" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="F132" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="G132" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="H132" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="I132" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="J132" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="K132" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="L132" s="1">
+        <v>1</v>
+      </c>
+      <c r="M132" s="1">
+        <v>1000000000</v>
+      </c>
+      <c r="N132" s="8">
+        <v>1.2566650000000001E-6</v>
+      </c>
+      <c r="O132" s="7">
+        <v>64100000</v>
+      </c>
+    </row>
+    <row r="133" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="A133" s="1">
+        <v>132</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="D133" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="E133" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="F133" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="G133" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="H133" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="I133" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="J133" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="K133" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="L133" s="1">
+        <v>1</v>
+      </c>
+      <c r="M133" s="1">
+        <v>1000000000</v>
+      </c>
+      <c r="N133" s="8">
+        <v>6.3E-3</v>
+      </c>
+      <c r="O133" s="7">
+        <v>11200000</v>
+      </c>
+    </row>
+    <row r="134" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="A134" s="1">
+        <v>133</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="D134" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="E134" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="F134" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="G134" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="H134" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="I134" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="J134" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="K134" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="L134" s="1">
+        <v>1</v>
+      </c>
+      <c r="M134" s="1">
+        <v>1000000000</v>
+      </c>
+      <c r="N134" s="8">
+        <v>1.25664E-6</v>
+      </c>
+      <c r="O134" s="7">
+        <v>58000000</v>
+      </c>
+      <c r="P134" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="A135" s="1">
+        <v>133</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="D135" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="E135" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="F135" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="G135" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="H135" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="I135" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="J135" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="K135" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="L135" s="1">
+        <v>1</v>
+      </c>
+      <c r="M135" s="1">
+        <v>1000000000</v>
+      </c>
+      <c r="N135" s="8">
+        <v>1.2566650000000001E-6</v>
+      </c>
+      <c r="O135" s="7">
+        <v>64100000</v>
+      </c>
+      <c r="P135" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="A136" s="1">
+        <v>133</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="D136" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="E136" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="F136" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="G136" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="H136" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="I136" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="J136" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="K136" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="L136" s="1">
+        <v>1</v>
+      </c>
+      <c r="M136" s="1">
+        <v>1000000000</v>
+      </c>
+      <c r="N136" s="8">
+        <v>6.3E-3</v>
+      </c>
+      <c r="O136" s="7">
+        <v>11200000</v>
+      </c>
+      <c r="P136" s="6">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Converter/assets/UnitConversion.xlsx
+++ b/Converter/assets/UnitConversion.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1d78e2062db64e14/Project/Python/AnalysisTool/Converter/assets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://photonicinc-my.sharepoint.com/personal/iyoneda_photonic_com/Documents/Python/AnalysisTool/Converter/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="22" documentId="13_ncr:1_{28AA09F0-1BFD-4629-8D14-FBC6BDF866C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{035093EF-A928-4F0C-9420-79F400ECAB0C}"/>
+  <xr:revisionPtr revIDLastSave="234" documentId="13_ncr:1_{28AA09F0-1BFD-4629-8D14-FBC6BDF866C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7DD25DB5-AE1F-4CE7-99D1-758051BC4E8E}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1350" windowWidth="14550" windowHeight="12585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-30828" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Elec" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1148" uniqueCount="441">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1241" uniqueCount="464">
   <si>
     <t>No</t>
   </si>
@@ -1303,15 +1303,6 @@
     <t>"r'$SkinDepth (Al)[m] = \sqrt{\frac{2}{2\pi Frequency[Hz] \times Permetivity {\mu} [H/m] \times Conductibity \sigma[S/m]}}$'"</t>
   </si>
   <si>
-    <t>Freq Permeability:Cu Conductivity:Cu</t>
-  </si>
-  <si>
-    <t>Freq Permeability:Al Conductivity:Al</t>
-  </si>
-  <si>
-    <t>Freq Permeability:Fe Conductivity:Fe</t>
-  </si>
-  <si>
     <t>"r'$SkinDepth (Fe)[m] = \sqrt{\frac{2}{2\pi Frequency[Hz] \times Permetivity {\mu} [H/m] \times Conductibity \sigma[S/m]}}$'"</t>
   </si>
   <si>
@@ -1327,25 +1318,125 @@
     <t>8.69 * P[3] / (1000*sympy.Pow((2)/(2*sympy.pi*P[0]*P[1]*P[2]),0.5))</t>
   </si>
   <si>
-    <t>Freq Permeability:Cu Conductivity:Cu Thickness[mm]</t>
-  </si>
-  <si>
     <t>Abosrption Loss (Al) [dB]</t>
   </si>
   <si>
     <t>Abosrption Loss (Fe) [dB]</t>
   </si>
   <si>
-    <t>Freq Permeability:Fe Conductivity:Fe Thickness[mm]</t>
-  </si>
-  <si>
-    <t>Freq Permeability:Al Conductivity:Al Thickness[mm]</t>
-  </si>
-  <si>
     <t>"r'$Absorption Loss (Al) [dB] = 8.69 \times \frac{Sheild Thickness [mm]}{1000 \times SkinDepth[m]}$'"</t>
   </si>
   <si>
     <t>"r'$Absorption Loss (Fe) [dB] = 8.69 \times \frac{Sheild Thickness [mm]}{1000 \times SkinDepth[m]}$'"</t>
+  </si>
+  <si>
+    <t>Freq r:Distance[mm] Relative_Conductivity:sigma Relative_permeability:mu</t>
+  </si>
+  <si>
+    <t>Reflection Loss- Electric Field (Cu) [dB]</t>
+  </si>
+  <si>
+    <t>sympy.Piecewise(
+(14.6 +  10* sympy.log((P[0]*sympy.Pow((P[1]/1000),2)*P[2]/P[3]),10)
+,P[1]&lt;(299792458*1000/(P[0]*2*sympy.pi)))
+,
+(168 + 10 *sympy.log(P[2]/(P[3]*P[0]),10)
+, P[1]&gt;=(299792458*1000/(P[0]*2*sympy.pi)))
+)</t>
+  </si>
+  <si>
+    <t>"r'$Reflection Loss[dB] = \left\{
+\begin{array}{ll}
+14.6 + 10 \log_{10}{\frac{Freq[Hz] \times (Distance(r)[m])^2 \times \sigma_{r}}{\mu_{r}}} &amp; (r \lt \frac{\lambda}{2\pi})\\
+ 168 + 10 \log _{10}(\frac{\sigma_{r}}{\mu_{r} \times Freq[Hz]}) &amp; (r \geq \frac{\lambda}{2\pi})
+\end{array}
+\right.$'"</t>
+  </si>
+  <si>
+    <t>Reflection Loss- Magnetic Field (Cu) [dB]</t>
+  </si>
+  <si>
+    <t>Reflection Loss- Magnetic Field (Fe) [dB]</t>
+  </si>
+  <si>
+    <t>Reflection Loss- Magnetic Field (Al) [dB]</t>
+  </si>
+  <si>
+    <t>sympy.Piecewise(
+(322 +  10* sympy.log((P[2]/(P[3]*sympy.Pow(P[0],3)*sympy.Pow((P[1]/1000),2))),10)
+,P[1]&lt;(299792458*1000/(P[0]*2*sympy.pi)))
+,
+(168 + 10 *sympy.log(P[2]/(P[3]*P[0]),10)
+, P[1]&gt;=(299792458*1000/(P[0]*2*sympy.pi)))
+)</t>
+  </si>
+  <si>
+    <t>"r'$Reflection Loss[dB] = \left\{
+\begin{array}{ll}
+322 + 10 \log_{10}{\frac{\sigma_{r}}{\mu_{r} \times (Freq[Hz])^3 \times (Distance (r)[m])^2}} &amp; (r \lt \frac{\lambda}{2\pi})\\
+ 168 + 10 \log _{10}(\frac{\sigma_{r}}{\mu_{r} \times Freq[Hz]}) &amp; (r \geq \frac{\lambda}{2\pi})
+\end{array}
+\right.$'"</t>
+  </si>
+  <si>
+    <t>Reflection Loss- Electric Field (Al) [dB]</t>
+  </si>
+  <si>
+    <t>Reflection Loss- Electric Field (Fe) [dB]</t>
+  </si>
+  <si>
+    <t>Multiple Reflection Loss- (Cu) [dB]</t>
+  </si>
+  <si>
+    <t>"r'$Multiple Reflection Loss [dB] = 20 \times \log _{10}(1- e^{\frac{-2 Thickness[m]}{Skin Depth[m]}}) $'"</t>
+  </si>
+  <si>
+    <t>20*sympy.log((1-sympy.Pow(sympy.E, (-2*(P[3]/1000)/(sympy.Pow((2)/(2*sympy.pi*P[0]*P[1]*P[2]),0.5))))),10)</t>
+  </si>
+  <si>
+    <t>Multiple Reflection Loss- (Al) [dB]</t>
+  </si>
+  <si>
+    <t>Multiple Reflection Loss- (Fe) [dB]</t>
+  </si>
+  <si>
+    <t>Freq Permeability:Cu[H/m] Conductivity:Cu[S/m]</t>
+  </si>
+  <si>
+    <t>Freq Permeability:Al[H/m] Conductivity:Al[S/m]</t>
+  </si>
+  <si>
+    <t>Freq Permeability:Fe[H/m] Conductivity:Fe[S/m]</t>
+  </si>
+  <si>
+    <t>Freq Permeability:Cu[H/m] Conductivity:Cu[S/m] Thickness[mm]</t>
+  </si>
+  <si>
+    <t>Freq Permeability:Al[H/m] Conductivity:Al[S/m] Thickness[mm]</t>
+  </si>
+  <si>
+    <t>Freq Permeability:Fe[H/m] Conductivity:Fe[S/m] Thickness[mm]</t>
+  </si>
+  <si>
+    <t>Default Param6</t>
+  </si>
+  <si>
+    <t>Default Param7</t>
+  </si>
+  <si>
+    <t>Default Param8</t>
+  </si>
+  <si>
+    <t>Shield Effectiveness-Electric Field (Fe) [dB]</t>
+  </si>
+  <si>
+    <t>"r'$Sheild Effectiveness[dB] = Absorption Loss[dB] + Reflection Loss[dB] + Mulple Reflection Loss [dB] $'"</t>
+  </si>
+  <si>
+    <t>Freq Permeability:Fe[H/m] Conductivity:Fe[S/m] Relative_Conductivity:sigma Relative_permeability:mu ShieldThickness[mm] r:Distance[mm]</t>
+  </si>
+  <si>
+    <t>sympy.log(sympy.Pow(10,(8.69 * P[5] / (1000*sympy.Pow((2)/(2*sympy.pi*P[0]*P[1]*P[2]),0.5)))),10)</t>
   </si>
 </sst>
 </file>
@@ -1423,7 +1514,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1448,6 +1539,15 @@
     </xf>
     <xf numFmtId="11" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1767,33 +1867,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q136"/>
+  <dimension ref="A1:T146"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A118" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J140" sqref="J140"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A131" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I147" sqref="I147"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.06640625" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="18.5" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="9.265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.46484375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27.1328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="48.54296875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="14" style="1" customWidth="1"/>
-    <col min="9" max="9" width="89.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="132.1328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="55.86328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="17" width="14.265625" style="6" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.06640625" style="5"/>
+    <col min="9" max="9" width="121" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="132.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="80.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="20" width="14.26953125" style="6" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.08984375" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="4" customFormat="1" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:20" s="4" customFormat="1" ht="37" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1818,7 +1918,7 @@
       <c r="H1" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="9" t="s">
         <v>12</v>
       </c>
       <c r="J1" s="3" t="s">
@@ -1845,8 +1945,17 @@
       <c r="Q1" s="3" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="R1" s="3" t="s">
+        <v>457</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>458</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1888,8 +1997,11 @@
       </c>
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1929,8 +2041,11 @@
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1967,8 +2082,11 @@
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -2006,7 +2124,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -2044,7 +2162,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -2082,7 +2200,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -2120,7 +2238,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -2158,7 +2276,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -2196,7 +2314,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -2234,7 +2352,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -2274,8 +2392,11 @@
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="R12" s="1"/>
+      <c r="S12" s="1"/>
+      <c r="T12" s="1"/>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -2315,8 +2436,11 @@
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="R13" s="1"/>
+      <c r="S13" s="1"/>
+      <c r="T13" s="1"/>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -2361,8 +2485,11 @@
       </c>
       <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="R14" s="1"/>
+      <c r="S14" s="1"/>
+      <c r="T14" s="1"/>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -2399,8 +2526,11 @@
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
       <c r="Q15" s="1"/>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="R15" s="1"/>
+      <c r="S15" s="1"/>
+      <c r="T15" s="1"/>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -2440,8 +2570,11 @@
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
       <c r="Q16" s="1"/>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="R16" s="1"/>
+      <c r="S16" s="1"/>
+      <c r="T16" s="1"/>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -2478,8 +2611,11 @@
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="R17" s="1"/>
+      <c r="S17" s="1"/>
+      <c r="T17" s="1"/>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -2516,8 +2652,11 @@
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
       <c r="Q18" s="1"/>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="R18" s="1"/>
+      <c r="S18" s="1"/>
+      <c r="T18" s="1"/>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -2554,8 +2693,11 @@
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
       <c r="Q19" s="1"/>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="R19" s="1"/>
+      <c r="S19" s="1"/>
+      <c r="T19" s="1"/>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -2592,8 +2734,11 @@
       <c r="O20" s="1"/>
       <c r="P20" s="1"/>
       <c r="Q20" s="1"/>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="R20" s="1"/>
+      <c r="S20" s="1"/>
+      <c r="T20" s="1"/>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -2630,8 +2775,11 @@
       <c r="O21" s="1"/>
       <c r="P21" s="1"/>
       <c r="Q21" s="1"/>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="R21" s="1"/>
+      <c r="S21" s="1"/>
+      <c r="T21" s="1"/>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -2666,7 +2814,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -2701,7 +2849,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -2738,8 +2886,11 @@
       <c r="O24" s="1"/>
       <c r="P24" s="1"/>
       <c r="Q24" s="1"/>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="R24" s="1"/>
+      <c r="S24" s="1"/>
+      <c r="T24" s="1"/>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -2776,8 +2927,11 @@
       <c r="O25" s="1"/>
       <c r="P25" s="1"/>
       <c r="Q25" s="1"/>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="R25" s="1"/>
+      <c r="S25" s="1"/>
+      <c r="T25" s="1"/>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -2812,7 +2966,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -2853,7 +3007,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -2891,7 +3045,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -2929,7 +3083,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -2967,7 +3121,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -3005,7 +3159,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -3043,7 +3197,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -3078,7 +3232,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -3116,7 +3270,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -3157,7 +3311,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -3195,7 +3349,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -3236,7 +3390,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -3277,7 +3431,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -3318,7 +3472,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -3356,7 +3510,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -3394,7 +3548,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -3435,7 +3589,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -3473,7 +3627,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -3508,7 +3662,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -3543,7 +3697,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -3581,7 +3735,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -3619,7 +3773,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -3657,7 +3811,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -3695,7 +3849,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -3733,7 +3887,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -3771,7 +3925,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -3809,7 +3963,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -3847,7 +4001,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -3888,7 +4042,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -3929,7 +4083,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -3970,7 +4124,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A57" s="1">
         <v>56</v>
       </c>
@@ -4011,7 +4165,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -4052,7 +4206,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A59" s="1">
         <v>58</v>
       </c>
@@ -4093,7 +4247,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A60" s="1">
         <v>59</v>
       </c>
@@ -4131,7 +4285,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A61" s="1">
         <v>60</v>
       </c>
@@ -4171,8 +4325,11 @@
       <c r="O61" s="1"/>
       <c r="P61" s="1"/>
       <c r="Q61" s="1"/>
-    </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="R61" s="1"/>
+      <c r="S61" s="1"/>
+      <c r="T61" s="1"/>
+    </row>
+    <row r="62" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A62" s="1">
         <v>61</v>
       </c>
@@ -4215,8 +4372,11 @@
       <c r="O62" s="1"/>
       <c r="P62" s="1"/>
       <c r="Q62" s="1"/>
-    </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="R62" s="1"/>
+      <c r="S62" s="1"/>
+      <c r="T62" s="1"/>
+    </row>
+    <row r="63" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A63" s="1">
         <v>62</v>
       </c>
@@ -4256,8 +4416,11 @@
       <c r="O63" s="1"/>
       <c r="P63" s="1"/>
       <c r="Q63" s="1"/>
-    </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="R63" s="1"/>
+      <c r="S63" s="1"/>
+      <c r="T63" s="1"/>
+    </row>
+    <row r="64" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A64" s="1">
         <v>63</v>
       </c>
@@ -4295,7 +4458,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A65" s="1">
         <v>64</v>
       </c>
@@ -4335,8 +4498,11 @@
       <c r="O65" s="1"/>
       <c r="P65" s="1"/>
       <c r="Q65" s="1"/>
-    </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="R65" s="1"/>
+      <c r="S65" s="1"/>
+      <c r="T65" s="1"/>
+    </row>
+    <row r="66" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A66" s="1">
         <v>65</v>
       </c>
@@ -4376,8 +4542,11 @@
       <c r="O66" s="1"/>
       <c r="P66" s="1"/>
       <c r="Q66" s="1"/>
-    </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="R66" s="1"/>
+      <c r="S66" s="1"/>
+      <c r="T66" s="1"/>
+    </row>
+    <row r="67" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A67" s="1">
         <v>66</v>
       </c>
@@ -4420,8 +4589,11 @@
       <c r="O67" s="1"/>
       <c r="P67" s="1"/>
       <c r="Q67" s="1"/>
-    </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="R67" s="1"/>
+      <c r="S67" s="1"/>
+      <c r="T67" s="1"/>
+    </row>
+    <row r="68" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A68" s="1">
         <v>67</v>
       </c>
@@ -4456,7 +4628,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A69" s="1">
         <v>68</v>
       </c>
@@ -4494,7 +4666,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A70" s="1">
         <v>69</v>
       </c>
@@ -4532,7 +4704,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A71" s="1">
         <v>70</v>
       </c>
@@ -4570,7 +4742,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A72" s="1">
         <v>71</v>
       </c>
@@ -4608,7 +4780,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A73" s="1">
         <v>72</v>
       </c>
@@ -4646,7 +4818,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A74" s="1">
         <v>73</v>
       </c>
@@ -4684,7 +4856,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A75" s="1">
         <v>74</v>
       </c>
@@ -4719,7 +4891,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A76" s="1">
         <v>75</v>
       </c>
@@ -4760,7 +4932,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A77" s="1">
         <v>76</v>
       </c>
@@ -4801,7 +4973,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A78" s="1">
         <v>77</v>
       </c>
@@ -4842,7 +5014,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A79" s="1">
         <v>78</v>
       </c>
@@ -4880,7 +5052,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A80" s="1">
         <v>79</v>
       </c>
@@ -4915,7 +5087,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A81" s="1">
         <v>80</v>
       </c>
@@ -4958,8 +5130,11 @@
       <c r="O81" s="1"/>
       <c r="P81" s="1"/>
       <c r="Q81" s="1"/>
-    </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="R81" s="1"/>
+      <c r="S81" s="1"/>
+      <c r="T81" s="1"/>
+    </row>
+    <row r="82" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A82" s="1">
         <v>81</v>
       </c>
@@ -4996,8 +5171,11 @@
       <c r="O82" s="1"/>
       <c r="P82" s="1"/>
       <c r="Q82" s="1"/>
-    </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="R82" s="1"/>
+      <c r="S82" s="1"/>
+      <c r="T82" s="1"/>
+    </row>
+    <row r="83" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A83" s="1">
         <v>82</v>
       </c>
@@ -5039,8 +5217,11 @@
       </c>
       <c r="P83" s="1"/>
       <c r="Q83" s="1"/>
-    </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="R83" s="1"/>
+      <c r="S83" s="1"/>
+      <c r="T83" s="1"/>
+    </row>
+    <row r="84" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A84" s="1">
         <v>83</v>
       </c>
@@ -5078,7 +5259,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A85" s="1">
         <v>84</v>
       </c>
@@ -5116,7 +5297,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A86" s="1">
         <v>85</v>
       </c>
@@ -5151,7 +5332,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A87" s="1">
         <v>86</v>
       </c>
@@ -5186,7 +5367,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="88" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A88" s="1">
         <v>87</v>
       </c>
@@ -5221,7 +5402,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="89" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A89" s="1">
         <v>88</v>
       </c>
@@ -5256,7 +5437,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="90" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A90" s="1">
         <v>89</v>
       </c>
@@ -5291,7 +5472,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="91" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="91" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A91" s="1">
         <v>90</v>
       </c>
@@ -5326,7 +5507,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="92" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="92" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A92" s="1">
         <v>91</v>
       </c>
@@ -5361,7 +5542,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="93" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="93" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A93" s="1">
         <v>92</v>
       </c>
@@ -5396,7 +5577,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="94" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="94" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A94" s="1">
         <v>93</v>
       </c>
@@ -5431,7 +5612,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="95" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="95" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A95" s="1">
         <v>94</v>
       </c>
@@ -5466,7 +5647,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="96" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="96" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A96" s="1">
         <v>95</v>
       </c>
@@ -5501,7 +5682,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A97" s="1">
         <v>96</v>
       </c>
@@ -5536,7 +5717,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A98" s="1">
         <v>97</v>
       </c>
@@ -5571,7 +5752,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A99" s="1">
         <v>98</v>
       </c>
@@ -5606,7 +5787,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A100" s="1">
         <v>99</v>
       </c>
@@ -5641,7 +5822,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A101" s="1">
         <v>100</v>
       </c>
@@ -5676,7 +5857,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A102" s="1">
         <v>101</v>
       </c>
@@ -5711,7 +5892,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A103" s="1">
         <v>102</v>
       </c>
@@ -5746,7 +5927,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A104" s="1">
         <v>103</v>
       </c>
@@ -5781,7 +5962,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A105" s="1">
         <v>104</v>
       </c>
@@ -5816,7 +5997,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A106" s="1">
         <v>105</v>
       </c>
@@ -5851,7 +6032,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A107" s="1">
         <v>106</v>
       </c>
@@ -5886,7 +6067,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A108" s="1">
         <v>107</v>
       </c>
@@ -5921,7 +6102,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A109" s="1">
         <v>108</v>
       </c>
@@ -5956,7 +6137,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A110" s="1">
         <v>109</v>
       </c>
@@ -5991,7 +6172,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A111" s="1">
         <v>110</v>
       </c>
@@ -6026,7 +6207,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A112" s="1">
         <v>111</v>
       </c>
@@ -6061,7 +6242,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="113" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="113" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A113" s="1">
         <v>112</v>
       </c>
@@ -6096,7 +6277,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="114" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="114" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A114" s="1">
         <v>113</v>
       </c>
@@ -6131,7 +6312,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="115" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="115" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A115" s="1">
         <v>114</v>
       </c>
@@ -6166,7 +6347,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="116" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="116" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A116" s="1">
         <v>115</v>
       </c>
@@ -6201,7 +6382,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="117" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="117" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A117" s="1">
         <v>116</v>
       </c>
@@ -6236,7 +6417,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="118" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="118" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A118" s="1">
         <v>117</v>
       </c>
@@ -6271,7 +6452,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="119" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="119" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A119" s="1">
         <v>118</v>
       </c>
@@ -6306,7 +6487,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="120" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="120" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A120" s="1">
         <v>119</v>
       </c>
@@ -6344,7 +6525,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="121" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="121" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A121" s="1">
         <v>120</v>
       </c>
@@ -6382,7 +6563,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="122" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="122" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A122" s="1">
         <v>121</v>
       </c>
@@ -6417,7 +6598,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="123" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="123" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A123" s="1">
         <v>122</v>
       </c>
@@ -6452,7 +6633,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="124" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="124" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A124" s="1">
         <v>123</v>
       </c>
@@ -6493,7 +6674,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="125" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="125" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A125" s="1">
         <v>124</v>
       </c>
@@ -6528,7 +6709,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="126" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="126" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A126" s="1">
         <v>125</v>
       </c>
@@ -6563,7 +6744,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="127" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="127" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A127" s="1">
         <v>126</v>
       </c>
@@ -6598,7 +6779,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="128" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="128" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A128" s="1">
         <v>127</v>
       </c>
@@ -6633,7 +6814,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="129" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="129" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A129" s="1">
         <v>128</v>
       </c>
@@ -6668,7 +6849,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="130" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="130" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A130" s="1">
         <v>129</v>
       </c>
@@ -6703,7 +6884,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="131" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="131" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A131" s="1">
         <v>130</v>
       </c>
@@ -6735,13 +6916,13 @@
         <v>424</v>
       </c>
       <c r="K131" s="1" t="s">
-        <v>426</v>
+        <v>451</v>
       </c>
       <c r="L131" s="1">
         <v>1</v>
       </c>
       <c r="M131" s="1">
-        <v>1000000000</v>
+        <v>20000000000</v>
       </c>
       <c r="N131" s="8">
         <v>1.25664E-6</v>
@@ -6750,7 +6931,7 @@
         <v>58000000</v>
       </c>
     </row>
-    <row r="132" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="132" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A132" s="1">
         <v>131</v>
       </c>
@@ -6782,13 +6963,13 @@
         <v>425</v>
       </c>
       <c r="K132" s="1" t="s">
-        <v>427</v>
+        <v>452</v>
       </c>
       <c r="L132" s="1">
         <v>1</v>
       </c>
       <c r="M132" s="1">
-        <v>1000000000</v>
+        <v>20000000000</v>
       </c>
       <c r="N132" s="8">
         <v>1.2566650000000001E-6</v>
@@ -6797,7 +6978,7 @@
         <v>64100000</v>
       </c>
     </row>
-    <row r="133" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="133" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A133" s="1">
         <v>132</v>
       </c>
@@ -6811,7 +6992,7 @@
         <v>420</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="F133" s="1" t="s">
         <v>307</v>
@@ -6826,16 +7007,16 @@
         <v>422</v>
       </c>
       <c r="J133" s="2" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="K133" s="1" t="s">
-        <v>428</v>
+        <v>453</v>
       </c>
       <c r="L133" s="1">
         <v>1</v>
       </c>
       <c r="M133" s="1">
-        <v>1000000000</v>
+        <v>20000000000</v>
       </c>
       <c r="N133" s="8">
         <v>6.3E-3</v>
@@ -6844,7 +7025,7 @@
         <v>11200000</v>
       </c>
     </row>
-    <row r="134" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="134" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A134" s="1">
         <v>133</v>
       </c>
@@ -6858,7 +7039,7 @@
         <v>420</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="F134" s="1" t="s">
         <v>88</v>
@@ -6870,19 +7051,19 @@
         <v>192</v>
       </c>
       <c r="I134" s="1" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="J134" s="2" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="K134" s="1" t="s">
-        <v>434</v>
+        <v>454</v>
       </c>
       <c r="L134" s="1">
         <v>1</v>
       </c>
       <c r="M134" s="1">
-        <v>1000000000</v>
+        <v>20000000000</v>
       </c>
       <c r="N134" s="8">
         <v>1.25664E-6</v>
@@ -6891,12 +7072,12 @@
         <v>58000000</v>
       </c>
       <c r="P134" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="135" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="135" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A135" s="1">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B135" s="1" t="s">
         <v>102</v>
@@ -6908,7 +7089,7 @@
         <v>420</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="F135" s="1" t="s">
         <v>88</v>
@@ -6920,19 +7101,19 @@
         <v>192</v>
       </c>
       <c r="I135" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="J135" s="2" t="s">
         <v>433</v>
       </c>
-      <c r="J135" s="2" t="s">
-        <v>439</v>
-      </c>
       <c r="K135" s="1" t="s">
-        <v>438</v>
+        <v>455</v>
       </c>
       <c r="L135" s="1">
         <v>1</v>
       </c>
       <c r="M135" s="1">
-        <v>1000000000</v>
+        <v>20000000000</v>
       </c>
       <c r="N135" s="8">
         <v>1.2566650000000001E-6</v>
@@ -6941,12 +7122,12 @@
         <v>64100000</v>
       </c>
       <c r="P135" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="136" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="136" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A136" s="1">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B136" s="1" t="s">
         <v>102</v>
@@ -6958,7 +7139,7 @@
         <v>420</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="F136" s="1" t="s">
         <v>88</v>
@@ -6970,19 +7151,19 @@
         <v>192</v>
       </c>
       <c r="I136" s="1" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="J136" s="2" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="K136" s="1" t="s">
-        <v>437</v>
+        <v>456</v>
       </c>
       <c r="L136" s="1">
         <v>1</v>
       </c>
       <c r="M136" s="1">
-        <v>1000000000</v>
+        <v>20000000000</v>
       </c>
       <c r="N136" s="8">
         <v>6.3E-3</v>
@@ -6991,8 +7172,488 @@
         <v>11200000</v>
       </c>
       <c r="P136" s="6">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="137" spans="1:16" ht="129.5" x14ac:dyDescent="0.45">
+      <c r="A137" s="1">
+        <v>136</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="D137" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="E137" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="F137" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="G137" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="I137" s="10" t="s">
+        <v>437</v>
+      </c>
+      <c r="J137" s="10" t="s">
+        <v>438</v>
+      </c>
+      <c r="K137" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="L137" s="1">
         <v>1</v>
       </c>
+      <c r="M137" s="1">
+        <v>20000000000</v>
+      </c>
+      <c r="N137" s="1">
+        <v>3.65</v>
+      </c>
+      <c r="O137" s="1">
+        <v>1</v>
+      </c>
+      <c r="P137" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:16" ht="129.5" x14ac:dyDescent="0.45">
+      <c r="A138" s="1">
+        <v>137</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="D138" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="E138" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="F138" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="G138" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="I138" s="10" t="s">
+        <v>437</v>
+      </c>
+      <c r="J138" s="10" t="s">
+        <v>438</v>
+      </c>
+      <c r="K138" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="L138" s="1">
+        <v>1</v>
+      </c>
+      <c r="M138" s="1">
+        <v>20000000000</v>
+      </c>
+      <c r="N138" s="1">
+        <v>3.65</v>
+      </c>
+      <c r="O138" s="1">
+        <v>0.61</v>
+      </c>
+      <c r="P138" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:16" ht="129.5" x14ac:dyDescent="0.45">
+      <c r="A139" s="1">
+        <v>138</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="D139" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="E139" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="F139" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="G139" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="I139" s="10" t="s">
+        <v>437</v>
+      </c>
+      <c r="J139" s="10" t="s">
+        <v>438</v>
+      </c>
+      <c r="K139" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="L139" s="1">
+        <v>1</v>
+      </c>
+      <c r="M139" s="1">
+        <v>20000000000</v>
+      </c>
+      <c r="N139" s="1">
+        <v>3.65</v>
+      </c>
+      <c r="O139" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="P139" s="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="140" spans="1:16" ht="129.5" x14ac:dyDescent="0.45">
+      <c r="A140" s="1">
+        <v>139</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="D140" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="E140" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="F140" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="G140" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="I140" s="10" t="s">
+        <v>442</v>
+      </c>
+      <c r="J140" s="10" t="s">
+        <v>443</v>
+      </c>
+      <c r="K140" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="L140" s="1">
+        <v>1</v>
+      </c>
+      <c r="M140" s="1">
+        <v>20000000000</v>
+      </c>
+      <c r="N140" s="1">
+        <v>3.65</v>
+      </c>
+      <c r="O140" s="1">
+        <v>1</v>
+      </c>
+      <c r="P140" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:16" ht="129.5" x14ac:dyDescent="0.45">
+      <c r="A141" s="1">
+        <v>140</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="D141" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="E141" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="F141" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="G141" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="I141" s="10" t="s">
+        <v>442</v>
+      </c>
+      <c r="J141" s="10" t="s">
+        <v>443</v>
+      </c>
+      <c r="K141" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="L141" s="1">
+        <v>1</v>
+      </c>
+      <c r="M141" s="1">
+        <v>20000000000</v>
+      </c>
+      <c r="N141" s="1">
+        <v>3.65</v>
+      </c>
+      <c r="O141" s="1">
+        <v>0.61</v>
+      </c>
+      <c r="P141" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:16" ht="129.5" x14ac:dyDescent="0.45">
+      <c r="A142" s="1">
+        <v>141</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="D142" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="E142" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="F142" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="G142" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="I142" s="10" t="s">
+        <v>442</v>
+      </c>
+      <c r="J142" s="10" t="s">
+        <v>443</v>
+      </c>
+      <c r="K142" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="L142" s="1">
+        <v>1</v>
+      </c>
+      <c r="M142" s="1">
+        <v>20000000000</v>
+      </c>
+      <c r="N142" s="1">
+        <v>3.65</v>
+      </c>
+      <c r="O142" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="P142" s="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="143" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A143" s="1">
+        <v>142</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C143" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="D143" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="E143" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="F143" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="G143" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="I143" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="J143" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="K143" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="L143" s="1">
+        <v>1</v>
+      </c>
+      <c r="M143" s="1">
+        <v>20000000000</v>
+      </c>
+      <c r="N143" s="8">
+        <v>1.25664E-6</v>
+      </c>
+      <c r="O143" s="7">
+        <v>58000000</v>
+      </c>
+      <c r="P143" s="6">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="144" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A144" s="1">
+        <v>143</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="D144" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="E144" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="F144" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="G144" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="I144" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="J144" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="K144" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="L144" s="1">
+        <v>1</v>
+      </c>
+      <c r="M144" s="1">
+        <v>20000000000</v>
+      </c>
+      <c r="N144" s="8">
+        <v>1.2566650000000001E-6</v>
+      </c>
+      <c r="O144" s="7">
+        <v>64100000</v>
+      </c>
+      <c r="P144" s="6">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="145" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A145" s="1">
+        <v>144</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C145" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="D145" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="E145" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="F145" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="G145" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="I145" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="J145" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="K145" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="L145" s="1">
+        <v>1</v>
+      </c>
+      <c r="M145" s="1">
+        <v>20000000000</v>
+      </c>
+      <c r="N145" s="8">
+        <v>6.3E-3</v>
+      </c>
+      <c r="O145" s="7">
+        <v>11200000</v>
+      </c>
+      <c r="P145" s="6">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="146" spans="1:20" ht="55.5" x14ac:dyDescent="0.45">
+      <c r="A146" s="1">
+        <v>145</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C146" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="D146" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="E146" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="F146" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="G146" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="I146" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="J146" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="K146" s="11" t="s">
+        <v>462</v>
+      </c>
+      <c r="L146" s="1">
+        <v>1</v>
+      </c>
+      <c r="M146" s="1">
+        <v>20000000000</v>
+      </c>
+      <c r="N146" s="8">
+        <v>6.3E-3</v>
+      </c>
+      <c r="O146" s="8">
+        <v>11200000</v>
+      </c>
+      <c r="P146" s="1">
+        <v>3.65</v>
+      </c>
+      <c r="Q146" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="R146" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="S146" s="1">
+        <v>3.65</v>
+      </c>
+      <c r="T146" s="1"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:Q123" xr:uid="{00000000-0001-0000-0000-000000000000}">

--- a/Converter/assets/UnitConversion.xlsx
+++ b/Converter/assets/UnitConversion.xlsx
@@ -5,18 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1d78e2062db64e14/Project/Python/AnalysisTool/Converter/assets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://photonicinc-my.sharepoint.com/personal/iyoneda_photonic_com/Documents/Python/AnalysisTool/Converter/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="62" documentId="13_ncr:1_{125855ED-4C9C-420F-91B7-F40C5A158F65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4D404822-27CB-417F-903C-E4236564FF84}"/>
+  <xr:revisionPtr revIDLastSave="81" documentId="13_ncr:1_{125855ED-4C9C-420F-91B7-F40C5A158F65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F7904583-99D3-4AC3-B85A-528E6304B311}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-26172" yWindow="2220" windowWidth="21324" windowHeight="12768" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Elec" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Elec!$A$1:$Q$156</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Elec!$A$1:$Q$157</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1329" uniqueCount="497">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1346" uniqueCount="502">
   <si>
     <t>No</t>
   </si>
@@ -1654,6 +1654,21 @@
 43.5 dB{\mu}V/m &amp; (\geq 1000[ MHz] ) \\
 \end{array}
 \right.$'"</t>
+  </si>
+  <si>
+    <t>"r$Watt[dBm] = 10 \times \log _{10}(\frac{Voltage[Vp]^2 \times 1000}{2 \times Z})$"</t>
+  </si>
+  <si>
+    <t>Vpeak Z</t>
+  </si>
+  <si>
+    <t>10 * sympy.log(((P[0]**2 * 1000) /(2*P[1])), 10)</t>
+  </si>
+  <si>
+    <t>sympy.Pow((2*P[1]/1000),0.5) * sympy.Pow(10, P[0]/20)</t>
+  </si>
+  <si>
+    <t>"r'$Voltage[V] = \sqrt{\frac{2Z}{1000}} \times 10^\frac{Watt[dBm]}{20}$'"</t>
   </si>
 </sst>
 </file>
@@ -2081,36 +2096,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T156"/>
+  <dimension ref="A1:T158"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M156" sqref="M156"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A156" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K175" sqref="K175"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.06640625" defaultRowHeight="28.5" x14ac:dyDescent="0.85"/>
+  <sheetFormatPr defaultColWidth="9.05078125" defaultRowHeight="28.2" x14ac:dyDescent="1.05"/>
   <cols>
-    <col min="1" max="1" width="13.86328125" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.86328125" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.53125" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="74.59765625" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.1328125" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.19921875" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="183.46484375" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="207.796875" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="195.796875" style="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="21.265625" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="29.265625" style="4" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="21.73046875" style="4" bestFit="1" customWidth="1"/>
-    <col min="15" max="17" width="21.73046875" style="7" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="16.19921875" style="7" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="13.86328125" style="7" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.06640625" style="6"/>
+    <col min="1" max="1" width="13.83984375" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.83984375" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.5234375" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.68359375" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="74.578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.1015625" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.3125" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.20703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="183.47265625" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="207.7890625" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="195.7890625" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.26171875" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="29.26171875" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="21.734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="17" width="21.734375" style="7" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.20703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="13.83984375" style="7" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.05078125" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="3" customFormat="1" ht="85.5" x14ac:dyDescent="0.85">
+    <row r="1" spans="1:20" s="3" customFormat="1" ht="84.6" x14ac:dyDescent="1.05">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2172,7 +2187,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.85">
+    <row r="2" spans="1:20" x14ac:dyDescent="1.05">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -2222,7 +2237,7 @@
       <c r="S2" s="4"/>
       <c r="T2" s="4"/>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.85">
+    <row r="3" spans="1:20" x14ac:dyDescent="1.05">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -2272,7 +2287,7 @@
       <c r="S3" s="4"/>
       <c r="T3" s="4"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.85">
+    <row r="4" spans="1:20" x14ac:dyDescent="1.05">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -2322,7 +2337,7 @@
       <c r="S4" s="4"/>
       <c r="T4" s="4"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.85">
+    <row r="5" spans="1:20" x14ac:dyDescent="1.05">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -2363,7 +2378,7 @@
       <c r="P5" s="4"/>
       <c r="Q5" s="4"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.85">
+    <row r="6" spans="1:20" x14ac:dyDescent="1.05">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -2398,7 +2413,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="171" x14ac:dyDescent="0.85">
+    <row r="7" spans="1:20" ht="169.2" x14ac:dyDescent="1.05">
       <c r="A7" s="4">
         <v>152</v>
       </c>
@@ -2436,7 +2451,7 @@
         <v>1000000000</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="171" x14ac:dyDescent="0.85">
+    <row r="8" spans="1:20" ht="169.2" x14ac:dyDescent="1.05">
       <c r="A8" s="4">
         <v>153</v>
       </c>
@@ -2474,7 +2489,7 @@
         <v>1000000000</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.85">
+    <row r="9" spans="1:20" x14ac:dyDescent="1.05">
       <c r="A9" s="4">
         <v>6</v>
       </c>
@@ -2512,7 +2527,7 @@
       <c r="P9" s="4"/>
       <c r="Q9" s="4"/>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.85">
+    <row r="10" spans="1:20" x14ac:dyDescent="1.05">
       <c r="A10" s="4">
         <v>7</v>
       </c>
@@ -2550,7 +2565,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.85">
+    <row r="11" spans="1:20" x14ac:dyDescent="1.05">
       <c r="A11" s="4">
         <v>8</v>
       </c>
@@ -2591,7 +2606,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.85">
+    <row r="12" spans="1:20" x14ac:dyDescent="1.05">
       <c r="A12" s="4">
         <v>9</v>
       </c>
@@ -2635,7 +2650,7 @@
       <c r="S12" s="4"/>
       <c r="T12" s="4"/>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.85">
+    <row r="13" spans="1:20" x14ac:dyDescent="1.05">
       <c r="A13" s="4">
         <v>10</v>
       </c>
@@ -2676,7 +2691,7 @@
       <c r="S13" s="4"/>
       <c r="T13" s="4"/>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.85">
+    <row r="14" spans="1:20" x14ac:dyDescent="1.05">
       <c r="A14" s="4">
         <v>11</v>
       </c>
@@ -2717,7 +2732,7 @@
       <c r="S14" s="4"/>
       <c r="T14" s="4"/>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.85">
+    <row r="15" spans="1:20" x14ac:dyDescent="1.05">
       <c r="A15" s="4">
         <v>12</v>
       </c>
@@ -2758,7 +2773,7 @@
       <c r="S15" s="4"/>
       <c r="T15" s="4"/>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.85">
+    <row r="16" spans="1:20" x14ac:dyDescent="1.05">
       <c r="A16" s="4">
         <v>13</v>
       </c>
@@ -2799,7 +2814,7 @@
       <c r="S16" s="4"/>
       <c r="T16" s="4"/>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.85">
+    <row r="17" spans="1:20" x14ac:dyDescent="1.05">
       <c r="A17" s="4">
         <v>14</v>
       </c>
@@ -2840,7 +2855,7 @@
       <c r="S17" s="4"/>
       <c r="T17" s="4"/>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.85">
+    <row r="18" spans="1:20" x14ac:dyDescent="1.05">
       <c r="A18" s="4">
         <v>15</v>
       </c>
@@ -2881,7 +2896,7 @@
       <c r="S18" s="4"/>
       <c r="T18" s="4"/>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.85">
+    <row r="19" spans="1:20" x14ac:dyDescent="1.05">
       <c r="A19" s="4">
         <v>16</v>
       </c>
@@ -2922,7 +2937,7 @@
       <c r="S19" s="4"/>
       <c r="T19" s="4"/>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.85">
+    <row r="20" spans="1:20" x14ac:dyDescent="1.05">
       <c r="A20" s="4">
         <v>17</v>
       </c>
@@ -2963,7 +2978,7 @@
       <c r="S20" s="4"/>
       <c r="T20" s="4"/>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.85">
+    <row r="21" spans="1:20" x14ac:dyDescent="1.05">
       <c r="A21" s="4">
         <v>18</v>
       </c>
@@ -3004,7 +3019,7 @@
       <c r="S21" s="4"/>
       <c r="T21" s="4"/>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.85">
+    <row r="22" spans="1:20" x14ac:dyDescent="1.05">
       <c r="A22" s="4">
         <v>19</v>
       </c>
@@ -3042,7 +3057,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.85">
+    <row r="23" spans="1:20" x14ac:dyDescent="1.05">
       <c r="A23" s="4">
         <v>20</v>
       </c>
@@ -3080,7 +3095,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.85">
+    <row r="24" spans="1:20" x14ac:dyDescent="1.05">
       <c r="A24" s="4">
         <v>21</v>
       </c>
@@ -3121,7 +3136,7 @@
       <c r="S24" s="4"/>
       <c r="T24" s="4"/>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.85">
+    <row r="25" spans="1:20" x14ac:dyDescent="1.05">
       <c r="A25" s="4">
         <v>22</v>
       </c>
@@ -3165,7 +3180,7 @@
       <c r="S25" s="4"/>
       <c r="T25" s="4"/>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.85">
+    <row r="26" spans="1:20" x14ac:dyDescent="1.05">
       <c r="A26" s="4">
         <v>23</v>
       </c>
@@ -3206,7 +3221,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.85">
+    <row r="27" spans="1:20" x14ac:dyDescent="1.05">
       <c r="A27" s="4">
         <v>24</v>
       </c>
@@ -3244,7 +3259,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.85">
+    <row r="28" spans="1:20" x14ac:dyDescent="1.05">
       <c r="A28" s="4">
         <v>25</v>
       </c>
@@ -3285,7 +3300,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.85">
+    <row r="29" spans="1:20" x14ac:dyDescent="1.05">
       <c r="A29" s="4">
         <v>26</v>
       </c>
@@ -3326,7 +3341,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.85">
+    <row r="30" spans="1:20" x14ac:dyDescent="1.05">
       <c r="A30" s="4">
         <v>27</v>
       </c>
@@ -3367,7 +3382,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.85">
+    <row r="31" spans="1:20" x14ac:dyDescent="1.05">
       <c r="A31" s="4">
         <v>28</v>
       </c>
@@ -3408,7 +3423,7 @@
       <c r="P31" s="4"/>
       <c r="Q31" s="4"/>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.85">
+    <row r="32" spans="1:20" x14ac:dyDescent="1.05">
       <c r="A32" s="4">
         <v>29</v>
       </c>
@@ -3449,7 +3464,7 @@
       <c r="P32" s="4"/>
       <c r="Q32" s="4"/>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.85">
+    <row r="33" spans="1:17" x14ac:dyDescent="1.05">
       <c r="A33" s="4">
         <v>30</v>
       </c>
@@ -3495,7 +3510,7 @@
       <c r="P33" s="4"/>
       <c r="Q33" s="4"/>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.85">
+    <row r="34" spans="1:17" x14ac:dyDescent="1.05">
       <c r="A34" s="4">
         <v>31</v>
       </c>
@@ -3533,7 +3548,7 @@
       <c r="P34" s="4"/>
       <c r="Q34" s="4"/>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.85">
+    <row r="35" spans="1:17" x14ac:dyDescent="1.05">
       <c r="A35" s="4">
         <v>32</v>
       </c>
@@ -3576,7 +3591,7 @@
       <c r="P35" s="4"/>
       <c r="Q35" s="4"/>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.85">
+    <row r="36" spans="1:17" x14ac:dyDescent="1.05">
       <c r="A36" s="4">
         <v>33</v>
       </c>
@@ -3611,7 +3626,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="37" spans="1:17" ht="228" x14ac:dyDescent="0.85">
+    <row r="37" spans="1:17" ht="225.6" x14ac:dyDescent="1.05">
       <c r="A37" s="4">
         <v>34</v>
       </c>
@@ -3649,7 +3664,7 @@
         <v>1000000000</v>
       </c>
     </row>
-    <row r="38" spans="1:17" ht="228" x14ac:dyDescent="0.85">
+    <row r="38" spans="1:17" ht="225.6" x14ac:dyDescent="1.05">
       <c r="A38" s="4">
         <v>35</v>
       </c>
@@ -3687,7 +3702,7 @@
         <v>1000000000</v>
       </c>
     </row>
-    <row r="39" spans="1:17" ht="171" x14ac:dyDescent="0.85">
+    <row r="39" spans="1:17" ht="169.2" x14ac:dyDescent="1.05">
       <c r="A39" s="4">
         <v>36</v>
       </c>
@@ -3725,7 +3740,7 @@
         <v>50000000</v>
       </c>
     </row>
-    <row r="40" spans="1:17" ht="171" x14ac:dyDescent="0.85">
+    <row r="40" spans="1:17" ht="169.2" x14ac:dyDescent="1.05">
       <c r="A40" s="4">
         <v>37</v>
       </c>
@@ -3763,7 +3778,7 @@
         <v>50000000</v>
       </c>
     </row>
-    <row r="41" spans="1:17" ht="228" x14ac:dyDescent="0.85">
+    <row r="41" spans="1:17" ht="225.6" x14ac:dyDescent="1.05">
       <c r="A41" s="4">
         <v>151</v>
       </c>
@@ -3801,7 +3816,7 @@
         <v>30000000</v>
       </c>
     </row>
-    <row r="42" spans="1:17" ht="228" x14ac:dyDescent="0.85">
+    <row r="42" spans="1:17" ht="225.6" x14ac:dyDescent="1.05">
       <c r="A42" s="4">
         <v>150</v>
       </c>
@@ -3839,7 +3854,7 @@
         <v>30000000</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.85">
+    <row r="43" spans="1:17" x14ac:dyDescent="1.05">
       <c r="A43" s="4">
         <v>38</v>
       </c>
@@ -3880,7 +3895,7 @@
       <c r="P43" s="4"/>
       <c r="Q43" s="4"/>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.85">
+    <row r="44" spans="1:17" x14ac:dyDescent="1.05">
       <c r="A44" s="4">
         <v>39</v>
       </c>
@@ -3915,7 +3930,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.85">
+    <row r="45" spans="1:17" x14ac:dyDescent="1.05">
       <c r="A45" s="4">
         <v>40</v>
       </c>
@@ -3953,7 +3968,7 @@
       <c r="P45" s="4"/>
       <c r="Q45" s="4"/>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.85">
+    <row r="46" spans="1:17" x14ac:dyDescent="1.05">
       <c r="A46" s="4">
         <v>41</v>
       </c>
@@ -3988,7 +4003,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.85">
+    <row r="47" spans="1:17" x14ac:dyDescent="1.05">
       <c r="A47" s="4">
         <v>42</v>
       </c>
@@ -4023,7 +4038,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.85">
+    <row r="48" spans="1:17" x14ac:dyDescent="1.05">
       <c r="A48" s="4">
         <v>43</v>
       </c>
@@ -4058,7 +4073,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.85">
+    <row r="49" spans="1:20" x14ac:dyDescent="1.05">
       <c r="A49" s="4">
         <v>44</v>
       </c>
@@ -4093,7 +4108,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.85">
+    <row r="50" spans="1:20" x14ac:dyDescent="1.05">
       <c r="A50" s="4">
         <v>45</v>
       </c>
@@ -4128,7 +4143,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.85">
+    <row r="51" spans="1:20" x14ac:dyDescent="1.05">
       <c r="A51" s="4">
         <v>46</v>
       </c>
@@ -4163,7 +4178,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.85">
+    <row r="52" spans="1:20" x14ac:dyDescent="1.05">
       <c r="A52" s="4">
         <v>47</v>
       </c>
@@ -4198,7 +4213,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.85">
+    <row r="53" spans="1:20" x14ac:dyDescent="1.05">
       <c r="A53" s="4">
         <v>48</v>
       </c>
@@ -4233,7 +4248,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.85">
+    <row r="54" spans="1:20" x14ac:dyDescent="1.05">
       <c r="A54" s="4">
         <v>49</v>
       </c>
@@ -4268,7 +4283,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.85">
+    <row r="55" spans="1:20" x14ac:dyDescent="1.05">
       <c r="A55" s="4">
         <v>50</v>
       </c>
@@ -4303,7 +4318,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.85">
+    <row r="56" spans="1:20" x14ac:dyDescent="1.05">
       <c r="A56" s="4">
         <v>51</v>
       </c>
@@ -4338,7 +4353,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.85">
+    <row r="57" spans="1:20" x14ac:dyDescent="1.05">
       <c r="A57" s="4">
         <v>52</v>
       </c>
@@ -4373,7 +4388,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.85">
+    <row r="58" spans="1:20" x14ac:dyDescent="1.05">
       <c r="A58" s="4">
         <v>53</v>
       </c>
@@ -4408,7 +4423,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.85">
+    <row r="59" spans="1:20" x14ac:dyDescent="1.05">
       <c r="A59" s="4">
         <v>54</v>
       </c>
@@ -4443,7 +4458,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.85">
+    <row r="60" spans="1:20" x14ac:dyDescent="1.05">
       <c r="A60" s="4">
         <v>55</v>
       </c>
@@ -4478,7 +4493,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.85">
+    <row r="61" spans="1:20" x14ac:dyDescent="1.05">
       <c r="A61" s="4">
         <v>56</v>
       </c>
@@ -4516,7 +4531,7 @@
       <c r="S61" s="4"/>
       <c r="T61" s="4"/>
     </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.85">
+    <row r="62" spans="1:20" x14ac:dyDescent="1.05">
       <c r="A62" s="4">
         <v>57</v>
       </c>
@@ -4554,7 +4569,7 @@
       <c r="S62" s="4"/>
       <c r="T62" s="4"/>
     </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.85">
+    <row r="63" spans="1:20" x14ac:dyDescent="1.05">
       <c r="A63" s="4">
         <v>58</v>
       </c>
@@ -4592,7 +4607,7 @@
       <c r="S63" s="4"/>
       <c r="T63" s="4"/>
     </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.85">
+    <row r="64" spans="1:20" x14ac:dyDescent="1.05">
       <c r="A64" s="4">
         <v>59</v>
       </c>
@@ -4627,7 +4642,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="65" spans="1:20" x14ac:dyDescent="0.85">
+    <row r="65" spans="1:20" x14ac:dyDescent="1.05">
       <c r="A65" s="4">
         <v>60</v>
       </c>
@@ -4665,7 +4680,7 @@
       <c r="S65" s="4"/>
       <c r="T65" s="4"/>
     </row>
-    <row r="66" spans="1:20" x14ac:dyDescent="0.85">
+    <row r="66" spans="1:20" x14ac:dyDescent="1.05">
       <c r="A66" s="4">
         <v>61</v>
       </c>
@@ -4706,7 +4721,7 @@
       <c r="S66" s="4"/>
       <c r="T66" s="4"/>
     </row>
-    <row r="67" spans="1:20" x14ac:dyDescent="0.85">
+    <row r="67" spans="1:20" x14ac:dyDescent="1.05">
       <c r="A67" s="4">
         <v>62</v>
       </c>
@@ -4744,7 +4759,7 @@
       <c r="S67" s="4"/>
       <c r="T67" s="4"/>
     </row>
-    <row r="68" spans="1:20" x14ac:dyDescent="0.85">
+    <row r="68" spans="1:20" x14ac:dyDescent="1.05">
       <c r="A68" s="4">
         <v>63</v>
       </c>
@@ -4779,7 +4794,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="69" spans="1:20" x14ac:dyDescent="0.85">
+    <row r="69" spans="1:20" x14ac:dyDescent="1.05">
       <c r="A69" s="4">
         <v>64</v>
       </c>
@@ -4814,7 +4829,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="70" spans="1:20" x14ac:dyDescent="0.85">
+    <row r="70" spans="1:20" x14ac:dyDescent="1.05">
       <c r="A70" s="4">
         <v>65</v>
       </c>
@@ -4849,7 +4864,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="71" spans="1:20" x14ac:dyDescent="0.85">
+    <row r="71" spans="1:20" x14ac:dyDescent="1.05">
       <c r="A71" s="4">
         <v>66</v>
       </c>
@@ -4884,7 +4899,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="72" spans="1:20" x14ac:dyDescent="0.85">
+    <row r="72" spans="1:20" x14ac:dyDescent="1.05">
       <c r="A72" s="4">
         <v>67</v>
       </c>
@@ -4919,7 +4934,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="73" spans="1:20" x14ac:dyDescent="0.85">
+    <row r="73" spans="1:20" x14ac:dyDescent="1.05">
       <c r="A73" s="4">
         <v>68</v>
       </c>
@@ -4954,7 +4969,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="74" spans="1:20" x14ac:dyDescent="0.85">
+    <row r="74" spans="1:20" x14ac:dyDescent="1.05">
       <c r="A74" s="4">
         <v>69</v>
       </c>
@@ -4989,7 +5004,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="75" spans="1:20" x14ac:dyDescent="0.85">
+    <row r="75" spans="1:20" x14ac:dyDescent="1.05">
       <c r="A75" s="4">
         <v>70</v>
       </c>
@@ -5024,7 +5039,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="76" spans="1:20" x14ac:dyDescent="0.85">
+    <row r="76" spans="1:20" x14ac:dyDescent="1.05">
       <c r="A76" s="4">
         <v>71</v>
       </c>
@@ -5062,7 +5077,7 @@
       <c r="P76" s="4"/>
       <c r="Q76" s="4"/>
     </row>
-    <row r="77" spans="1:20" x14ac:dyDescent="0.85">
+    <row r="77" spans="1:20" x14ac:dyDescent="1.05">
       <c r="A77" s="4">
         <v>72</v>
       </c>
@@ -5097,7 +5112,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="78" spans="1:20" x14ac:dyDescent="0.85">
+    <row r="78" spans="1:20" x14ac:dyDescent="1.05">
       <c r="A78" s="4">
         <v>73</v>
       </c>
@@ -5132,7 +5147,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="79" spans="1:20" x14ac:dyDescent="0.85">
+    <row r="79" spans="1:20" x14ac:dyDescent="1.05">
       <c r="A79" s="4">
         <v>74</v>
       </c>
@@ -5167,7 +5182,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="80" spans="1:20" x14ac:dyDescent="0.85">
+    <row r="80" spans="1:20" x14ac:dyDescent="1.05">
       <c r="A80" s="4">
         <v>75</v>
       </c>
@@ -5202,7 +5217,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="81" spans="1:20" x14ac:dyDescent="0.85">
+    <row r="81" spans="1:20" x14ac:dyDescent="1.05">
       <c r="A81" s="4">
         <v>76</v>
       </c>
@@ -5240,7 +5255,7 @@
       <c r="S81" s="4"/>
       <c r="T81" s="4"/>
     </row>
-    <row r="82" spans="1:20" x14ac:dyDescent="0.85">
+    <row r="82" spans="1:20" x14ac:dyDescent="1.05">
       <c r="A82" s="4">
         <v>77</v>
       </c>
@@ -5281,7 +5296,7 @@
       <c r="S82" s="4"/>
       <c r="T82" s="4"/>
     </row>
-    <row r="83" spans="1:20" x14ac:dyDescent="0.85">
+    <row r="83" spans="1:20" x14ac:dyDescent="1.05">
       <c r="A83" s="4">
         <v>78</v>
       </c>
@@ -5319,7 +5334,7 @@
       <c r="P83" s="4"/>
       <c r="Q83" s="4"/>
     </row>
-    <row r="84" spans="1:20" x14ac:dyDescent="0.85">
+    <row r="84" spans="1:20" x14ac:dyDescent="1.05">
       <c r="A84" s="4">
         <v>79</v>
       </c>
@@ -5366,7 +5381,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="85" spans="1:20" x14ac:dyDescent="0.85">
+    <row r="85" spans="1:20" x14ac:dyDescent="1.05">
       <c r="A85" s="4">
         <v>80</v>
       </c>
@@ -5413,7 +5428,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="86" spans="1:20" x14ac:dyDescent="0.85">
+    <row r="86" spans="1:20" x14ac:dyDescent="1.05">
       <c r="A86" s="4">
         <v>81</v>
       </c>
@@ -5460,7 +5475,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="87" spans="1:20" x14ac:dyDescent="0.85">
+    <row r="87" spans="1:20" x14ac:dyDescent="1.05">
       <c r="A87" s="4">
         <v>82</v>
       </c>
@@ -5498,7 +5513,7 @@
       <c r="P87" s="4"/>
       <c r="Q87" s="4"/>
     </row>
-    <row r="88" spans="1:20" ht="199.5" x14ac:dyDescent="0.85">
+    <row r="88" spans="1:20" ht="197.4" x14ac:dyDescent="1.05">
       <c r="A88" s="4">
         <v>83</v>
       </c>
@@ -5545,7 +5560,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:20" ht="199.5" x14ac:dyDescent="0.85">
+    <row r="89" spans="1:20" ht="197.4" x14ac:dyDescent="1.05">
       <c r="A89" s="4">
         <v>84</v>
       </c>
@@ -5592,7 +5607,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:20" ht="199.5" x14ac:dyDescent="0.85">
+    <row r="90" spans="1:20" ht="197.4" x14ac:dyDescent="1.05">
       <c r="A90" s="4">
         <v>85</v>
       </c>
@@ -5639,7 +5654,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="91" spans="1:20" ht="199.5" x14ac:dyDescent="0.85">
+    <row r="91" spans="1:20" ht="197.4" x14ac:dyDescent="1.05">
       <c r="A91" s="4">
         <v>86</v>
       </c>
@@ -5686,7 +5701,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:20" ht="199.5" x14ac:dyDescent="0.85">
+    <row r="92" spans="1:20" ht="197.4" x14ac:dyDescent="1.05">
       <c r="A92" s="4">
         <v>87</v>
       </c>
@@ -5733,7 +5748,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:20" ht="199.5" x14ac:dyDescent="0.85">
+    <row r="93" spans="1:20" ht="197.4" x14ac:dyDescent="1.05">
       <c r="A93" s="4">
         <v>88</v>
       </c>
@@ -5780,7 +5795,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="94" spans="1:20" x14ac:dyDescent="0.85">
+    <row r="94" spans="1:20" x14ac:dyDescent="1.05">
       <c r="A94" s="4">
         <v>89</v>
       </c>
@@ -5821,7 +5836,7 @@
       <c r="P94" s="4"/>
       <c r="Q94" s="4"/>
     </row>
-    <row r="95" spans="1:20" x14ac:dyDescent="0.85">
+    <row r="95" spans="1:20" x14ac:dyDescent="1.05">
       <c r="A95" s="4">
         <v>90</v>
       </c>
@@ -5862,7 +5877,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="96" spans="1:20" x14ac:dyDescent="0.85">
+    <row r="96" spans="1:20" x14ac:dyDescent="1.05">
       <c r="A96" s="4">
         <v>91</v>
       </c>
@@ -5897,7 +5912,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="97" spans="1:17" x14ac:dyDescent="0.85">
+    <row r="97" spans="1:17" x14ac:dyDescent="1.05">
       <c r="A97" s="4">
         <v>92</v>
       </c>
@@ -5944,7 +5959,7 @@
         <v>64100000</v>
       </c>
     </row>
-    <row r="98" spans="1:17" x14ac:dyDescent="0.85">
+    <row r="98" spans="1:17" x14ac:dyDescent="1.05">
       <c r="A98" s="4">
         <v>93</v>
       </c>
@@ -5991,7 +6006,7 @@
         <v>58000000</v>
       </c>
     </row>
-    <row r="99" spans="1:17" x14ac:dyDescent="0.85">
+    <row r="99" spans="1:17" x14ac:dyDescent="1.05">
       <c r="A99" s="4">
         <v>94</v>
       </c>
@@ -6038,7 +6053,7 @@
         <v>11200000</v>
       </c>
     </row>
-    <row r="100" spans="1:17" x14ac:dyDescent="0.85">
+    <row r="100" spans="1:17" x14ac:dyDescent="1.05">
       <c r="A100" s="4">
         <v>95</v>
       </c>
@@ -6081,7 +6096,7 @@
       <c r="P100" s="4"/>
       <c r="Q100" s="4"/>
     </row>
-    <row r="101" spans="1:17" x14ac:dyDescent="0.85">
+    <row r="101" spans="1:17" x14ac:dyDescent="1.05">
       <c r="A101" s="4">
         <v>96</v>
       </c>
@@ -6119,7 +6134,7 @@
       <c r="P101" s="4"/>
       <c r="Q101" s="4"/>
     </row>
-    <row r="102" spans="1:17" x14ac:dyDescent="0.85">
+    <row r="102" spans="1:17" x14ac:dyDescent="1.05">
       <c r="A102" s="4">
         <v>97</v>
       </c>
@@ -6154,7 +6169,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="103" spans="1:17" x14ac:dyDescent="0.85">
+    <row r="103" spans="1:17" x14ac:dyDescent="1.05">
       <c r="A103" s="4">
         <v>98</v>
       </c>
@@ -6192,7 +6207,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="104" spans="1:17" x14ac:dyDescent="0.85">
+    <row r="104" spans="1:17" x14ac:dyDescent="1.05">
       <c r="A104" s="4">
         <v>99</v>
       </c>
@@ -6230,7 +6245,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="105" spans="1:17" x14ac:dyDescent="0.85">
+    <row r="105" spans="1:17" x14ac:dyDescent="1.05">
       <c r="A105" s="4">
         <v>100</v>
       </c>
@@ -6265,7 +6280,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="106" spans="1:17" x14ac:dyDescent="0.85">
+    <row r="106" spans="1:17" x14ac:dyDescent="1.05">
       <c r="A106" s="4">
         <v>101</v>
       </c>
@@ -6300,7 +6315,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="107" spans="1:17" x14ac:dyDescent="0.85">
+    <row r="107" spans="1:17" x14ac:dyDescent="1.05">
       <c r="A107" s="4">
         <v>102</v>
       </c>
@@ -6341,7 +6356,7 @@
       <c r="P107" s="4"/>
       <c r="Q107" s="4"/>
     </row>
-    <row r="108" spans="1:17" x14ac:dyDescent="0.85">
+    <row r="108" spans="1:17" x14ac:dyDescent="1.05">
       <c r="A108" s="4">
         <v>103</v>
       </c>
@@ -6382,7 +6397,7 @@
       <c r="P108" s="4"/>
       <c r="Q108" s="4"/>
     </row>
-    <row r="109" spans="1:17" x14ac:dyDescent="0.85">
+    <row r="109" spans="1:17" x14ac:dyDescent="1.05">
       <c r="A109" s="4">
         <v>104</v>
       </c>
@@ -6417,7 +6432,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="110" spans="1:17" x14ac:dyDescent="0.85">
+    <row r="110" spans="1:17" x14ac:dyDescent="1.05">
       <c r="A110" s="4">
         <v>105</v>
       </c>
@@ -6455,7 +6470,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="111" spans="1:17" x14ac:dyDescent="0.85">
+    <row r="111" spans="1:17" x14ac:dyDescent="1.05">
       <c r="A111" s="4">
         <v>106</v>
       </c>
@@ -6493,7 +6508,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="112" spans="1:17" x14ac:dyDescent="0.85">
+    <row r="112" spans="1:17" x14ac:dyDescent="1.05">
       <c r="A112" s="4">
         <v>107</v>
       </c>
@@ -6531,7 +6546,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="113" spans="1:17" x14ac:dyDescent="0.85">
+    <row r="113" spans="1:17" x14ac:dyDescent="1.05">
       <c r="A113" s="4">
         <v>108</v>
       </c>
@@ -6569,7 +6584,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="114" spans="1:17" x14ac:dyDescent="0.85">
+    <row r="114" spans="1:17" x14ac:dyDescent="1.05">
       <c r="A114" s="4">
         <v>109</v>
       </c>
@@ -6610,7 +6625,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="115" spans="1:17" x14ac:dyDescent="0.85">
+    <row r="115" spans="1:17" x14ac:dyDescent="1.05">
       <c r="A115" s="4">
         <v>110</v>
       </c>
@@ -6648,7 +6663,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="116" spans="1:17" x14ac:dyDescent="0.85">
+    <row r="116" spans="1:17" x14ac:dyDescent="1.05">
       <c r="A116" s="4">
         <v>111</v>
       </c>
@@ -6686,7 +6701,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="117" spans="1:17" x14ac:dyDescent="0.85">
+    <row r="117" spans="1:17" x14ac:dyDescent="1.05">
       <c r="A117" s="4">
         <v>112</v>
       </c>
@@ -6727,7 +6742,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="118" spans="1:17" x14ac:dyDescent="0.85">
+    <row r="118" spans="1:17" x14ac:dyDescent="1.05">
       <c r="A118" s="4">
         <v>113</v>
       </c>
@@ -6765,7 +6780,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="119" spans="1:17" x14ac:dyDescent="0.85">
+    <row r="119" spans="1:17" x14ac:dyDescent="1.05">
       <c r="A119" s="4">
         <v>114</v>
       </c>
@@ -6803,7 +6818,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="120" spans="1:17" x14ac:dyDescent="0.85">
+    <row r="120" spans="1:17" x14ac:dyDescent="1.05">
       <c r="A120" s="4">
         <v>115</v>
       </c>
@@ -6841,7 +6856,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="121" spans="1:17" x14ac:dyDescent="0.85">
+    <row r="121" spans="1:17" x14ac:dyDescent="1.05">
       <c r="A121" s="4">
         <v>116</v>
       </c>
@@ -6885,7 +6900,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="122" spans="1:17" x14ac:dyDescent="0.85">
+    <row r="122" spans="1:17" x14ac:dyDescent="1.05">
       <c r="A122" s="4">
         <v>117</v>
       </c>
@@ -6920,7 +6935,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="123" spans="1:17" x14ac:dyDescent="0.85">
+    <row r="123" spans="1:17" x14ac:dyDescent="1.05">
       <c r="A123" s="4">
         <v>118</v>
       </c>
@@ -6955,7 +6970,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="124" spans="1:17" x14ac:dyDescent="0.85">
+    <row r="124" spans="1:17" x14ac:dyDescent="1.05">
       <c r="A124" s="4">
         <v>119</v>
       </c>
@@ -6990,7 +7005,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="125" spans="1:17" x14ac:dyDescent="0.85">
+    <row r="125" spans="1:17" x14ac:dyDescent="1.05">
       <c r="A125" s="4">
         <v>120</v>
       </c>
@@ -7034,7 +7049,7 @@
       <c r="P125" s="4"/>
       <c r="Q125" s="4"/>
     </row>
-    <row r="126" spans="1:17" x14ac:dyDescent="0.85">
+    <row r="126" spans="1:17" x14ac:dyDescent="1.05">
       <c r="A126" s="4">
         <v>121</v>
       </c>
@@ -7078,7 +7093,7 @@
       <c r="P126" s="4"/>
       <c r="Q126" s="4"/>
     </row>
-    <row r="127" spans="1:17" x14ac:dyDescent="0.85">
+    <row r="127" spans="1:17" x14ac:dyDescent="1.05">
       <c r="A127" s="4">
         <v>122</v>
       </c>
@@ -7113,7 +7128,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="128" spans="1:17" x14ac:dyDescent="0.85">
+    <row r="128" spans="1:17" x14ac:dyDescent="1.05">
       <c r="A128" s="4">
         <v>123</v>
       </c>
@@ -7148,7 +7163,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="129" spans="1:18" x14ac:dyDescent="0.85">
+    <row r="129" spans="1:18" x14ac:dyDescent="1.05">
       <c r="A129" s="4">
         <v>124</v>
       </c>
@@ -7183,7 +7198,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="130" spans="1:18" x14ac:dyDescent="0.85">
+    <row r="130" spans="1:18" x14ac:dyDescent="1.05">
       <c r="A130" s="4">
         <v>125</v>
       </c>
@@ -7221,7 +7236,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="131" spans="1:18" x14ac:dyDescent="0.85">
+    <row r="131" spans="1:18" x14ac:dyDescent="1.05">
       <c r="A131" s="4">
         <v>126</v>
       </c>
@@ -7259,7 +7274,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="132" spans="1:18" x14ac:dyDescent="0.85">
+    <row r="132" spans="1:18" x14ac:dyDescent="1.05">
       <c r="A132" s="4">
         <v>127</v>
       </c>
@@ -7297,7 +7312,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="133" spans="1:18" x14ac:dyDescent="0.85">
+    <row r="133" spans="1:18" x14ac:dyDescent="1.05">
       <c r="A133" s="4">
         <v>128</v>
       </c>
@@ -7338,7 +7353,7 @@
       <c r="P133" s="4"/>
       <c r="Q133" s="4"/>
     </row>
-    <row r="134" spans="1:18" x14ac:dyDescent="0.85">
+    <row r="134" spans="1:18" x14ac:dyDescent="1.05">
       <c r="A134" s="4">
         <v>129</v>
       </c>
@@ -7373,7 +7388,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="135" spans="1:18" x14ac:dyDescent="0.85">
+    <row r="135" spans="1:18" x14ac:dyDescent="1.05">
       <c r="A135" s="4">
         <v>130</v>
       </c>
@@ -7411,7 +7426,7 @@
       <c r="P135" s="4"/>
       <c r="Q135" s="4"/>
     </row>
-    <row r="136" spans="1:18" x14ac:dyDescent="0.85">
+    <row r="136" spans="1:18" x14ac:dyDescent="1.05">
       <c r="A136" s="4">
         <v>131</v>
       </c>
@@ -7449,7 +7464,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="137" spans="1:18" x14ac:dyDescent="0.85">
+    <row r="137" spans="1:18" x14ac:dyDescent="1.05">
       <c r="A137" s="4">
         <v>132</v>
       </c>
@@ -7487,7 +7502,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="138" spans="1:18" x14ac:dyDescent="0.85">
+    <row r="138" spans="1:18" x14ac:dyDescent="1.05">
       <c r="A138" s="4">
         <v>133</v>
       </c>
@@ -7522,7 +7537,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="139" spans="1:18" x14ac:dyDescent="0.85">
+    <row r="139" spans="1:18" x14ac:dyDescent="1.05">
       <c r="A139" s="4">
         <v>134</v>
       </c>
@@ -7560,7 +7575,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="140" spans="1:18" x14ac:dyDescent="0.85">
+    <row r="140" spans="1:18" x14ac:dyDescent="1.05">
       <c r="A140" s="4">
         <v>135</v>
       </c>
@@ -7598,7 +7613,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="141" spans="1:18" x14ac:dyDescent="0.85">
+    <row r="141" spans="1:18" x14ac:dyDescent="1.05">
       <c r="A141" s="4">
         <v>136</v>
       </c>
@@ -7633,7 +7648,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="142" spans="1:18" x14ac:dyDescent="0.85">
+    <row r="142" spans="1:18" x14ac:dyDescent="1.05">
       <c r="A142" s="4">
         <v>137</v>
       </c>
@@ -7671,7 +7686,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="143" spans="1:18" x14ac:dyDescent="0.85">
+    <row r="143" spans="1:18" x14ac:dyDescent="1.05">
       <c r="A143" s="4">
         <v>138</v>
       </c>
@@ -7712,7 +7727,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="144" spans="1:18" x14ac:dyDescent="0.85">
+    <row r="144" spans="1:18" x14ac:dyDescent="1.05">
       <c r="A144" s="4">
         <v>139</v>
       </c>
@@ -7756,7 +7771,7 @@
         <v>11200000</v>
       </c>
     </row>
-    <row r="145" spans="1:18" x14ac:dyDescent="0.85">
+    <row r="145" spans="1:18" x14ac:dyDescent="1.05">
       <c r="A145" s="4">
         <v>140</v>
       </c>
@@ -7800,7 +7815,7 @@
         <v>11200000</v>
       </c>
     </row>
-    <row r="146" spans="1:18" x14ac:dyDescent="0.85">
+    <row r="146" spans="1:18" x14ac:dyDescent="1.05">
       <c r="A146" s="4">
         <v>141</v>
       </c>
@@ -7841,7 +7856,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="147" spans="1:18" x14ac:dyDescent="0.85">
+    <row r="147" spans="1:18" x14ac:dyDescent="1.05">
       <c r="A147" s="4">
         <v>142</v>
       </c>
@@ -7879,7 +7894,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="148" spans="1:18" x14ac:dyDescent="0.85">
+    <row r="148" spans="1:18" x14ac:dyDescent="1.05">
       <c r="A148" s="4">
         <v>143</v>
       </c>
@@ -7920,7 +7935,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="149" spans="1:18" x14ac:dyDescent="0.85">
+    <row r="149" spans="1:18" x14ac:dyDescent="1.05">
       <c r="A149" s="4">
         <v>144</v>
       </c>
@@ -7961,7 +7976,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="150" spans="1:18" x14ac:dyDescent="0.85">
+    <row r="150" spans="1:18" x14ac:dyDescent="1.05">
       <c r="A150" s="4">
         <v>145</v>
       </c>
@@ -8005,7 +8020,7 @@
       <c r="P150" s="4"/>
       <c r="Q150" s="4"/>
     </row>
-    <row r="151" spans="1:18" x14ac:dyDescent="0.85">
+    <row r="151" spans="1:18" x14ac:dyDescent="1.05">
       <c r="A151" s="4">
         <v>146</v>
       </c>
@@ -8043,7 +8058,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="152" spans="1:18" x14ac:dyDescent="0.85">
+    <row r="152" spans="1:18" x14ac:dyDescent="1.05">
       <c r="A152" s="4">
         <v>147</v>
       </c>
@@ -8081,7 +8096,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="153" spans="1:18" x14ac:dyDescent="0.85">
+    <row r="153" spans="1:18" x14ac:dyDescent="1.05">
       <c r="A153" s="4">
         <v>148</v>
       </c>
@@ -8119,7 +8134,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="154" spans="1:18" x14ac:dyDescent="0.85">
+    <row r="154" spans="1:18" x14ac:dyDescent="1.05">
       <c r="A154" s="4">
         <v>149</v>
       </c>
@@ -8157,7 +8172,10 @@
         <v>32</v>
       </c>
     </row>
-    <row r="155" spans="1:18" ht="199.5" x14ac:dyDescent="0.85">
+    <row r="155" spans="1:18" ht="197.4" x14ac:dyDescent="1.05">
+      <c r="A155" s="4">
+        <v>150</v>
+      </c>
       <c r="B155" s="4" t="s">
         <v>126</v>
       </c>
@@ -8192,7 +8210,10 @@
         <v>10000000000</v>
       </c>
     </row>
-    <row r="156" spans="1:18" ht="199.5" x14ac:dyDescent="0.85">
+    <row r="156" spans="1:18" ht="197.4" x14ac:dyDescent="1.05">
+      <c r="A156" s="4">
+        <v>151</v>
+      </c>
       <c r="B156" s="4" t="s">
         <v>126</v>
       </c>
@@ -8227,8 +8248,93 @@
         <v>10000000000</v>
       </c>
     </row>
+    <row r="157" spans="1:18" x14ac:dyDescent="1.05">
+      <c r="A157" s="4">
+        <v>152</v>
+      </c>
+      <c r="B157" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C157" s="4" t="s">
+        <v>398</v>
+      </c>
+      <c r="D157" s="4" t="s">
+        <v>399</v>
+      </c>
+      <c r="E157" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F157" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I157" s="4" t="s">
+        <v>499</v>
+      </c>
+      <c r="J157" s="4" t="s">
+        <v>497</v>
+      </c>
+      <c r="K157" s="4" t="s">
+        <v>498</v>
+      </c>
+      <c r="L157" s="4">
+        <v>0</v>
+      </c>
+      <c r="M157" s="4">
+        <v>100</v>
+      </c>
+      <c r="N157" s="4">
+        <v>50</v>
+      </c>
+      <c r="O157" s="4"/>
+      <c r="P157" s="4"/>
+      <c r="Q157" s="4"/>
+    </row>
+    <row r="158" spans="1:18" x14ac:dyDescent="1.05">
+      <c r="A158" s="4">
+        <v>153</v>
+      </c>
+      <c r="B158" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C158" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D158" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E158" s="4" t="s">
+        <v>398</v>
+      </c>
+      <c r="F158" s="4" t="s">
+        <v>399</v>
+      </c>
+      <c r="H158" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="I158" s="4" t="s">
+        <v>500</v>
+      </c>
+      <c r="J158" s="5" t="s">
+        <v>501</v>
+      </c>
+      <c r="K158" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="L158" s="4">
+        <v>-120</v>
+      </c>
+      <c r="M158" s="4">
+        <v>50</v>
+      </c>
+      <c r="N158" s="4">
+        <v>50</v>
+      </c>
+      <c r="O158" s="4"/>
+      <c r="P158" s="4"/>
+      <c r="Q158" s="4"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:Q156" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <autoFilter ref="A1:Q157" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q154">
       <sortCondition ref="E1:E154"/>
     </sortState>

--- a/Converter/assets/UnitConversion.xlsx
+++ b/Converter/assets/UnitConversion.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1d78e2062db64e14/Project/Python/AnalysisTool/Converter/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="62" documentId="13_ncr:1_{125855ED-4C9C-420F-91B7-F40C5A158F65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4D404822-27CB-417F-903C-E4236564FF84}"/>
+  <xr:revisionPtr revIDLastSave="106" documentId="13_ncr:1_{4B2675F5-5A15-4F18-A563-C3F38DCA542D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7AAEDA61-E197-474E-ADE2-0607CD0AE363}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Elec" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Elec!$A$1:$Q$156</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Elec!$A$1:$Q$157</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1329" uniqueCount="497">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1427" uniqueCount="546">
   <si>
     <t>No</t>
   </si>
@@ -1654,6 +1654,160 @@
 43.5 dB{\mu}V/m &amp; (\geq 1000[ MHz] ) \\
 \end{array}
 \right.$'"</t>
+  </si>
+  <si>
+    <t>"r$Watt[dBm] = 10 \times \log _{10}(\frac{Voltage[Vp]^2 \times 1000}{2 \times Z})$"</t>
+  </si>
+  <si>
+    <t>Vpeak Z</t>
+  </si>
+  <si>
+    <t>10 * sympy.log(((P[0]**2 * 1000) /(2*P[1])), 10)</t>
+  </si>
+  <si>
+    <t>sympy.Pow((2*P[1]/1000),0.5) * sympy.Pow(10, P[0]/20)</t>
+  </si>
+  <si>
+    <t>"r'$Voltage[V] = \sqrt{\frac{2Z}{1000}} \times 10^\frac{Watt[dBm]}{20}$'"</t>
+  </si>
+  <si>
+    <t>[F/m]</t>
+  </si>
+  <si>
+    <t>Effective Relative Permittivity [F/m]</t>
+  </si>
+  <si>
+    <t>[F/m] Width[mm] Height[mm]</t>
+  </si>
+  <si>
+    <t>(P[0]+1)/2 + ((P[0]-1)/2)*sympy.Pow(1+10*(P[2]/1e3)/(P[1]/1e3),-1*(1+1/49*sympy.log((sympy.Pow(((P[1]/1e3)/(P[2]/1e3)),4) + sympy.Pow(((P[1]/1e3)/(52*(P[2]/1e3))),2))/(sympy.Pow(((P[1]/1e3)/(P[2]/1e3)),4) + 0.432))) + 1/18.7 * sympy.log(1+sympy.Pow((P[1]/1e3)/(18.1*(P[2]/1e3)),3)) * 0.564*sympy.Pow((P[0]-0.9)/(P[0]+3),0.053))</t>
+  </si>
+  <si>
+    <t>"r'$\begin{array}{ll}
+Effective Permittivity:\varepsilon_\mathrm{e}[F/m] = \frac{\varepsilon_\mathrm{r}+1}{2} + \frac{\varepsilon_\mathrm{r}-1}{2} \times\lbrack1+\frac{10\times Height[mm]}{Width[mm]}\rbrack^{-ab} \\
+a=1+\frac{1}{49}ln\lbrack\frac{\frac{Width}{Height}^{4} + \frac{Width}{52\times Height}^2}{\frac{Width}{Height}^{4} + 0.432}\rbrack  + \frac{1}{18.7}ln\lbrack 1+(\frac{Width}{18.1 \times Height})^3 \rbrack\\
+b=0.564\lbrack\frac{\varepsilon_\mathrm{r}-0.9}{\varepsilon_\mathrm{r}+3}\rbrack^{0.053} \\
+\end{array}$'"</t>
+  </si>
+  <si>
+    <t>Width [mm]</t>
+  </si>
+  <si>
+    <t>Width[mm] Effective-Permittivity[F/m] Height[mm]</t>
+  </si>
+  <si>
+    <t>Height [mm]</t>
+  </si>
+  <si>
+    <t>Height[mm] Effective-Permittivity[F/m] Width[mm]</t>
+  </si>
+  <si>
+    <t>(P[1]+1)/2 + ((P[1]-1)/2)*sympy.Pow(1+10*(P[0]/1e3)/(P[2]/1e3),-1*(1+1/49*sympy.log((sympy.Pow(((P[2]/1e3)/(P[0]/1e3)),4) + sympy.Pow(((P[2]/1e3)/(52*(P[0]/1e3))),2))/(sympy.Pow(((P[2]/1e3)/(P[0]/1e3)),4) + 0.432))) + 1/18.7 * sympy.log(1+sympy.Pow((P[2]/1e3)/(18.1*(P[0]/1e3)),3)) * 0.564*sympy.Pow((P[1]-0.9)/(P[1]+3),0.053))</t>
+  </si>
+  <si>
+    <t>(P[1]+1)/2 + ((P[1]-1)/2)*sympy.Pow(1+10*(P[2]/1e3)/(P[0]/1e3),-1*(1+1/49*sympy.log((sympy.Pow(((P[0]/1e3)/(P[2]/1e3)),4) + sympy.Pow(((P[0]/1e3)/(52*(P[2]/1e3))),2))/(sympy.Pow(((P[0]/1e3)/(P[2]/1e3)),4) + 0.432))) + 1/18.7 * sympy.log(1+sympy.Pow((P[0]/1e3)/(18.1*(P[2]/1e3)),3)) * 0.564*sympy.Pow((P[1]-0.9)/(P[1]+3),0.053))</t>
+  </si>
+  <si>
+    <t>Air Impedance [ohm]</t>
+  </si>
+  <si>
+    <t>Relative Permittivity [F/m]</t>
+  </si>
+  <si>
+    <t>[ohm]</t>
+  </si>
+  <si>
+    <t>Width[mm] Height[mm]</t>
+  </si>
+  <si>
+    <t>60 * sympy.ln(6+(2*sympy.pi-6)*sympy.exp(-1*sympy.Pow(30.666*(P[1]/1e3)/(P[0]/1e3),0.7528)) + sympy.Pow(1+sympy.Pow(2*(P[1]/1e3)/(P[0]/1e3),2),0.5))*(P[1]/1e3)/(P[0]/1e3)</t>
+  </si>
+  <si>
+    <t>"r'$\begin{array}{ll}
+Z_0|_{air} = 60ln\left[ \frac{F_1 \times Height[mm]}{Width[mm} \sqrt{1 + (\frac{2* Height[mm]}{Width[mm})^2} \right] \\
+F_1 = 6 + (2\pi-6)exp\left[ -(\frac{30.666 Height[mm]}{Width[mm]})^{0.7528} \right] \\
+\end{array}$'"</t>
+  </si>
+  <si>
+    <t>Weight</t>
+  </si>
+  <si>
+    <t>[g]</t>
+  </si>
+  <si>
+    <t>Once [oz]</t>
+  </si>
+  <si>
+    <t>Gram [g]</t>
+  </si>
+  <si>
+    <t>P[0] / 28.3495</t>
+  </si>
+  <si>
+    <t>Gram[g]</t>
+  </si>
+  <si>
+    <t>"r'$Once[oz] = \frac{Grams[g]}{28.3495}$'"</t>
+  </si>
+  <si>
+    <t>P[0] * 28.3495</t>
+  </si>
+  <si>
+    <t>"r'$Gram[g] = 28.3495 \times Grams[g]$'"</t>
+  </si>
+  <si>
+    <t>Once[oz]</t>
+  </si>
+  <si>
+    <t>Once per square foot</t>
+  </si>
+  <si>
+    <t>[oz/ft^2]</t>
+  </si>
+  <si>
+    <t>Copper Thickness [um]</t>
+  </si>
+  <si>
+    <t>[um]</t>
+  </si>
+  <si>
+    <t>P[0] * 34.79</t>
+  </si>
+  <si>
+    <t>"r'$Copper Thickness[{\mu}m] = 34.79 \times Once per square foot[oz/ft^2]$'"</t>
+  </si>
+  <si>
+    <t>Once-per-square-foot[oz/ft^2]</t>
+  </si>
+  <si>
+    <t>P[0] / 34.79</t>
+  </si>
+  <si>
+    <t>"r'$Copper Thickness[{\mu}m] = \frac{Once per square foot[oz/ft^2]}{34.79}$'"</t>
+  </si>
+  <si>
+    <t>Copper-Thickness[um]</t>
+  </si>
+  <si>
+    <t>Pound [lb]</t>
+  </si>
+  <si>
+    <t>[lb]</t>
+  </si>
+  <si>
+    <t>P[0] / 453.592</t>
+  </si>
+  <si>
+    <t>"r'$Pound[lb] = \frac{Grams[g]}{453.592}$'"</t>
+  </si>
+  <si>
+    <t>P[0] * 453.593</t>
+  </si>
+  <si>
+    <t>"r'$Gram[g] = 453.592 \times Pound[lb]$'"</t>
+  </si>
+  <si>
+    <t>Pound[lb]</t>
   </si>
 </sst>
 </file>
@@ -1731,7 +1885,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1751,16 +1905,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="11" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2081,21 +2232,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T156"/>
+  <dimension ref="A1:T168"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M156" sqref="M156"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="51" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A161" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M169" sqref="M169"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06640625" defaultRowHeight="28.5" x14ac:dyDescent="0.85"/>
   <cols>
-    <col min="1" max="1" width="13.86328125" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.86328125" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.53125" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.796875" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.796875" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="44.06640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.59765625" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="74.59765625" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.1328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.06640625" style="4" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19.33203125" style="4" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="19.19921875" style="4" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="183.46484375" style="4" bestFit="1" customWidth="1"/>
@@ -2103,10 +2254,9 @@
     <col min="11" max="11" width="195.796875" style="4" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="21.265625" style="4" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="29.265625" style="4" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="21.73046875" style="4" bestFit="1" customWidth="1"/>
-    <col min="15" max="17" width="21.73046875" style="7" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="16.19921875" style="7" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="13.86328125" style="7" bestFit="1" customWidth="1"/>
+    <col min="14" max="17" width="21.73046875" style="4" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.19921875" style="4" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="13.796875" style="4" bestFit="1" customWidth="1"/>
     <col min="21" max="16384" width="9.06640625" style="6"/>
   </cols>
   <sheetData>
@@ -2209,18 +2359,15 @@
       <c r="M2" s="4">
         <v>20000000000</v>
       </c>
-      <c r="N2" s="8">
+      <c r="N2" s="7">
         <v>1.2566650000000001E-6</v>
       </c>
-      <c r="O2" s="9">
+      <c r="O2" s="7">
         <v>64100000</v>
       </c>
-      <c r="P2" s="7">
+      <c r="P2" s="4">
         <v>0.3</v>
       </c>
-      <c r="R2" s="4"/>
-      <c r="S2" s="4"/>
-      <c r="T2" s="4"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.85">
       <c r="A3" s="4">
@@ -2259,18 +2406,15 @@
       <c r="M3" s="4">
         <v>20000000000</v>
       </c>
-      <c r="N3" s="8">
+      <c r="N3" s="7">
         <v>1.25664E-6</v>
       </c>
-      <c r="O3" s="9">
+      <c r="O3" s="7">
         <v>58000000</v>
       </c>
-      <c r="P3" s="7">
+      <c r="P3" s="4">
         <v>0.3</v>
       </c>
-      <c r="R3" s="4"/>
-      <c r="S3" s="4"/>
-      <c r="T3" s="4"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.85">
       <c r="A4" s="4">
@@ -2309,18 +2453,15 @@
       <c r="M4" s="4">
         <v>20000000000</v>
       </c>
-      <c r="N4" s="8">
+      <c r="N4" s="7">
         <v>6.3E-3</v>
       </c>
-      <c r="O4" s="9">
+      <c r="O4" s="7">
         <v>11200000</v>
       </c>
-      <c r="P4" s="7">
+      <c r="P4" s="4">
         <v>0.3</v>
       </c>
-      <c r="R4" s="4"/>
-      <c r="S4" s="4"/>
-      <c r="T4" s="4"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.85">
       <c r="A5" s="4">
@@ -2359,9 +2500,6 @@
       <c r="N5" s="4">
         <v>100</v>
       </c>
-      <c r="O5" s="4"/>
-      <c r="P5" s="4"/>
-      <c r="Q5" s="4"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.85">
       <c r="A6" s="4">
@@ -2400,7 +2538,7 @@
     </row>
     <row r="7" spans="1:20" ht="171" x14ac:dyDescent="0.85">
       <c r="A7" s="4">
-        <v>152</v>
+        <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>126</v>
@@ -2420,25 +2558,25 @@
       <c r="G7" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="I7" s="10" t="s">
+      <c r="I7" s="8" t="s">
         <v>486</v>
       </c>
-      <c r="J7" s="10" t="s">
+      <c r="J7" s="8" t="s">
         <v>487</v>
       </c>
       <c r="K7" s="4" t="s">
         <v>465</v>
       </c>
-      <c r="L7" s="8">
+      <c r="L7" s="7">
         <v>30000000</v>
       </c>
-      <c r="M7" s="8">
+      <c r="M7" s="7">
         <v>1000000000</v>
       </c>
     </row>
     <row r="8" spans="1:20" ht="171" x14ac:dyDescent="0.85">
       <c r="A8" s="4">
-        <v>153</v>
+        <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>126</v>
@@ -2458,25 +2596,25 @@
       <c r="G8" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="I8" s="10" t="s">
+      <c r="I8" s="8" t="s">
         <v>489</v>
       </c>
-      <c r="J8" s="10" t="s">
+      <c r="J8" s="8" t="s">
         <v>490</v>
       </c>
       <c r="K8" s="4" t="s">
         <v>465</v>
       </c>
-      <c r="L8" s="8">
+      <c r="L8" s="7">
         <v>30000000</v>
       </c>
-      <c r="M8" s="8">
+      <c r="M8" s="7">
         <v>1000000000</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.85">
       <c r="A9" s="4">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>10</v>
@@ -2508,13 +2646,10 @@
       <c r="M9" s="4">
         <v>10</v>
       </c>
-      <c r="O9" s="4"/>
-      <c r="P9" s="4"/>
-      <c r="Q9" s="4"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.85">
       <c r="A10" s="4">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>10</v>
@@ -2552,7 +2687,7 @@
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.85">
       <c r="A11" s="4">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>10</v>
@@ -2593,7 +2728,7 @@
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.85">
       <c r="A12" s="4">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>10</v>
@@ -2631,13 +2766,10 @@
       <c r="N12" s="4">
         <v>50</v>
       </c>
-      <c r="R12" s="4"/>
-      <c r="S12" s="4"/>
-      <c r="T12" s="4"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.85">
       <c r="A13" s="4">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>10</v>
@@ -2672,13 +2804,10 @@
       <c r="N13" s="4">
         <v>50</v>
       </c>
-      <c r="R13" s="4"/>
-      <c r="S13" s="4"/>
-      <c r="T13" s="4"/>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.85">
       <c r="A14" s="4">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>10</v>
@@ -2713,13 +2842,10 @@
       <c r="N14" s="4">
         <v>50</v>
       </c>
-      <c r="R14" s="4"/>
-      <c r="S14" s="4"/>
-      <c r="T14" s="4"/>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.85">
       <c r="A15" s="4">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>10</v>
@@ -2754,13 +2880,10 @@
       <c r="N15" s="4">
         <v>50</v>
       </c>
-      <c r="R15" s="4"/>
-      <c r="S15" s="4"/>
-      <c r="T15" s="4"/>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.85">
       <c r="A16" s="4">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>10</v>
@@ -2795,13 +2918,10 @@
       <c r="N16" s="4">
         <v>50</v>
       </c>
-      <c r="R16" s="4"/>
-      <c r="S16" s="4"/>
-      <c r="T16" s="4"/>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.85">
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.85">
       <c r="A17" s="4">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>10</v>
@@ -2836,13 +2956,10 @@
       <c r="N17" s="4">
         <v>50</v>
       </c>
-      <c r="R17" s="4"/>
-      <c r="S17" s="4"/>
-      <c r="T17" s="4"/>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.85">
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.85">
       <c r="A18" s="4">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>10</v>
@@ -2877,13 +2994,10 @@
       <c r="N18" s="4">
         <v>50</v>
       </c>
-      <c r="R18" s="4"/>
-      <c r="S18" s="4"/>
-      <c r="T18" s="4"/>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.85">
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.85">
       <c r="A19" s="4">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>10</v>
@@ -2918,13 +3032,10 @@
       <c r="N19" s="4">
         <v>50</v>
       </c>
-      <c r="R19" s="4"/>
-      <c r="S19" s="4"/>
-      <c r="T19" s="4"/>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.85">
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.85">
       <c r="A20" s="4">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>10</v>
@@ -2959,13 +3070,10 @@
       <c r="N20" s="4">
         <v>50</v>
       </c>
-      <c r="R20" s="4"/>
-      <c r="S20" s="4"/>
-      <c r="T20" s="4"/>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.85">
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.85">
       <c r="A21" s="4">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>10</v>
@@ -3000,13 +3108,10 @@
       <c r="M21" s="4">
         <v>120</v>
       </c>
-      <c r="R21" s="4"/>
-      <c r="S21" s="4"/>
-      <c r="T21" s="4"/>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.85">
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.85">
       <c r="A22" s="4">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>10</v>
@@ -3042,9 +3147,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.85">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.85">
       <c r="A23" s="4">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>10</v>
@@ -3080,9 +3185,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.85">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.85">
       <c r="A24" s="4">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>10</v>
@@ -3117,13 +3222,10 @@
       <c r="N24" s="4">
         <v>50</v>
       </c>
-      <c r="R24" s="4"/>
-      <c r="S24" s="4"/>
-      <c r="T24" s="4"/>
-    </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.85">
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.85">
       <c r="A25" s="4">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>10</v>
@@ -3161,13 +3263,10 @@
       <c r="N25" s="4">
         <v>50</v>
       </c>
-      <c r="R25" s="4"/>
-      <c r="S25" s="4"/>
-      <c r="T25" s="4"/>
-    </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.85">
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.85">
       <c r="A26" s="4">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>10</v>
@@ -3206,9 +3305,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.85">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.85">
       <c r="A27" s="4">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>10</v>
@@ -3244,9 +3343,9 @@
         <v>90</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.85">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.85">
       <c r="A28" s="4">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>10</v>
@@ -3285,9 +3384,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.85">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.85">
       <c r="A29" s="4">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>10</v>
@@ -3326,9 +3425,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.85">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.85">
       <c r="A30" s="4">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>10</v>
@@ -3367,9 +3466,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.85">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.85">
       <c r="A31" s="4">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>102</v>
@@ -3404,13 +3503,10 @@
       <c r="N31" s="4">
         <v>100</v>
       </c>
-      <c r="O31" s="4"/>
-      <c r="P31" s="4"/>
-      <c r="Q31" s="4"/>
-    </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.85">
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.85">
       <c r="A32" s="4">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>102</v>
@@ -3445,13 +3541,10 @@
       <c r="M32" s="4">
         <v>100</v>
       </c>
-      <c r="O32" s="4"/>
-      <c r="P32" s="4"/>
-      <c r="Q32" s="4"/>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.85">
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.85">
       <c r="A33" s="4">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>102</v>
@@ -3492,12 +3585,10 @@
       <c r="O33" s="4">
         <v>0.01</v>
       </c>
-      <c r="P33" s="4"/>
-      <c r="Q33" s="4"/>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.85">
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.85">
       <c r="A34" s="4">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>102</v>
@@ -3529,13 +3620,10 @@
       <c r="M34" s="4">
         <v>100</v>
       </c>
-      <c r="O34" s="4"/>
-      <c r="P34" s="4"/>
-      <c r="Q34" s="4"/>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.85">
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.85">
       <c r="A35" s="4">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>102</v>
@@ -3573,12 +3661,10 @@
       <c r="O35" s="4">
         <v>0.01</v>
       </c>
-      <c r="P35" s="4"/>
-      <c r="Q35" s="4"/>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.85">
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.85">
       <c r="A36" s="4">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>379</v>
@@ -3611,9 +3697,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="37" spans="1:17" ht="228" x14ac:dyDescent="0.85">
+    <row r="37" spans="1:15" ht="228" x14ac:dyDescent="0.85">
       <c r="A37" s="4">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>126</v>
@@ -3633,25 +3719,25 @@
       <c r="G37" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="I37" s="10" t="s">
+      <c r="I37" s="8" t="s">
         <v>466</v>
       </c>
-      <c r="J37" s="10" t="s">
+      <c r="J37" s="8" t="s">
         <v>474</v>
       </c>
       <c r="K37" s="4" t="s">
         <v>465</v>
       </c>
-      <c r="L37" s="8">
+      <c r="L37" s="7">
         <v>1000000</v>
       </c>
-      <c r="M37" s="8">
+      <c r="M37" s="7">
         <v>1000000000</v>
       </c>
     </row>
-    <row r="38" spans="1:17" ht="228" x14ac:dyDescent="0.85">
+    <row r="38" spans="1:15" ht="228" x14ac:dyDescent="0.85">
       <c r="A38" s="4">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>126</v>
@@ -3671,25 +3757,25 @@
       <c r="G38" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="I38" s="10" t="s">
+      <c r="I38" s="8" t="s">
         <v>468</v>
       </c>
-      <c r="J38" s="10" t="s">
+      <c r="J38" s="8" t="s">
         <v>473</v>
       </c>
       <c r="K38" s="4" t="s">
         <v>465</v>
       </c>
-      <c r="L38" s="8">
+      <c r="L38" s="7">
         <v>1000000</v>
       </c>
-      <c r="M38" s="8">
+      <c r="M38" s="7">
         <v>1000000000</v>
       </c>
     </row>
-    <row r="39" spans="1:17" ht="171" x14ac:dyDescent="0.85">
+    <row r="39" spans="1:15" ht="171" x14ac:dyDescent="0.85">
       <c r="A39" s="4">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>126</v>
@@ -3709,25 +3795,25 @@
       <c r="G39" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="I39" s="10" t="s">
+      <c r="I39" s="8" t="s">
         <v>477</v>
       </c>
-      <c r="J39" s="10" t="s">
+      <c r="J39" s="8" t="s">
         <v>478</v>
       </c>
       <c r="K39" s="4" t="s">
         <v>465</v>
       </c>
-      <c r="L39" s="8">
+      <c r="L39" s="7">
         <v>100000</v>
       </c>
-      <c r="M39" s="8">
+      <c r="M39" s="7">
         <v>50000000</v>
       </c>
     </row>
-    <row r="40" spans="1:17" ht="171" x14ac:dyDescent="0.85">
+    <row r="40" spans="1:15" ht="171" x14ac:dyDescent="0.85">
       <c r="A40" s="4">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B40" s="4" t="s">
         <v>126</v>
@@ -3747,25 +3833,25 @@
       <c r="G40" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="I40" s="10" t="s">
+      <c r="I40" s="8" t="s">
         <v>471</v>
       </c>
-      <c r="J40" s="10" t="s">
+      <c r="J40" s="8" t="s">
         <v>475</v>
       </c>
       <c r="K40" s="4" t="s">
         <v>465</v>
       </c>
-      <c r="L40" s="8">
+      <c r="L40" s="7">
         <v>100000</v>
       </c>
-      <c r="M40" s="8">
+      <c r="M40" s="7">
         <v>50000000</v>
       </c>
     </row>
-    <row r="41" spans="1:17" ht="228" x14ac:dyDescent="0.85">
+    <row r="41" spans="1:15" ht="228" x14ac:dyDescent="0.85">
       <c r="A41" s="4">
-        <v>151</v>
+        <v>40</v>
       </c>
       <c r="B41" s="4" t="s">
         <v>126</v>
@@ -3785,25 +3871,25 @@
       <c r="G41" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="I41" s="10" t="s">
+      <c r="I41" s="8" t="s">
         <v>482</v>
       </c>
-      <c r="J41" s="10" t="s">
+      <c r="J41" s="8" t="s">
         <v>484</v>
       </c>
       <c r="K41" s="4" t="s">
         <v>465</v>
       </c>
-      <c r="L41" s="8">
+      <c r="L41" s="7">
         <v>150000</v>
       </c>
-      <c r="M41" s="8">
+      <c r="M41" s="7">
         <v>30000000</v>
       </c>
     </row>
-    <row r="42" spans="1:17" ht="228" x14ac:dyDescent="0.85">
+    <row r="42" spans="1:15" ht="228" x14ac:dyDescent="0.85">
       <c r="A42" s="4">
-        <v>150</v>
+        <v>41</v>
       </c>
       <c r="B42" s="4" t="s">
         <v>126</v>
@@ -3823,25 +3909,25 @@
       <c r="G42" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="I42" s="10" t="s">
+      <c r="I42" s="8" t="s">
         <v>480</v>
       </c>
-      <c r="J42" s="10" t="s">
+      <c r="J42" s="8" t="s">
         <v>483</v>
       </c>
       <c r="K42" s="4" t="s">
         <v>465</v>
       </c>
-      <c r="L42" s="8">
+      <c r="L42" s="7">
         <v>150000</v>
       </c>
-      <c r="M42" s="8">
+      <c r="M42" s="7">
         <v>30000000</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.85">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.85">
       <c r="A43" s="4">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B43" s="4" t="s">
         <v>102</v>
@@ -3876,13 +3962,10 @@
       <c r="M43" s="4">
         <v>50</v>
       </c>
-      <c r="O43" s="4"/>
-      <c r="P43" s="4"/>
-      <c r="Q43" s="4"/>
-    </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.85">
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.85">
       <c r="A44" s="4">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B44" s="4" t="s">
         <v>32</v>
@@ -3915,9 +3998,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.85">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.85">
       <c r="A45" s="4">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B45" s="4" t="s">
         <v>102</v>
@@ -3949,13 +4032,10 @@
       <c r="M45" s="4">
         <v>100</v>
       </c>
-      <c r="O45" s="4"/>
-      <c r="P45" s="4"/>
-      <c r="Q45" s="4"/>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.85">
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.85">
       <c r="A46" s="4">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B46" s="4" t="s">
         <v>286</v>
@@ -3988,9 +4068,9 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.85">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.85">
       <c r="A47" s="4">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B47" s="4" t="s">
         <v>286</v>
@@ -4023,9 +4103,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.85">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.85">
       <c r="A48" s="4">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B48" s="4" t="s">
         <v>286</v>
@@ -4058,9 +4138,9 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.85">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.85">
       <c r="A49" s="4">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B49" s="4" t="s">
         <v>286</v>
@@ -4093,9 +4173,9 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.85">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.85">
       <c r="A50" s="4">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B50" s="4" t="s">
         <v>286</v>
@@ -4128,9 +4208,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.85">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.85">
       <c r="A51" s="4">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B51" s="4" t="s">
         <v>286</v>
@@ -4163,9 +4243,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.85">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.85">
       <c r="A52" s="4">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B52" s="4" t="s">
         <v>286</v>
@@ -4198,9 +4278,9 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.85">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.85">
       <c r="A53" s="4">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B53" s="4" t="s">
         <v>286</v>
@@ -4233,9 +4313,9 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.85">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.85">
       <c r="A54" s="4">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B54" s="4" t="s">
         <v>286</v>
@@ -4268,9 +4348,9 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.85">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.85">
       <c r="A55" s="4">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B55" s="4" t="s">
         <v>286</v>
@@ -4303,9 +4383,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.85">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.85">
       <c r="A56" s="4">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B56" s="4" t="s">
         <v>286</v>
@@ -4338,9 +4418,9 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.85">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.85">
       <c r="A57" s="4">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B57" s="4" t="s">
         <v>286</v>
@@ -4373,9 +4453,9 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.85">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.85">
       <c r="A58" s="4">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B58" s="4" t="s">
         <v>286</v>
@@ -4408,9 +4488,9 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.85">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.85">
       <c r="A59" s="4">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B59" s="4" t="s">
         <v>286</v>
@@ -4443,9 +4523,9 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.85">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.85">
       <c r="A60" s="4">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B60" s="4" t="s">
         <v>286</v>
@@ -4478,9 +4558,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.85">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.85">
       <c r="A61" s="4">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B61" s="4" t="s">
         <v>286</v>
@@ -4512,13 +4592,10 @@
       <c r="M61" s="4">
         <v>10000</v>
       </c>
-      <c r="R61" s="4"/>
-      <c r="S61" s="4"/>
-      <c r="T61" s="4"/>
-    </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.85">
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.85">
       <c r="A62" s="4">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B62" s="4" t="s">
         <v>286</v>
@@ -4550,13 +4627,10 @@
       <c r="M62" s="4">
         <v>10000</v>
       </c>
-      <c r="R62" s="4"/>
-      <c r="S62" s="4"/>
-      <c r="T62" s="4"/>
-    </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.85">
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.85">
       <c r="A63" s="4">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B63" s="4" t="s">
         <v>286</v>
@@ -4588,13 +4662,10 @@
       <c r="M63" s="4">
         <v>10000</v>
       </c>
-      <c r="R63" s="4"/>
-      <c r="S63" s="4"/>
-      <c r="T63" s="4"/>
-    </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.85">
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.85">
       <c r="A64" s="4">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B64" s="4" t="s">
         <v>286</v>
@@ -4627,9 +4698,9 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="65" spans="1:20" x14ac:dyDescent="0.85">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.85">
       <c r="A65" s="4">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B65" s="4" t="s">
         <v>286</v>
@@ -4661,13 +4732,10 @@
       <c r="M65" s="4">
         <v>10000</v>
       </c>
-      <c r="R65" s="4"/>
-      <c r="S65" s="4"/>
-      <c r="T65" s="4"/>
-    </row>
-    <row r="66" spans="1:20" x14ac:dyDescent="0.85">
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.85">
       <c r="A66" s="4">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B66" s="4" t="s">
         <v>286</v>
@@ -4699,16 +4767,10 @@
       <c r="M66" s="4">
         <v>10</v>
       </c>
-      <c r="O66" s="4"/>
-      <c r="P66" s="4"/>
-      <c r="Q66" s="4"/>
-      <c r="R66" s="4"/>
-      <c r="S66" s="4"/>
-      <c r="T66" s="4"/>
-    </row>
-    <row r="67" spans="1:20" x14ac:dyDescent="0.85">
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.85">
       <c r="A67" s="4">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B67" s="4" t="s">
         <v>286</v>
@@ -4740,13 +4802,10 @@
       <c r="M67" s="4">
         <v>10000</v>
       </c>
-      <c r="R67" s="4"/>
-      <c r="S67" s="4"/>
-      <c r="T67" s="4"/>
-    </row>
-    <row r="68" spans="1:20" x14ac:dyDescent="0.85">
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.85">
       <c r="A68" s="4">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B68" s="4" t="s">
         <v>286</v>
@@ -4779,9 +4838,9 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="69" spans="1:20" x14ac:dyDescent="0.85">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.85">
       <c r="A69" s="4">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B69" s="4" t="s">
         <v>286</v>
@@ -4814,9 +4873,9 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="70" spans="1:20" x14ac:dyDescent="0.85">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.85">
       <c r="A70" s="4">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B70" s="4" t="s">
         <v>286</v>
@@ -4849,9 +4908,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="71" spans="1:20" x14ac:dyDescent="0.85">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.85">
       <c r="A71" s="4">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B71" s="4" t="s">
         <v>286</v>
@@ -4884,9 +4943,9 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="72" spans="1:20" x14ac:dyDescent="0.85">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.85">
       <c r="A72" s="4">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B72" s="4" t="s">
         <v>286</v>
@@ -4919,9 +4978,9 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="73" spans="1:20" x14ac:dyDescent="0.85">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.85">
       <c r="A73" s="4">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B73" s="4" t="s">
         <v>286</v>
@@ -4954,9 +5013,9 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="74" spans="1:20" x14ac:dyDescent="0.85">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.85">
       <c r="A74" s="4">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B74" s="4" t="s">
         <v>286</v>
@@ -4989,9 +5048,9 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="75" spans="1:20" x14ac:dyDescent="0.85">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.85">
       <c r="A75" s="4">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B75" s="4" t="s">
         <v>286</v>
@@ -5024,9 +5083,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="76" spans="1:20" x14ac:dyDescent="0.85">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.85">
       <c r="A76" s="4">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B76" s="4" t="s">
         <v>286</v>
@@ -5058,13 +5117,10 @@
       <c r="M76" s="4">
         <v>100</v>
       </c>
-      <c r="O76" s="4"/>
-      <c r="P76" s="4"/>
-      <c r="Q76" s="4"/>
-    </row>
-    <row r="77" spans="1:20" x14ac:dyDescent="0.85">
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.85">
       <c r="A77" s="4">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B77" s="4" t="s">
         <v>286</v>
@@ -5097,9 +5153,9 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="78" spans="1:20" x14ac:dyDescent="0.85">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.85">
       <c r="A78" s="4">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B78" s="4" t="s">
         <v>286</v>
@@ -5132,9 +5188,9 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="79" spans="1:20" x14ac:dyDescent="0.85">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.85">
       <c r="A79" s="4">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B79" s="4" t="s">
         <v>286</v>
@@ -5167,9 +5223,9 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="80" spans="1:20" x14ac:dyDescent="0.85">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.85">
       <c r="A80" s="4">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B80" s="4" t="s">
         <v>286</v>
@@ -5202,9 +5258,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="81" spans="1:20" x14ac:dyDescent="0.85">
+    <row r="81" spans="1:16" x14ac:dyDescent="0.85">
       <c r="A81" s="4">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B81" s="4" t="s">
         <v>286</v>
@@ -5236,13 +5292,10 @@
       <c r="M81" s="4">
         <v>10000</v>
       </c>
-      <c r="R81" s="4"/>
-      <c r="S81" s="4"/>
-      <c r="T81" s="4"/>
-    </row>
-    <row r="82" spans="1:20" x14ac:dyDescent="0.85">
+    </row>
+    <row r="82" spans="1:16" x14ac:dyDescent="0.85">
       <c r="A82" s="4">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B82" s="4" t="s">
         <v>102</v>
@@ -5274,16 +5327,10 @@
       <c r="M82" s="4">
         <v>20</v>
       </c>
-      <c r="O82" s="4"/>
-      <c r="P82" s="4"/>
-      <c r="Q82" s="4"/>
-      <c r="R82" s="4"/>
-      <c r="S82" s="4"/>
-      <c r="T82" s="4"/>
-    </row>
-    <row r="83" spans="1:20" x14ac:dyDescent="0.85">
+    </row>
+    <row r="83" spans="1:16" x14ac:dyDescent="0.85">
       <c r="A83" s="4">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B83" s="4" t="s">
         <v>102</v>
@@ -5315,13 +5362,10 @@
       <c r="M83" s="4">
         <v>100</v>
       </c>
-      <c r="O83" s="4"/>
-      <c r="P83" s="4"/>
-      <c r="Q83" s="4"/>
-    </row>
-    <row r="84" spans="1:20" x14ac:dyDescent="0.85">
+    </row>
+    <row r="84" spans="1:16" x14ac:dyDescent="0.85">
       <c r="A84" s="4">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B84" s="4" t="s">
         <v>102</v>
@@ -5356,19 +5400,19 @@
       <c r="M84" s="4">
         <v>20000000000</v>
       </c>
-      <c r="N84" s="8">
+      <c r="N84" s="7">
         <v>1.2566650000000001E-6</v>
       </c>
-      <c r="O84" s="9">
+      <c r="O84" s="7">
         <v>64100000</v>
       </c>
-      <c r="P84" s="7">
+      <c r="P84" s="4">
         <v>0.3</v>
       </c>
     </row>
-    <row r="85" spans="1:20" x14ac:dyDescent="0.85">
+    <row r="85" spans="1:16" x14ac:dyDescent="0.85">
       <c r="A85" s="4">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B85" s="4" t="s">
         <v>102</v>
@@ -5403,19 +5447,19 @@
       <c r="M85" s="4">
         <v>20000000000</v>
       </c>
-      <c r="N85" s="8">
+      <c r="N85" s="7">
         <v>1.25664E-6</v>
       </c>
-      <c r="O85" s="9">
+      <c r="O85" s="7">
         <v>58000000</v>
       </c>
-      <c r="P85" s="7">
+      <c r="P85" s="4">
         <v>0.3</v>
       </c>
     </row>
-    <row r="86" spans="1:20" x14ac:dyDescent="0.85">
+    <row r="86" spans="1:16" x14ac:dyDescent="0.85">
       <c r="A86" s="4">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B86" s="4" t="s">
         <v>102</v>
@@ -5450,19 +5494,19 @@
       <c r="M86" s="4">
         <v>20000000000</v>
       </c>
-      <c r="N86" s="8">
+      <c r="N86" s="7">
         <v>6.3E-3</v>
       </c>
-      <c r="O86" s="9">
+      <c r="O86" s="7">
         <v>11200000</v>
       </c>
-      <c r="P86" s="7">
+      <c r="P86" s="4">
         <v>0.3</v>
       </c>
     </row>
-    <row r="87" spans="1:20" x14ac:dyDescent="0.85">
+    <row r="87" spans="1:16" x14ac:dyDescent="0.85">
       <c r="A87" s="4">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B87" s="4" t="s">
         <v>460</v>
@@ -5494,13 +5538,10 @@
       <c r="M87" s="4">
         <v>5</v>
       </c>
-      <c r="O87" s="4"/>
-      <c r="P87" s="4"/>
-      <c r="Q87" s="4"/>
-    </row>
-    <row r="88" spans="1:20" ht="199.5" x14ac:dyDescent="0.85">
+    </row>
+    <row r="88" spans="1:16" ht="199.5" x14ac:dyDescent="0.85">
       <c r="A88" s="4">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B88" s="4" t="s">
         <v>102</v>
@@ -5520,10 +5561,10 @@
       <c r="G88" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="I88" s="10" t="s">
+      <c r="I88" s="8" t="s">
         <v>442</v>
       </c>
-      <c r="J88" s="10" t="s">
+      <c r="J88" s="8" t="s">
         <v>443</v>
       </c>
       <c r="K88" s="4" t="s">
@@ -5545,9 +5586,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:20" ht="199.5" x14ac:dyDescent="0.85">
+    <row r="89" spans="1:16" ht="199.5" x14ac:dyDescent="0.85">
       <c r="A89" s="4">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B89" s="4" t="s">
         <v>102</v>
@@ -5567,10 +5608,10 @@
       <c r="G89" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="I89" s="10" t="s">
+      <c r="I89" s="8" t="s">
         <v>442</v>
       </c>
-      <c r="J89" s="10" t="s">
+      <c r="J89" s="8" t="s">
         <v>443</v>
       </c>
       <c r="K89" s="4" t="s">
@@ -5592,9 +5633,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:20" ht="199.5" x14ac:dyDescent="0.85">
+    <row r="90" spans="1:16" ht="199.5" x14ac:dyDescent="0.85">
       <c r="A90" s="4">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B90" s="4" t="s">
         <v>102</v>
@@ -5614,10 +5655,10 @@
       <c r="G90" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="I90" s="10" t="s">
+      <c r="I90" s="8" t="s">
         <v>442</v>
       </c>
-      <c r="J90" s="10" t="s">
+      <c r="J90" s="8" t="s">
         <v>443</v>
       </c>
       <c r="K90" s="4" t="s">
@@ -5639,9 +5680,9 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="91" spans="1:20" ht="199.5" x14ac:dyDescent="0.85">
+    <row r="91" spans="1:16" ht="199.5" x14ac:dyDescent="0.85">
       <c r="A91" s="4">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B91" s="4" t="s">
         <v>102</v>
@@ -5661,10 +5702,10 @@
       <c r="G91" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="I91" s="10" t="s">
+      <c r="I91" s="8" t="s">
         <v>437</v>
       </c>
-      <c r="J91" s="10" t="s">
+      <c r="J91" s="8" t="s">
         <v>438</v>
       </c>
       <c r="K91" s="4" t="s">
@@ -5686,9 +5727,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:20" ht="199.5" x14ac:dyDescent="0.85">
+    <row r="92" spans="1:16" ht="199.5" x14ac:dyDescent="0.85">
       <c r="A92" s="4">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B92" s="4" t="s">
         <v>102</v>
@@ -5708,10 +5749,10 @@
       <c r="G92" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="I92" s="10" t="s">
+      <c r="I92" s="8" t="s">
         <v>437</v>
       </c>
-      <c r="J92" s="10" t="s">
+      <c r="J92" s="8" t="s">
         <v>467</v>
       </c>
       <c r="K92" s="4" t="s">
@@ -5733,9 +5774,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:20" ht="199.5" x14ac:dyDescent="0.85">
+    <row r="93" spans="1:16" ht="199.5" x14ac:dyDescent="0.85">
       <c r="A93" s="4">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B93" s="4" t="s">
         <v>102</v>
@@ -5755,10 +5796,10 @@
       <c r="G93" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="I93" s="10" t="s">
+      <c r="I93" s="8" t="s">
         <v>437</v>
       </c>
-      <c r="J93" s="10" t="s">
+      <c r="J93" s="8" t="s">
         <v>467</v>
       </c>
       <c r="K93" s="4" t="s">
@@ -5780,9 +5821,9 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="94" spans="1:20" x14ac:dyDescent="0.85">
+    <row r="94" spans="1:16" x14ac:dyDescent="0.85">
       <c r="A94" s="4">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B94" s="4" t="s">
         <v>102</v>
@@ -5817,13 +5858,10 @@
       <c r="M94" s="4">
         <v>10</v>
       </c>
-      <c r="O94" s="4"/>
-      <c r="P94" s="4"/>
-      <c r="Q94" s="4"/>
-    </row>
-    <row r="95" spans="1:20" x14ac:dyDescent="0.85">
+    </row>
+    <row r="95" spans="1:16" x14ac:dyDescent="0.85">
       <c r="A95" s="4">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B95" s="4" t="s">
         <v>390</v>
@@ -5862,9 +5900,9 @@
         <v>64</v>
       </c>
     </row>
-    <row r="96" spans="1:20" x14ac:dyDescent="0.85">
+    <row r="96" spans="1:16" x14ac:dyDescent="0.85">
       <c r="A96" s="4">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B96" s="4" t="s">
         <v>32</v>
@@ -5897,9 +5935,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="97" spans="1:17" x14ac:dyDescent="0.85">
+    <row r="97" spans="1:15" x14ac:dyDescent="0.85">
       <c r="A97" s="4">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B97" s="4" t="s">
         <v>102</v>
@@ -5937,16 +5975,16 @@
       <c r="M97" s="4">
         <v>20000000000</v>
       </c>
-      <c r="N97" s="8">
+      <c r="N97" s="7">
         <v>1.2566650000000001E-6</v>
       </c>
-      <c r="O97" s="9">
+      <c r="O97" s="7">
         <v>64100000</v>
       </c>
     </row>
-    <row r="98" spans="1:17" x14ac:dyDescent="0.85">
+    <row r="98" spans="1:15" x14ac:dyDescent="0.85">
       <c r="A98" s="4">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B98" s="4" t="s">
         <v>102</v>
@@ -5984,16 +6022,16 @@
       <c r="M98" s="4">
         <v>20000000000</v>
       </c>
-      <c r="N98" s="8">
+      <c r="N98" s="7">
         <v>1.25664E-6</v>
       </c>
-      <c r="O98" s="9">
+      <c r="O98" s="7">
         <v>58000000</v>
       </c>
     </row>
-    <row r="99" spans="1:17" x14ac:dyDescent="0.85">
+    <row r="99" spans="1:15" x14ac:dyDescent="0.85">
       <c r="A99" s="4">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B99" s="4" t="s">
         <v>102</v>
@@ -6031,16 +6069,16 @@
       <c r="M99" s="4">
         <v>20000000000</v>
       </c>
-      <c r="N99" s="8">
+      <c r="N99" s="7">
         <v>6.3E-3</v>
       </c>
-      <c r="O99" s="9">
+      <c r="O99" s="7">
         <v>11200000</v>
       </c>
     </row>
-    <row r="100" spans="1:17" x14ac:dyDescent="0.85">
+    <row r="100" spans="1:15" x14ac:dyDescent="0.85">
       <c r="A100" s="4">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B100" s="4" t="s">
         <v>102</v>
@@ -6078,12 +6116,10 @@
       <c r="O100" s="4">
         <v>0.1</v>
       </c>
-      <c r="P100" s="4"/>
-      <c r="Q100" s="4"/>
-    </row>
-    <row r="101" spans="1:17" x14ac:dyDescent="0.85">
+    </row>
+    <row r="101" spans="1:15" x14ac:dyDescent="0.85">
       <c r="A101" s="4">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B101" s="4" t="s">
         <v>102</v>
@@ -6115,13 +6151,10 @@
       <c r="M101" s="4">
         <v>100</v>
       </c>
-      <c r="O101" s="4"/>
-      <c r="P101" s="4"/>
-      <c r="Q101" s="4"/>
-    </row>
-    <row r="102" spans="1:17" x14ac:dyDescent="0.85">
+    </row>
+    <row r="102" spans="1:15" x14ac:dyDescent="0.85">
       <c r="A102" s="4">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B102" s="4" t="s">
         <v>10</v>
@@ -6154,9 +6187,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="103" spans="1:17" x14ac:dyDescent="0.85">
+    <row r="103" spans="1:15" x14ac:dyDescent="0.85">
       <c r="A103" s="4">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B103" s="4" t="s">
         <v>10</v>
@@ -6192,9 +6225,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="104" spans="1:17" x14ac:dyDescent="0.85">
+    <row r="104" spans="1:15" x14ac:dyDescent="0.85">
       <c r="A104" s="4">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B104" s="4" t="s">
         <v>10</v>
@@ -6230,9 +6263,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="105" spans="1:17" x14ac:dyDescent="0.85">
+    <row r="105" spans="1:15" x14ac:dyDescent="0.85">
       <c r="A105" s="4">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B105" s="4" t="s">
         <v>10</v>
@@ -6265,9 +6298,9 @@
         <v>110</v>
       </c>
     </row>
-    <row r="106" spans="1:17" x14ac:dyDescent="0.85">
+    <row r="106" spans="1:15" x14ac:dyDescent="0.85">
       <c r="A106" s="4">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B106" s="4" t="s">
         <v>10</v>
@@ -6300,9 +6333,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="107" spans="1:17" x14ac:dyDescent="0.85">
+    <row r="107" spans="1:15" x14ac:dyDescent="0.85">
       <c r="A107" s="4">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B107" s="4" t="s">
         <v>10</v>
@@ -6337,13 +6370,10 @@
       <c r="M107" s="4">
         <v>50</v>
       </c>
-      <c r="O107" s="4"/>
-      <c r="P107" s="4"/>
-      <c r="Q107" s="4"/>
-    </row>
-    <row r="108" spans="1:17" x14ac:dyDescent="0.85">
+    </row>
+    <row r="108" spans="1:15" x14ac:dyDescent="0.85">
       <c r="A108" s="4">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B108" s="4" t="s">
         <v>10</v>
@@ -6378,13 +6408,10 @@
       <c r="N108" s="4">
         <v>50</v>
       </c>
-      <c r="O108" s="4"/>
-      <c r="P108" s="4"/>
-      <c r="Q108" s="4"/>
-    </row>
-    <row r="109" spans="1:17" x14ac:dyDescent="0.85">
+    </row>
+    <row r="109" spans="1:15" x14ac:dyDescent="0.85">
       <c r="A109" s="4">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B109" s="4" t="s">
         <v>10</v>
@@ -6417,9 +6444,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="110" spans="1:17" x14ac:dyDescent="0.85">
+    <row r="110" spans="1:15" x14ac:dyDescent="0.85">
       <c r="A110" s="4">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B110" s="4" t="s">
         <v>10</v>
@@ -6455,9 +6482,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="111" spans="1:17" x14ac:dyDescent="0.85">
+    <row r="111" spans="1:15" x14ac:dyDescent="0.85">
       <c r="A111" s="4">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B111" s="4" t="s">
         <v>10</v>
@@ -6493,9 +6520,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="112" spans="1:17" x14ac:dyDescent="0.85">
+    <row r="112" spans="1:15" x14ac:dyDescent="0.85">
       <c r="A112" s="4">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B112" s="4" t="s">
         <v>10</v>
@@ -6531,9 +6558,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="113" spans="1:17" x14ac:dyDescent="0.85">
+    <row r="113" spans="1:14" x14ac:dyDescent="0.85">
       <c r="A113" s="4">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B113" s="4" t="s">
         <v>10</v>
@@ -6569,9 +6596,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="114" spans="1:17" x14ac:dyDescent="0.85">
+    <row r="114" spans="1:14" x14ac:dyDescent="0.85">
       <c r="A114" s="4">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B114" s="4" t="s">
         <v>10</v>
@@ -6610,9 +6637,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="115" spans="1:17" x14ac:dyDescent="0.85">
+    <row r="115" spans="1:14" x14ac:dyDescent="0.85">
       <c r="A115" s="4">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B115" s="4" t="s">
         <v>10</v>
@@ -6648,9 +6675,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="116" spans="1:17" x14ac:dyDescent="0.85">
+    <row r="116" spans="1:14" x14ac:dyDescent="0.85">
       <c r="A116" s="4">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B116" s="4" t="s">
         <v>10</v>
@@ -6686,9 +6713,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="117" spans="1:17" x14ac:dyDescent="0.85">
+    <row r="117" spans="1:14" x14ac:dyDescent="0.85">
       <c r="A117" s="4">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B117" s="4" t="s">
         <v>10</v>
@@ -6727,9 +6754,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="118" spans="1:17" x14ac:dyDescent="0.85">
+    <row r="118" spans="1:14" x14ac:dyDescent="0.85">
       <c r="A118" s="4">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B118" s="4" t="s">
         <v>10</v>
@@ -6765,9 +6792,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="119" spans="1:17" x14ac:dyDescent="0.85">
+    <row r="119" spans="1:14" x14ac:dyDescent="0.85">
       <c r="A119" s="4">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B119" s="4" t="s">
         <v>10</v>
@@ -6803,9 +6830,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="120" spans="1:17" x14ac:dyDescent="0.85">
+    <row r="120" spans="1:14" x14ac:dyDescent="0.85">
       <c r="A120" s="4">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B120" s="4" t="s">
         <v>10</v>
@@ -6841,9 +6868,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="121" spans="1:17" x14ac:dyDescent="0.85">
+    <row r="121" spans="1:14" x14ac:dyDescent="0.85">
       <c r="A121" s="4">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B121" s="4" t="s">
         <v>10</v>
@@ -6885,9 +6912,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="122" spans="1:17" x14ac:dyDescent="0.85">
+    <row r="122" spans="1:14" x14ac:dyDescent="0.85">
       <c r="A122" s="4">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B122" s="4" t="s">
         <v>10</v>
@@ -6920,9 +6947,9 @@
         <v>340</v>
       </c>
     </row>
-    <row r="123" spans="1:17" x14ac:dyDescent="0.85">
+    <row r="123" spans="1:14" x14ac:dyDescent="0.85">
       <c r="A123" s="4">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B123" s="4" t="s">
         <v>10</v>
@@ -6955,9 +6982,9 @@
         <v>340</v>
       </c>
     </row>
-    <row r="124" spans="1:17" x14ac:dyDescent="0.85">
+    <row r="124" spans="1:14" x14ac:dyDescent="0.85">
       <c r="A124" s="4">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B124" s="4" t="s">
         <v>10</v>
@@ -6990,9 +7017,9 @@
         <v>340</v>
       </c>
     </row>
-    <row r="125" spans="1:17" x14ac:dyDescent="0.85">
+    <row r="125" spans="1:14" x14ac:dyDescent="0.85">
       <c r="A125" s="4">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B125" s="4" t="s">
         <v>10</v>
@@ -7030,13 +7057,10 @@
       <c r="N125" s="4">
         <v>50</v>
       </c>
-      <c r="O125" s="4"/>
-      <c r="P125" s="4"/>
-      <c r="Q125" s="4"/>
-    </row>
-    <row r="126" spans="1:17" x14ac:dyDescent="0.85">
+    </row>
+    <row r="126" spans="1:14" x14ac:dyDescent="0.85">
       <c r="A126" s="4">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B126" s="4" t="s">
         <v>10</v>
@@ -7074,13 +7098,10 @@
       <c r="N126" s="4">
         <v>50</v>
       </c>
-      <c r="O126" s="4"/>
-      <c r="P126" s="4"/>
-      <c r="Q126" s="4"/>
-    </row>
-    <row r="127" spans="1:17" x14ac:dyDescent="0.85">
+    </row>
+    <row r="127" spans="1:14" x14ac:dyDescent="0.85">
       <c r="A127" s="4">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B127" s="4" t="s">
         <v>10</v>
@@ -7113,9 +7134,9 @@
         <v>340</v>
       </c>
     </row>
-    <row r="128" spans="1:17" x14ac:dyDescent="0.85">
+    <row r="128" spans="1:14" x14ac:dyDescent="0.85">
       <c r="A128" s="4">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B128" s="4" t="s">
         <v>10</v>
@@ -7150,7 +7171,7 @@
     </row>
     <row r="129" spans="1:18" x14ac:dyDescent="0.85">
       <c r="A129" s="4">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B129" s="4" t="s">
         <v>10</v>
@@ -7185,7 +7206,7 @@
     </row>
     <row r="130" spans="1:18" x14ac:dyDescent="0.85">
       <c r="A130" s="4">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B130" s="4" t="s">
         <v>10</v>
@@ -7223,7 +7244,7 @@
     </row>
     <row r="131" spans="1:18" x14ac:dyDescent="0.85">
       <c r="A131" s="4">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B131" s="4" t="s">
         <v>10</v>
@@ -7261,7 +7282,7 @@
     </row>
     <row r="132" spans="1:18" x14ac:dyDescent="0.85">
       <c r="A132" s="4">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B132" s="4" t="s">
         <v>10</v>
@@ -7299,7 +7320,7 @@
     </row>
     <row r="133" spans="1:18" x14ac:dyDescent="0.85">
       <c r="A133" s="4">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B133" s="4" t="s">
         <v>10</v>
@@ -7334,13 +7355,10 @@
       <c r="N133" s="4">
         <v>50</v>
       </c>
-      <c r="O133" s="4"/>
-      <c r="P133" s="4"/>
-      <c r="Q133" s="4"/>
     </row>
     <row r="134" spans="1:18" x14ac:dyDescent="0.85">
       <c r="A134" s="4">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B134" s="4" t="s">
         <v>10</v>
@@ -7375,7 +7393,7 @@
     </row>
     <row r="135" spans="1:18" x14ac:dyDescent="0.85">
       <c r="A135" s="4">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B135" s="4" t="s">
         <v>10</v>
@@ -7407,13 +7425,10 @@
       <c r="M135" s="4">
         <v>100</v>
       </c>
-      <c r="O135" s="4"/>
-      <c r="P135" s="4"/>
-      <c r="Q135" s="4"/>
     </row>
     <row r="136" spans="1:18" x14ac:dyDescent="0.85">
       <c r="A136" s="4">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B136" s="4" t="s">
         <v>10</v>
@@ -7451,7 +7466,7 @@
     </row>
     <row r="137" spans="1:18" x14ac:dyDescent="0.85">
       <c r="A137" s="4">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B137" s="4" t="s">
         <v>10</v>
@@ -7489,7 +7504,7 @@
     </row>
     <row r="138" spans="1:18" x14ac:dyDescent="0.85">
       <c r="A138" s="4">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B138" s="4" t="s">
         <v>10</v>
@@ -7524,7 +7539,7 @@
     </row>
     <row r="139" spans="1:18" x14ac:dyDescent="0.85">
       <c r="A139" s="4">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="B139" s="4" t="s">
         <v>10</v>
@@ -7562,7 +7577,7 @@
     </row>
     <row r="140" spans="1:18" x14ac:dyDescent="0.85">
       <c r="A140" s="4">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="B140" s="4" t="s">
         <v>10</v>
@@ -7600,7 +7615,7 @@
     </row>
     <row r="141" spans="1:18" x14ac:dyDescent="0.85">
       <c r="A141" s="4">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B141" s="4" t="s">
         <v>10</v>
@@ -7635,7 +7650,7 @@
     </row>
     <row r="142" spans="1:18" x14ac:dyDescent="0.85">
       <c r="A142" s="4">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B142" s="4" t="s">
         <v>10</v>
@@ -7673,7 +7688,7 @@
     </row>
     <row r="143" spans="1:18" x14ac:dyDescent="0.85">
       <c r="A143" s="4">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="B143" s="4" t="s">
         <v>10</v>
@@ -7714,7 +7729,7 @@
     </row>
     <row r="144" spans="1:18" x14ac:dyDescent="0.85">
       <c r="A144" s="4">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B144" s="4" t="s">
         <v>10</v>
@@ -7752,13 +7767,13 @@
       <c r="N144" s="4">
         <v>50</v>
       </c>
-      <c r="R144" s="8">
+      <c r="R144" s="7">
         <v>11200000</v>
       </c>
     </row>
     <row r="145" spans="1:18" x14ac:dyDescent="0.85">
       <c r="A145" s="4">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B145" s="4" t="s">
         <v>10</v>
@@ -7796,13 +7811,13 @@
       <c r="N145" s="4">
         <v>50</v>
       </c>
-      <c r="R145" s="8">
+      <c r="R145" s="7">
         <v>11200000</v>
       </c>
     </row>
     <row r="146" spans="1:18" x14ac:dyDescent="0.85">
       <c r="A146" s="4">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="B146" s="4" t="s">
         <v>10</v>
@@ -7843,7 +7858,7 @@
     </row>
     <row r="147" spans="1:18" x14ac:dyDescent="0.85">
       <c r="A147" s="4">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B147" s="4" t="s">
         <v>10</v>
@@ -7881,7 +7896,7 @@
     </row>
     <row r="148" spans="1:18" x14ac:dyDescent="0.85">
       <c r="A148" s="4">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="B148" s="4" t="s">
         <v>10</v>
@@ -7922,7 +7937,7 @@
     </row>
     <row r="149" spans="1:18" x14ac:dyDescent="0.85">
       <c r="A149" s="4">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B149" s="4" t="s">
         <v>10</v>
@@ -7963,7 +7978,7 @@
     </row>
     <row r="150" spans="1:18" x14ac:dyDescent="0.85">
       <c r="A150" s="4">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B150" s="4" t="s">
         <v>10</v>
@@ -8001,13 +8016,10 @@
       <c r="N150" s="4">
         <v>50</v>
       </c>
-      <c r="O150" s="4"/>
-      <c r="P150" s="4"/>
-      <c r="Q150" s="4"/>
     </row>
     <row r="151" spans="1:18" x14ac:dyDescent="0.85">
       <c r="A151" s="4">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B151" s="4" t="s">
         <v>10</v>
@@ -8045,7 +8057,7 @@
     </row>
     <row r="152" spans="1:18" x14ac:dyDescent="0.85">
       <c r="A152" s="4">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B152" s="4" t="s">
         <v>10</v>
@@ -8083,7 +8095,7 @@
     </row>
     <row r="153" spans="1:18" x14ac:dyDescent="0.85">
       <c r="A153" s="4">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="B153" s="4" t="s">
         <v>32</v>
@@ -8121,7 +8133,7 @@
     </row>
     <row r="154" spans="1:18" x14ac:dyDescent="0.85">
       <c r="A154" s="4">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B154" s="4" t="s">
         <v>32</v>
@@ -8158,6 +8170,9 @@
       </c>
     </row>
     <row r="155" spans="1:18" ht="199.5" x14ac:dyDescent="0.85">
+      <c r="A155" s="4">
+        <v>154</v>
+      </c>
       <c r="B155" s="4" t="s">
         <v>126</v>
       </c>
@@ -8176,23 +8191,26 @@
       <c r="G155" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="I155" s="10" t="s">
+      <c r="I155" s="8" t="s">
         <v>492</v>
       </c>
-      <c r="J155" s="10" t="s">
+      <c r="J155" s="8" t="s">
         <v>493</v>
       </c>
       <c r="K155" s="4" t="s">
         <v>465</v>
       </c>
-      <c r="L155" s="8">
+      <c r="L155" s="7">
         <v>30000000</v>
       </c>
-      <c r="M155" s="8">
+      <c r="M155" s="7">
         <v>10000000000</v>
       </c>
     </row>
     <row r="156" spans="1:18" ht="199.5" x14ac:dyDescent="0.85">
+      <c r="A156" s="4">
+        <v>155</v>
+      </c>
       <c r="B156" s="4" t="s">
         <v>126</v>
       </c>
@@ -8211,24 +8229,479 @@
       <c r="G156" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="I156" s="10" t="s">
+      <c r="I156" s="8" t="s">
         <v>495</v>
       </c>
-      <c r="J156" s="10" t="s">
+      <c r="J156" s="8" t="s">
         <v>496</v>
       </c>
       <c r="K156" s="4" t="s">
         <v>465</v>
       </c>
-      <c r="L156" s="8">
+      <c r="L156" s="7">
         <v>30000000</v>
       </c>
-      <c r="M156" s="8">
+      <c r="M156" s="7">
         <v>10000000000</v>
       </c>
     </row>
+    <row r="157" spans="1:18" x14ac:dyDescent="0.85">
+      <c r="A157" s="4">
+        <v>156</v>
+      </c>
+      <c r="B157" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C157" s="4" t="s">
+        <v>398</v>
+      </c>
+      <c r="D157" s="4" t="s">
+        <v>399</v>
+      </c>
+      <c r="E157" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F157" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I157" s="4" t="s">
+        <v>499</v>
+      </c>
+      <c r="J157" s="4" t="s">
+        <v>497</v>
+      </c>
+      <c r="K157" s="4" t="s">
+        <v>498</v>
+      </c>
+      <c r="L157" s="4">
+        <v>0</v>
+      </c>
+      <c r="M157" s="4">
+        <v>100</v>
+      </c>
+      <c r="N157" s="4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="158" spans="1:18" x14ac:dyDescent="0.85">
+      <c r="A158" s="4">
+        <v>157</v>
+      </c>
+      <c r="B158" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C158" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D158" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E158" s="4" t="s">
+        <v>398</v>
+      </c>
+      <c r="F158" s="4" t="s">
+        <v>399</v>
+      </c>
+      <c r="H158" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="I158" s="4" t="s">
+        <v>500</v>
+      </c>
+      <c r="J158" s="5" t="s">
+        <v>501</v>
+      </c>
+      <c r="K158" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="L158" s="4">
+        <v>-120</v>
+      </c>
+      <c r="M158" s="4">
+        <v>50</v>
+      </c>
+      <c r="N158" s="4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="159" spans="1:18" ht="199.5" x14ac:dyDescent="0.85">
+      <c r="A159" s="4">
+        <v>158</v>
+      </c>
+      <c r="B159" s="4" t="s">
+        <v>460</v>
+      </c>
+      <c r="C159" s="4" t="s">
+        <v>514</v>
+      </c>
+      <c r="D159" s="4" t="s">
+        <v>502</v>
+      </c>
+      <c r="E159" s="4" t="s">
+        <v>503</v>
+      </c>
+      <c r="F159" s="4" t="s">
+        <v>502</v>
+      </c>
+      <c r="I159" s="8" t="s">
+        <v>505</v>
+      </c>
+      <c r="J159" s="8" t="s">
+        <v>506</v>
+      </c>
+      <c r="K159" s="4" t="s">
+        <v>504</v>
+      </c>
+      <c r="L159" s="4">
+        <v>1</v>
+      </c>
+      <c r="M159" s="4">
+        <v>5</v>
+      </c>
+      <c r="N159" s="7">
+        <v>0.6</v>
+      </c>
+      <c r="O159" s="7">
+        <v>0.63500000000000001</v>
+      </c>
+    </row>
+    <row r="160" spans="1:18" ht="199.5" x14ac:dyDescent="0.85">
+      <c r="A160" s="4">
+        <v>159</v>
+      </c>
+      <c r="B160" s="4" t="s">
+        <v>460</v>
+      </c>
+      <c r="C160" s="4" t="s">
+        <v>507</v>
+      </c>
+      <c r="D160" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E160" s="4" t="s">
+        <v>503</v>
+      </c>
+      <c r="F160" s="4" t="s">
+        <v>502</v>
+      </c>
+      <c r="I160" s="8" t="s">
+        <v>512</v>
+      </c>
+      <c r="J160" s="8" t="s">
+        <v>506</v>
+      </c>
+      <c r="K160" s="4" t="s">
+        <v>508</v>
+      </c>
+      <c r="L160" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="M160" s="4">
+        <v>10</v>
+      </c>
+      <c r="N160" s="7">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="O160" s="7">
+        <v>0.63500000000000001</v>
+      </c>
+    </row>
+    <row r="161" spans="1:15" ht="199.5" x14ac:dyDescent="0.85">
+      <c r="A161" s="4">
+        <v>160</v>
+      </c>
+      <c r="B161" s="4" t="s">
+        <v>460</v>
+      </c>
+      <c r="C161" s="4" t="s">
+        <v>509</v>
+      </c>
+      <c r="D161" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E161" s="4" t="s">
+        <v>503</v>
+      </c>
+      <c r="F161" s="4" t="s">
+        <v>502</v>
+      </c>
+      <c r="I161" s="8" t="s">
+        <v>511</v>
+      </c>
+      <c r="J161" s="8" t="s">
+        <v>506</v>
+      </c>
+      <c r="K161" s="4" t="s">
+        <v>510</v>
+      </c>
+      <c r="L161" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="M161" s="4">
+        <v>1</v>
+      </c>
+      <c r="N161" s="7">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="O161" s="7">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="162" spans="1:15" ht="114" x14ac:dyDescent="0.85">
+      <c r="A162" s="4">
+        <v>161</v>
+      </c>
+      <c r="B162" s="4" t="s">
+        <v>460</v>
+      </c>
+      <c r="C162" s="4" t="s">
+        <v>507</v>
+      </c>
+      <c r="D162" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E162" s="4" t="s">
+        <v>513</v>
+      </c>
+      <c r="F162" s="4" t="s">
+        <v>515</v>
+      </c>
+      <c r="G162" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="I162" s="9" t="s">
+        <v>517</v>
+      </c>
+      <c r="J162" s="9" t="s">
+        <v>518</v>
+      </c>
+      <c r="K162" s="4" t="s">
+        <v>516</v>
+      </c>
+      <c r="L162" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="M162" s="4">
+        <v>1</v>
+      </c>
+      <c r="N162" s="7">
+        <v>0.63500000000000001</v>
+      </c>
+      <c r="O162" s="7"/>
+    </row>
+    <row r="163" spans="1:15" x14ac:dyDescent="0.85">
+      <c r="A163" s="4">
+        <v>162</v>
+      </c>
+      <c r="B163" s="4" t="s">
+        <v>519</v>
+      </c>
+      <c r="C163" s="4" t="s">
+        <v>522</v>
+      </c>
+      <c r="D163" s="4" t="s">
+        <v>520</v>
+      </c>
+      <c r="E163" s="4" t="s">
+        <v>521</v>
+      </c>
+      <c r="F163" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="I163" s="9" t="s">
+        <v>523</v>
+      </c>
+      <c r="J163" s="5" t="s">
+        <v>525</v>
+      </c>
+      <c r="K163" s="4" t="s">
+        <v>524</v>
+      </c>
+      <c r="L163" s="4">
+        <v>1E-3</v>
+      </c>
+      <c r="M163" s="4">
+        <v>1000</v>
+      </c>
+      <c r="N163" s="7"/>
+    </row>
+    <row r="164" spans="1:15" x14ac:dyDescent="0.85">
+      <c r="A164" s="4">
+        <v>163</v>
+      </c>
+      <c r="B164" s="4" t="s">
+        <v>519</v>
+      </c>
+      <c r="C164" s="4" t="s">
+        <v>521</v>
+      </c>
+      <c r="D164" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="E164" s="4" t="s">
+        <v>522</v>
+      </c>
+      <c r="F164" s="4" t="s">
+        <v>520</v>
+      </c>
+      <c r="I164" s="9" t="s">
+        <v>526</v>
+      </c>
+      <c r="J164" s="5" t="s">
+        <v>527</v>
+      </c>
+      <c r="K164" s="4" t="s">
+        <v>528</v>
+      </c>
+      <c r="L164" s="4">
+        <v>1E-3</v>
+      </c>
+      <c r="M164" s="4">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="165" spans="1:15" x14ac:dyDescent="0.85">
+      <c r="A165" s="4">
+        <v>164</v>
+      </c>
+      <c r="B165" s="4" t="s">
+        <v>460</v>
+      </c>
+      <c r="C165" s="4" t="s">
+        <v>529</v>
+      </c>
+      <c r="D165" s="4" t="s">
+        <v>530</v>
+      </c>
+      <c r="E165" s="4" t="s">
+        <v>531</v>
+      </c>
+      <c r="F165" s="4" t="s">
+        <v>532</v>
+      </c>
+      <c r="I165" s="9" t="s">
+        <v>533</v>
+      </c>
+      <c r="J165" s="5" t="s">
+        <v>534</v>
+      </c>
+      <c r="K165" s="4" t="s">
+        <v>535</v>
+      </c>
+      <c r="L165" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="M165" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="166" spans="1:15" x14ac:dyDescent="0.85">
+      <c r="A166" s="4">
+        <v>165</v>
+      </c>
+      <c r="B166" s="4" t="s">
+        <v>460</v>
+      </c>
+      <c r="C166" s="4" t="s">
+        <v>531</v>
+      </c>
+      <c r="D166" s="4" t="s">
+        <v>532</v>
+      </c>
+      <c r="E166" s="4" t="s">
+        <v>529</v>
+      </c>
+      <c r="F166" s="4" t="s">
+        <v>530</v>
+      </c>
+      <c r="I166" s="9" t="s">
+        <v>536</v>
+      </c>
+      <c r="J166" s="5" t="s">
+        <v>537</v>
+      </c>
+      <c r="K166" s="4" t="s">
+        <v>538</v>
+      </c>
+      <c r="L166" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="M166" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="167" spans="1:15" x14ac:dyDescent="0.85">
+      <c r="A167" s="4">
+        <v>166</v>
+      </c>
+      <c r="B167" s="4" t="s">
+        <v>519</v>
+      </c>
+      <c r="C167" s="4" t="s">
+        <v>522</v>
+      </c>
+      <c r="D167" s="4" t="s">
+        <v>520</v>
+      </c>
+      <c r="E167" s="4" t="s">
+        <v>539</v>
+      </c>
+      <c r="F167" s="4" t="s">
+        <v>540</v>
+      </c>
+      <c r="I167" s="4" t="s">
+        <v>541</v>
+      </c>
+      <c r="J167" s="5" t="s">
+        <v>542</v>
+      </c>
+      <c r="K167" s="4" t="s">
+        <v>524</v>
+      </c>
+      <c r="L167" s="4">
+        <v>1E-3</v>
+      </c>
+      <c r="M167" s="4">
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="168" spans="1:15" x14ac:dyDescent="0.85">
+      <c r="A168" s="4">
+        <v>167</v>
+      </c>
+      <c r="B168" s="4" t="s">
+        <v>519</v>
+      </c>
+      <c r="C168" s="4" t="s">
+        <v>539</v>
+      </c>
+      <c r="D168" s="4" t="s">
+        <v>540</v>
+      </c>
+      <c r="E168" s="4" t="s">
+        <v>522</v>
+      </c>
+      <c r="F168" s="4" t="s">
+        <v>520</v>
+      </c>
+      <c r="I168" s="4" t="s">
+        <v>543</v>
+      </c>
+      <c r="J168" s="5" t="s">
+        <v>544</v>
+      </c>
+      <c r="K168" s="4" t="s">
+        <v>545</v>
+      </c>
+      <c r="L168" s="4">
+        <v>1E-3</v>
+      </c>
+      <c r="M168" s="4">
+        <v>100</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:Q156" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <autoFilter ref="A1:Q157" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q154">
       <sortCondition ref="E1:E154"/>
     </sortState>

--- a/Converter/assets/UnitConversion.xlsx
+++ b/Converter/assets/UnitConversion.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1d78e2062db64e14/Project/Python/AnalysisTool/Converter/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="106" documentId="13_ncr:1_{4B2675F5-5A15-4F18-A563-C3F38DCA542D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7AAEDA61-E197-474E-ADE2-0607CD0AE363}"/>
+  <xr:revisionPtr revIDLastSave="26" documentId="13_ncr:1_{606D2DF5-1160-4D1F-90E0-21C07DA916F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F746C79A-68F3-4E93-9473-2057F3F38DD8}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Elec" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Elec!$A$1:$Q$157</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Elec!$A$1:$Q$178</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1427" uniqueCount="546">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1628" uniqueCount="649">
   <si>
     <t>No</t>
   </si>
@@ -1173,9 +1173,6 @@
   </si>
   <si>
     <t>"r'$Wire Diameter [mm] = 8.2527 \times e^{-0.116 \times WireGage[number]}$'"</t>
-  </si>
-  <si>
-    <t>Heat</t>
   </si>
   <si>
     <t>Fahrenheit [°F]</t>
@@ -1809,11 +1806,333 @@
   <si>
     <t>Pound[lb]</t>
   </si>
+  <si>
+    <t>[s/s]</t>
+  </si>
+  <si>
+    <t>1 / sympy.Pow((1-P[0]*P[0]/(P[1]*P[1])),0.5)</t>
+  </si>
+  <si>
+    <t>[m/s]</t>
+  </si>
+  <si>
+    <t>Speed[m/s] Speed-of-Light[m/s]</t>
+  </si>
+  <si>
+    <t>"r'$Time per Earth Time[s/s] = \frac {1}{\sqrt{1-\frac{{v[m/s]}^2}{{c[m/s]}^2}}}$'"</t>
+  </si>
+  <si>
+    <t>Speed [m/s]</t>
+  </si>
+  <si>
+    <t>Percent of Light Speed [%]</t>
+  </si>
+  <si>
+    <t>[%]</t>
+  </si>
+  <si>
+    <t>Percent-of-Speed-of-Light[%]</t>
+  </si>
+  <si>
+    <t>1 / sympy.Pow((1-P[0]*P[0]/10000),0.5)</t>
+  </si>
+  <si>
+    <t>"r'$Time per Earth Time[s/s] = \frac {1}{\sqrt{1-{ratio}^2}}$'"</t>
+  </si>
+  <si>
+    <t>Speed of Sound [m/s]</t>
+  </si>
+  <si>
+    <t>Time per Earth Time [s]</t>
+  </si>
+  <si>
+    <t>331.5 + 0.6*P[0]</t>
+  </si>
+  <si>
+    <t>"r'$Speed of Sound[m/s] = 331.5 + 0.6 \times Celsius [°C]$'"</t>
+  </si>
+  <si>
+    <t>Celsius[°C]</t>
+  </si>
+  <si>
+    <t>Volume</t>
+  </si>
+  <si>
+    <t>Liter [L]</t>
+  </si>
+  <si>
+    <t>[L]</t>
+  </si>
+  <si>
+    <t>Gallon [gal]</t>
+  </si>
+  <si>
+    <t>[gal]</t>
+  </si>
+  <si>
+    <t>3.785411784 * P[0]</t>
+  </si>
+  <si>
+    <t>"r'$Gallon[gal,US] = 3.785411784 * Liter[L]$'"</t>
+  </si>
+  <si>
+    <t>Liter[L]</t>
+  </si>
+  <si>
+    <t>P[0] / 3.785411784</t>
+  </si>
+  <si>
+    <t>"r'$Liter[L] = \frac{Gallon[gal,US]}{3.785411784}$'"</t>
+  </si>
+  <si>
+    <t>Gallon[gal]</t>
+  </si>
+  <si>
+    <t>Acounstics</t>
+  </si>
+  <si>
+    <t>Relativity Theory</t>
+  </si>
+  <si>
+    <t>Thermal Dinamics</t>
+  </si>
+  <si>
+    <t>[U]</t>
+  </si>
+  <si>
+    <t>4.445 * P[0]</t>
+  </si>
+  <si>
+    <t>"r'$Length[cm] = 4.445 \times Rack Unit[U] $'"</t>
+  </si>
+  <si>
+    <t>Rack-Unit[U]</t>
+  </si>
+  <si>
+    <t>Length - Rack Unit [U]</t>
+  </si>
+  <si>
+    <t>1.75 * P[0]</t>
+  </si>
+  <si>
+    <t>"r'$Length[inch] = 1.75 \times Rack Unit[U] $'"</t>
+  </si>
+  <si>
+    <t>P[0] / 4.445</t>
+  </si>
+  <si>
+    <t>"r'$Length[cm] = \frac{Rack Unit[U]}{4.445}$'"</t>
+  </si>
+  <si>
+    <t>Length[cm]</t>
+  </si>
+  <si>
+    <t>Rankine [°R]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [°R]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P[0] *9/5 + 491.67 </t>
+  </si>
+  <si>
+    <t>"r'$Rankine [°R] = Celcius[°C] \times \frac{9}{5} + 491.67$'"</t>
+  </si>
+  <si>
+    <t>Kelvin [K]</t>
+  </si>
+  <si>
+    <t>[K]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P[0] + 273.15 </t>
+  </si>
+  <si>
+    <t>"r'$Kelvin [K] = Celcius[°C] + 273.15$'"</t>
+  </si>
+  <si>
+    <t>(P[0] + 459.67) *5/9</t>
+  </si>
+  <si>
+    <t>Fahrenheit[°F]</t>
+  </si>
+  <si>
+    <t>P[0] + 459.67</t>
+  </si>
+  <si>
+    <t>"r'$Rankine [°R] = Fahrenheit[°F] + 459.67$'"</t>
+  </si>
+  <si>
+    <t>"r'$Kelvin [K] = (Fahrenheit[°F] + 459.67) \times \frac{5}{9}$'"</t>
+  </si>
+  <si>
+    <t>Energy</t>
+  </si>
+  <si>
+    <t>BTU [IT]</t>
+  </si>
+  <si>
+    <t>[IT]</t>
+  </si>
+  <si>
+    <t>Joules[J]</t>
+  </si>
+  <si>
+    <t>Joule [J]</t>
+  </si>
+  <si>
+    <t>[J]</t>
+  </si>
+  <si>
+    <t>P[0] * 1055.05585262</t>
+  </si>
+  <si>
+    <t>"r'$Joules [J] = 1055.05585262 \times BTU[IT]$'"</t>
+  </si>
+  <si>
+    <t>BTU[IT]</t>
+  </si>
+  <si>
+    <t>P[0] / 1055.05585263</t>
+  </si>
+  <si>
+    <t>"r'$BTU[IT] = \frac{BTU[IT]}{1055.05585262}$'"</t>
+  </si>
+  <si>
+    <t>[kWh]</t>
+  </si>
+  <si>
+    <t>P[0] * 0.00029307107017</t>
+  </si>
+  <si>
+    <t>P[0] / 0.00029307107017</t>
+  </si>
+  <si>
+    <t>"r'$BTU [IT] = 0.00029307107017 \times kWh[kWh]$'"</t>
+  </si>
+  <si>
+    <t>kWh[kWh]</t>
+  </si>
+  <si>
+    <t>"r'$kWh [kWh] = \frac{BTU[IT]}{0.00029307107017}$'"</t>
+  </si>
+  <si>
+    <t>Teaspoon [tsp]</t>
+  </si>
+  <si>
+    <t>Killowatt-hour [kWh]</t>
+  </si>
+  <si>
+    <t>[tsp]</t>
+  </si>
+  <si>
+    <t>Milli-Litter [ml]</t>
+  </si>
+  <si>
+    <t>[ml]</t>
+  </si>
+  <si>
+    <t>P[0] *5</t>
+  </si>
+  <si>
+    <t>"r'$Milli-Litter [ml] = 5 \times Teaspoon [tsp]$'"</t>
+  </si>
+  <si>
+    <t>Teaspoon[tsp]</t>
+  </si>
+  <si>
+    <t>P[0] /5</t>
+  </si>
+  <si>
+    <t>"r'$Teaspoon [tsp] = \frac{Milli-Litter [ml]}{5}$'"</t>
+  </si>
+  <si>
+    <t>Milli-Litter[ml]</t>
+  </si>
+  <si>
+    <t>P[0] /160</t>
+  </si>
+  <si>
+    <t>"r'$Once [oz] = \frac{Gallon [gal]}{160}$'"</t>
+  </si>
+  <si>
+    <t>Gallon-US [gal]</t>
+  </si>
+  <si>
+    <t>P[0] /128</t>
+  </si>
+  <si>
+    <t>"r'$Once [oz] = \frac{Gallon-US [gal]}{128}$'"</t>
+  </si>
+  <si>
+    <t>Gallon-US[gal]</t>
+  </si>
+  <si>
+    <t>P[0] *160</t>
+  </si>
+  <si>
+    <t>"r'$Gallon [gal] = 160 \times Once [oz]$'"</t>
+  </si>
+  <si>
+    <t>P[0] *128</t>
+  </si>
+  <si>
+    <t>"r'$Gallon-US [gal] = 128 \times Once [oz]$'"</t>
+  </si>
+  <si>
+    <t>Cups [cups]</t>
+  </si>
+  <si>
+    <t>[cups]</t>
+  </si>
+  <si>
+    <t>P[0] /8</t>
+  </si>
+  <si>
+    <t>P[0] *8</t>
+  </si>
+  <si>
+    <t>Cup[cup]</t>
+  </si>
+  <si>
+    <t>"r'$Once [oz] = 8 \times Cups [cup]$'"</t>
+  </si>
+  <si>
+    <t>"r'$Cups [cup]= \frac{Once [oz]}{8}$'"</t>
+  </si>
+  <si>
+    <t>Width[cm] Length[cm] Thickness[oz]</t>
+  </si>
+  <si>
+    <t>Inductance [H]</t>
+  </si>
+  <si>
+    <t>[H]</t>
+  </si>
+  <si>
+    <t>Copper Width [mm]</t>
+  </si>
+  <si>
+    <t>1.0e-6 * 2.0e-3 * P[2] * (sympy.log((2.0 * P[2]) / (P[0]/10 + 0.0035 * P[1])) + 0.5 + 0.2235 * (P[0]/10 + 0.0035 * P[1]) / P[2])</t>
+  </si>
+  <si>
+    <t>"r'$
+\begin{array}{l}
+\text{Inductance [H]} = \dfrac{2 \times \text{Copper [oz/ft}^2]}{10^3}  \times \left[
+\ln\left( \dfrac{2.0 \times \text{Length [cm]}}{\frac{Width [mm]}{10} + \text{Copper [oz/ft}^2]} \right) \\
+ +\ 0.5 +\ 0.223 \left( \dfrac{\frac{Width [mm]}{10} + \text{Copper [oz/ft}^2]}{\text{Length [cm]}} \right)
+\right]
+\end{array}
+$'"</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000000000"/>
+  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1885,7 +2204,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1913,6 +2232,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2232,17 +2554,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T168"/>
+  <dimension ref="A1:T193"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="51" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A161" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M169" sqref="M169"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="51" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A177" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J192" sqref="J192"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06640625" defaultRowHeight="28.5" x14ac:dyDescent="0.85"/>
   <cols>
     <col min="1" max="1" width="13.796875" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.796875" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.9296875" style="4" customWidth="1"/>
     <col min="3" max="3" width="44.06640625" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.59765625" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="74.59765625" style="4" bestFit="1" customWidth="1"/>
@@ -2313,13 +2635,13 @@
         <v>25</v>
       </c>
       <c r="R1" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>457</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>458</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>459</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.85">
@@ -2330,13 +2652,13 @@
         <v>102</v>
       </c>
       <c r="C2" s="4" t="s">
+        <v>418</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>419</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>420</v>
-      </c>
       <c r="E2" s="4" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>88</v>
@@ -2345,13 +2667,13 @@
         <v>192</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="L2" s="4">
         <v>1</v>
@@ -2377,13 +2699,13 @@
         <v>102</v>
       </c>
       <c r="C3" s="4" t="s">
+        <v>418</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>419</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>420</v>
-      </c>
       <c r="E3" s="4" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>88</v>
@@ -2392,13 +2714,13 @@
         <v>192</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="L3" s="4">
         <v>1</v>
@@ -2424,13 +2746,13 @@
         <v>102</v>
       </c>
       <c r="C4" s="4" t="s">
+        <v>418</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>419</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>420</v>
-      </c>
       <c r="E4" s="4" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>88</v>
@@ -2439,13 +2761,13 @@
         <v>192</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="L4" s="4">
         <v>1</v>
@@ -2506,28 +2828,28 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>574</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>379</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="D6" s="4" t="s">
         <v>380</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="E6" s="4" t="s">
         <v>381</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="F6" s="4" t="s">
         <v>382</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="I6" s="4" t="s">
         <v>383</v>
       </c>
-      <c r="I6" s="4" t="s">
-        <v>384</v>
-      </c>
       <c r="J6" s="5" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="L6" s="4">
         <v>-459.4</v>
@@ -2544,28 +2866,28 @@
         <v>126</v>
       </c>
       <c r="C7" s="4" t="s">
+        <v>418</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>419</v>
       </c>
-      <c r="D7" s="4" t="s">
-        <v>420</v>
-      </c>
       <c r="E7" s="4" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>192</v>
       </c>
       <c r="I7" s="8" t="s">
+        <v>485</v>
+      </c>
+      <c r="J7" s="8" t="s">
         <v>486</v>
       </c>
-      <c r="J7" s="8" t="s">
-        <v>487</v>
-      </c>
       <c r="K7" s="4" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="L7" s="7">
         <v>30000000</v>
@@ -2582,28 +2904,28 @@
         <v>126</v>
       </c>
       <c r="C8" s="4" t="s">
+        <v>418</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>419</v>
       </c>
-      <c r="D8" s="4" t="s">
-        <v>420</v>
-      </c>
       <c r="E8" s="4" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="G8" s="4" t="s">
         <v>192</v>
       </c>
       <c r="I8" s="8" t="s">
+        <v>488</v>
+      </c>
+      <c r="J8" s="8" t="s">
         <v>489</v>
       </c>
-      <c r="J8" s="8" t="s">
-        <v>490</v>
-      </c>
       <c r="K8" s="4" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="L8" s="7">
         <v>30000000</v>
@@ -3667,28 +3989,28 @@
         <v>35</v>
       </c>
       <c r="B36" s="4" t="s">
+        <v>574</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="E36" s="4" t="s">
         <v>379</v>
       </c>
-      <c r="C36" s="4" t="s">
-        <v>382</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>383</v>
-      </c>
-      <c r="E36" s="4" t="s">
+      <c r="F36" s="4" t="s">
         <v>380</v>
       </c>
-      <c r="F36" s="4" t="s">
-        <v>381</v>
-      </c>
       <c r="I36" s="4" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="J36" s="5" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="K36" s="4" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="L36" s="4">
         <v>-273</v>
@@ -3705,28 +4027,28 @@
         <v>126</v>
       </c>
       <c r="C37" s="4" t="s">
+        <v>418</v>
+      </c>
+      <c r="D37" s="4" t="s">
         <v>419</v>
       </c>
-      <c r="D37" s="4" t="s">
-        <v>420</v>
-      </c>
       <c r="E37" s="4" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="G37" s="4" t="s">
         <v>192</v>
       </c>
       <c r="I37" s="8" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="J37" s="8" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="K37" s="4" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="L37" s="7">
         <v>1000000</v>
@@ -3743,28 +4065,28 @@
         <v>126</v>
       </c>
       <c r="C38" s="4" t="s">
+        <v>418</v>
+      </c>
+      <c r="D38" s="4" t="s">
         <v>419</v>
       </c>
-      <c r="D38" s="4" t="s">
-        <v>420</v>
-      </c>
       <c r="E38" s="4" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="G38" s="4" t="s">
         <v>192</v>
       </c>
       <c r="I38" s="8" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="J38" s="8" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="K38" s="4" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="L38" s="7">
         <v>1000000</v>
@@ -3781,13 +4103,13 @@
         <v>126</v>
       </c>
       <c r="C39" s="4" t="s">
+        <v>418</v>
+      </c>
+      <c r="D39" s="4" t="s">
         <v>419</v>
       </c>
-      <c r="D39" s="4" t="s">
-        <v>420</v>
-      </c>
       <c r="E39" s="4" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="F39" s="4" t="s">
         <v>50</v>
@@ -3796,13 +4118,13 @@
         <v>192</v>
       </c>
       <c r="I39" s="8" t="s">
+        <v>476</v>
+      </c>
+      <c r="J39" s="8" t="s">
         <v>477</v>
       </c>
-      <c r="J39" s="8" t="s">
-        <v>478</v>
-      </c>
       <c r="K39" s="4" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="L39" s="7">
         <v>100000</v>
@@ -3819,13 +4141,13 @@
         <v>126</v>
       </c>
       <c r="C40" s="4" t="s">
+        <v>418</v>
+      </c>
+      <c r="D40" s="4" t="s">
         <v>419</v>
       </c>
-      <c r="D40" s="4" t="s">
-        <v>420</v>
-      </c>
       <c r="E40" s="4" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="F40" s="4" t="s">
         <v>50</v>
@@ -3834,13 +4156,13 @@
         <v>192</v>
       </c>
       <c r="I40" s="8" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="J40" s="8" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="K40" s="4" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="L40" s="7">
         <v>100000</v>
@@ -3857,13 +4179,13 @@
         <v>126</v>
       </c>
       <c r="C41" s="4" t="s">
+        <v>418</v>
+      </c>
+      <c r="D41" s="4" t="s">
         <v>419</v>
       </c>
-      <c r="D41" s="4" t="s">
-        <v>420</v>
-      </c>
       <c r="E41" s="4" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="F41" s="4" t="s">
         <v>50</v>
@@ -3872,13 +4194,13 @@
         <v>192</v>
       </c>
       <c r="I41" s="8" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="J41" s="8" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="K41" s="4" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="L41" s="7">
         <v>150000</v>
@@ -3895,13 +4217,13 @@
         <v>126</v>
       </c>
       <c r="C42" s="4" t="s">
+        <v>418</v>
+      </c>
+      <c r="D42" s="4" t="s">
         <v>419</v>
       </c>
-      <c r="D42" s="4" t="s">
-        <v>420</v>
-      </c>
       <c r="E42" s="4" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="F42" s="4" t="s">
         <v>50</v>
@@ -3910,13 +4232,13 @@
         <v>192</v>
       </c>
       <c r="I42" s="8" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="J42" s="8" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="K42" s="4" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="L42" s="7">
         <v>150000</v>
@@ -5371,13 +5693,13 @@
         <v>102</v>
       </c>
       <c r="C84" s="4" t="s">
+        <v>418</v>
+      </c>
+      <c r="D84" s="4" t="s">
         <v>419</v>
       </c>
-      <c r="D84" s="4" t="s">
-        <v>420</v>
-      </c>
       <c r="E84" s="4" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="F84" s="4" t="s">
         <v>88</v>
@@ -5386,13 +5708,13 @@
         <v>192</v>
       </c>
       <c r="I84" s="4" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="J84" s="5" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="K84" s="4" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="L84" s="4">
         <v>1</v>
@@ -5418,13 +5740,13 @@
         <v>102</v>
       </c>
       <c r="C85" s="4" t="s">
+        <v>418</v>
+      </c>
+      <c r="D85" s="4" t="s">
         <v>419</v>
       </c>
-      <c r="D85" s="4" t="s">
-        <v>420</v>
-      </c>
       <c r="E85" s="4" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="F85" s="4" t="s">
         <v>88</v>
@@ -5433,13 +5755,13 @@
         <v>192</v>
       </c>
       <c r="I85" s="4" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="J85" s="5" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="K85" s="4" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="L85" s="4">
         <v>1</v>
@@ -5465,13 +5787,13 @@
         <v>102</v>
       </c>
       <c r="C86" s="4" t="s">
+        <v>418</v>
+      </c>
+      <c r="D86" s="4" t="s">
         <v>419</v>
       </c>
-      <c r="D86" s="4" t="s">
-        <v>420</v>
-      </c>
       <c r="E86" s="4" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="F86" s="4" t="s">
         <v>88</v>
@@ -5480,13 +5802,13 @@
         <v>192</v>
       </c>
       <c r="I86" s="4" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="J86" s="5" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="K86" s="4" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="L86" s="4">
         <v>1</v>
@@ -5509,7 +5831,7 @@
         <v>86</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C87" s="4" t="s">
         <v>43</v>
@@ -5547,13 +5869,13 @@
         <v>102</v>
       </c>
       <c r="C88" s="4" t="s">
+        <v>418</v>
+      </c>
+      <c r="D88" s="4" t="s">
         <v>419</v>
       </c>
-      <c r="D88" s="4" t="s">
-        <v>420</v>
-      </c>
       <c r="E88" s="4" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F88" s="4" t="s">
         <v>88</v>
@@ -5562,13 +5884,13 @@
         <v>192</v>
       </c>
       <c r="I88" s="8" t="s">
+        <v>441</v>
+      </c>
+      <c r="J88" s="8" t="s">
         <v>442</v>
       </c>
-      <c r="J88" s="8" t="s">
-        <v>443</v>
-      </c>
       <c r="K88" s="4" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="L88" s="4">
         <v>1</v>
@@ -5594,13 +5916,13 @@
         <v>102</v>
       </c>
       <c r="C89" s="4" t="s">
+        <v>418</v>
+      </c>
+      <c r="D89" s="4" t="s">
         <v>419</v>
       </c>
-      <c r="D89" s="4" t="s">
-        <v>420</v>
-      </c>
       <c r="E89" s="4" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="F89" s="4" t="s">
         <v>88</v>
@@ -5609,13 +5931,13 @@
         <v>192</v>
       </c>
       <c r="I89" s="8" t="s">
+        <v>441</v>
+      </c>
+      <c r="J89" s="8" t="s">
         <v>442</v>
       </c>
-      <c r="J89" s="8" t="s">
-        <v>443</v>
-      </c>
       <c r="K89" s="4" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="L89" s="4">
         <v>1</v>
@@ -5641,13 +5963,13 @@
         <v>102</v>
       </c>
       <c r="C90" s="4" t="s">
+        <v>418</v>
+      </c>
+      <c r="D90" s="4" t="s">
         <v>419</v>
       </c>
-      <c r="D90" s="4" t="s">
-        <v>420</v>
-      </c>
       <c r="E90" s="4" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="F90" s="4" t="s">
         <v>88</v>
@@ -5656,13 +5978,13 @@
         <v>192</v>
       </c>
       <c r="I90" s="8" t="s">
+        <v>441</v>
+      </c>
+      <c r="J90" s="8" t="s">
         <v>442</v>
       </c>
-      <c r="J90" s="8" t="s">
-        <v>443</v>
-      </c>
       <c r="K90" s="4" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="L90" s="4">
         <v>1</v>
@@ -5688,13 +6010,13 @@
         <v>102</v>
       </c>
       <c r="C91" s="4" t="s">
+        <v>418</v>
+      </c>
+      <c r="D91" s="4" t="s">
         <v>419</v>
       </c>
-      <c r="D91" s="4" t="s">
-        <v>420</v>
-      </c>
       <c r="E91" s="4" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="F91" s="4" t="s">
         <v>88</v>
@@ -5703,13 +6025,13 @@
         <v>192</v>
       </c>
       <c r="I91" s="8" t="s">
+        <v>436</v>
+      </c>
+      <c r="J91" s="8" t="s">
         <v>437</v>
       </c>
-      <c r="J91" s="8" t="s">
-        <v>438</v>
-      </c>
       <c r="K91" s="4" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="L91" s="4">
         <v>1</v>
@@ -5735,13 +6057,13 @@
         <v>102</v>
       </c>
       <c r="C92" s="4" t="s">
+        <v>418</v>
+      </c>
+      <c r="D92" s="4" t="s">
         <v>419</v>
       </c>
-      <c r="D92" s="4" t="s">
-        <v>420</v>
-      </c>
       <c r="E92" s="4" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="F92" s="4" t="s">
         <v>88</v>
@@ -5750,13 +6072,13 @@
         <v>192</v>
       </c>
       <c r="I92" s="8" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="J92" s="8" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="K92" s="4" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="L92" s="4">
         <v>1</v>
@@ -5782,13 +6104,13 @@
         <v>102</v>
       </c>
       <c r="C93" s="4" t="s">
+        <v>418</v>
+      </c>
+      <c r="D93" s="4" t="s">
         <v>419</v>
       </c>
-      <c r="D93" s="4" t="s">
-        <v>420</v>
-      </c>
       <c r="E93" s="4" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="F93" s="4" t="s">
         <v>88</v>
@@ -5797,13 +6119,13 @@
         <v>192</v>
       </c>
       <c r="I93" s="8" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="J93" s="8" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="K93" s="4" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="L93" s="4">
         <v>1</v>
@@ -5864,31 +6186,31 @@
         <v>94</v>
       </c>
       <c r="B95" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="C95" s="4" t="s">
+        <v>395</v>
+      </c>
+      <c r="D95" s="4" t="s">
         <v>390</v>
       </c>
-      <c r="C95" s="4" t="s">
+      <c r="E95" s="4" t="s">
         <v>396</v>
       </c>
-      <c r="D95" s="4" t="s">
+      <c r="F95" s="4" t="s">
         <v>391</v>
-      </c>
-      <c r="E95" s="4" t="s">
-        <v>397</v>
-      </c>
-      <c r="F95" s="4" t="s">
-        <v>392</v>
       </c>
       <c r="H95" s="4" t="s">
         <v>192</v>
       </c>
       <c r="I95" s="4" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="J95" s="5" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="K95" s="4" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="L95" s="4">
         <v>0.1</v>
@@ -5943,13 +6265,13 @@
         <v>102</v>
       </c>
       <c r="C97" s="4" t="s">
+        <v>418</v>
+      </c>
+      <c r="D97" s="4" t="s">
         <v>419</v>
       </c>
-      <c r="D97" s="4" t="s">
-        <v>420</v>
-      </c>
       <c r="E97" s="4" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F97" s="4" t="s">
         <v>307</v>
@@ -5961,13 +6283,13 @@
         <v>192</v>
       </c>
       <c r="I97" s="4" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="J97" s="5" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="K97" s="4" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="L97" s="4">
         <v>1</v>
@@ -5990,13 +6312,13 @@
         <v>102</v>
       </c>
       <c r="C98" s="4" t="s">
+        <v>418</v>
+      </c>
+      <c r="D98" s="4" t="s">
         <v>419</v>
       </c>
-      <c r="D98" s="4" t="s">
+      <c r="E98" s="4" t="s">
         <v>420</v>
-      </c>
-      <c r="E98" s="4" t="s">
-        <v>421</v>
       </c>
       <c r="F98" s="4" t="s">
         <v>307</v>
@@ -6008,13 +6330,13 @@
         <v>192</v>
       </c>
       <c r="I98" s="4" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="J98" s="5" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="K98" s="4" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="L98" s="4">
         <v>1</v>
@@ -6037,13 +6359,13 @@
         <v>102</v>
       </c>
       <c r="C99" s="4" t="s">
+        <v>418</v>
+      </c>
+      <c r="D99" s="4" t="s">
         <v>419</v>
       </c>
-      <c r="D99" s="4" t="s">
-        <v>420</v>
-      </c>
       <c r="E99" s="4" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="F99" s="4" t="s">
         <v>307</v>
@@ -6055,13 +6377,13 @@
         <v>192</v>
       </c>
       <c r="I99" s="4" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="J99" s="5" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="K99" s="4" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="L99" s="4">
         <v>1</v>
@@ -6894,13 +7216,13 @@
         <v>192</v>
       </c>
       <c r="I121" s="4" t="s">
+        <v>460</v>
+      </c>
+      <c r="J121" s="5" t="s">
+        <v>462</v>
+      </c>
+      <c r="K121" s="4" t="s">
         <v>461</v>
-      </c>
-      <c r="J121" s="5" t="s">
-        <v>463</v>
-      </c>
-      <c r="K121" s="4" t="s">
-        <v>462</v>
       </c>
       <c r="L121" s="4">
         <v>9.9999999999999995E-7</v>
@@ -6920,10 +7242,10 @@
         <v>10</v>
       </c>
       <c r="C122" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="D122" s="4" t="s">
         <v>409</v>
-      </c>
-      <c r="D122" s="4" t="s">
-        <v>410</v>
       </c>
       <c r="E122" s="4" t="s">
         <v>15</v>
@@ -6932,13 +7254,13 @@
         <v>49</v>
       </c>
       <c r="I122" s="4" t="s">
+        <v>410</v>
+      </c>
+      <c r="J122" s="5" t="s">
         <v>411</v>
       </c>
-      <c r="J122" s="5" t="s">
-        <v>412</v>
-      </c>
       <c r="K122" s="4" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="L122" s="4">
         <v>1E-3</v>
@@ -6955,10 +7277,10 @@
         <v>10</v>
       </c>
       <c r="C123" s="4" t="s">
+        <v>397</v>
+      </c>
+      <c r="D123" s="4" t="s">
         <v>398</v>
-      </c>
-      <c r="D123" s="4" t="s">
-        <v>399</v>
       </c>
       <c r="E123" s="4" t="s">
         <v>15</v>
@@ -6967,13 +7289,13 @@
         <v>49</v>
       </c>
       <c r="I123" s="4" t="s">
+        <v>401</v>
+      </c>
+      <c r="J123" s="5" t="s">
         <v>402</v>
       </c>
-      <c r="J123" s="5" t="s">
-        <v>403</v>
-      </c>
       <c r="K123" s="4" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="L123" s="4">
         <v>1E-3</v>
@@ -6990,10 +7312,10 @@
         <v>10</v>
       </c>
       <c r="C124" s="4" t="s">
+        <v>403</v>
+      </c>
+      <c r="D124" s="4" t="s">
         <v>404</v>
-      </c>
-      <c r="D124" s="4" t="s">
-        <v>405</v>
       </c>
       <c r="E124" s="4" t="s">
         <v>15</v>
@@ -7002,13 +7324,13 @@
         <v>49</v>
       </c>
       <c r="I124" s="4" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="J124" s="5" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="K124" s="4" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="L124" s="4">
         <v>1E-3</v>
@@ -7113,16 +7435,16 @@
         <v>49</v>
       </c>
       <c r="E127" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="F127" s="4" t="s">
         <v>409</v>
       </c>
-      <c r="F127" s="4" t="s">
-        <v>410</v>
-      </c>
       <c r="I127" s="4" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="J127" s="5" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="K127" s="4" t="s">
         <v>136</v>
@@ -7148,16 +7470,16 @@
         <v>49</v>
       </c>
       <c r="E128" s="4" t="s">
+        <v>397</v>
+      </c>
+      <c r="F128" s="4" t="s">
         <v>398</v>
       </c>
-      <c r="F128" s="4" t="s">
+      <c r="I128" s="4" t="s">
         <v>399</v>
       </c>
-      <c r="I128" s="4" t="s">
+      <c r="J128" s="5" t="s">
         <v>400</v>
-      </c>
-      <c r="J128" s="5" t="s">
-        <v>401</v>
       </c>
       <c r="K128" s="4" t="s">
         <v>136</v>
@@ -7183,16 +7505,16 @@
         <v>49</v>
       </c>
       <c r="E129" s="4" t="s">
+        <v>403</v>
+      </c>
+      <c r="F129" s="4" t="s">
         <v>404</v>
       </c>
-      <c r="F129" s="4" t="s">
+      <c r="I129" s="4" t="s">
         <v>405</v>
       </c>
-      <c r="I129" s="4" t="s">
+      <c r="J129" s="5" t="s">
         <v>406</v>
-      </c>
-      <c r="J129" s="5" t="s">
-        <v>407</v>
       </c>
       <c r="K129" s="4" t="s">
         <v>136</v>
@@ -8177,28 +8499,28 @@
         <v>126</v>
       </c>
       <c r="C155" s="4" t="s">
+        <v>418</v>
+      </c>
+      <c r="D155" s="4" t="s">
         <v>419</v>
       </c>
-      <c r="D155" s="4" t="s">
-        <v>420</v>
-      </c>
       <c r="E155" s="4" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="F155" s="4" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="G155" s="4" t="s">
         <v>192</v>
       </c>
       <c r="I155" s="8" t="s">
+        <v>491</v>
+      </c>
+      <c r="J155" s="8" t="s">
         <v>492</v>
       </c>
-      <c r="J155" s="8" t="s">
-        <v>493</v>
-      </c>
       <c r="K155" s="4" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="L155" s="7">
         <v>30000000</v>
@@ -8215,28 +8537,28 @@
         <v>126</v>
       </c>
       <c r="C156" s="4" t="s">
+        <v>418</v>
+      </c>
+      <c r="D156" s="4" t="s">
         <v>419</v>
       </c>
-      <c r="D156" s="4" t="s">
-        <v>420</v>
-      </c>
       <c r="E156" s="4" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="F156" s="4" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="G156" s="4" t="s">
         <v>192</v>
       </c>
       <c r="I156" s="8" t="s">
+        <v>494</v>
+      </c>
+      <c r="J156" s="8" t="s">
         <v>495</v>
       </c>
-      <c r="J156" s="8" t="s">
-        <v>496</v>
-      </c>
       <c r="K156" s="4" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="L156" s="7">
         <v>30000000</v>
@@ -8253,10 +8575,10 @@
         <v>10</v>
       </c>
       <c r="C157" s="4" t="s">
+        <v>397</v>
+      </c>
+      <c r="D157" s="4" t="s">
         <v>398</v>
-      </c>
-      <c r="D157" s="4" t="s">
-        <v>399</v>
       </c>
       <c r="E157" s="4" t="s">
         <v>16</v>
@@ -8265,13 +8587,13 @@
         <v>5</v>
       </c>
       <c r="I157" s="4" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="J157" s="4" t="s">
+        <v>496</v>
+      </c>
+      <c r="K157" s="4" t="s">
         <v>497</v>
-      </c>
-      <c r="K157" s="4" t="s">
-        <v>498</v>
       </c>
       <c r="L157" s="4">
         <v>0</v>
@@ -8297,19 +8619,19 @@
         <v>5</v>
       </c>
       <c r="E158" s="4" t="s">
+        <v>397</v>
+      </c>
+      <c r="F158" s="4" t="s">
         <v>398</v>
-      </c>
-      <c r="F158" s="4" t="s">
-        <v>399</v>
       </c>
       <c r="H158" s="4" t="s">
         <v>192</v>
       </c>
       <c r="I158" s="4" t="s">
+        <v>499</v>
+      </c>
+      <c r="J158" s="5" t="s">
         <v>500</v>
-      </c>
-      <c r="J158" s="5" t="s">
-        <v>501</v>
       </c>
       <c r="K158" s="4" t="s">
         <v>117</v>
@@ -8329,28 +8651,28 @@
         <v>158</v>
       </c>
       <c r="B159" s="4" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C159" s="4" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D159" s="4" t="s">
+        <v>501</v>
+      </c>
+      <c r="E159" s="4" t="s">
         <v>502</v>
       </c>
-      <c r="E159" s="4" t="s">
+      <c r="F159" s="4" t="s">
+        <v>501</v>
+      </c>
+      <c r="I159" s="8" t="s">
+        <v>504</v>
+      </c>
+      <c r="J159" s="8" t="s">
+        <v>505</v>
+      </c>
+      <c r="K159" s="4" t="s">
         <v>503</v>
-      </c>
-      <c r="F159" s="4" t="s">
-        <v>502</v>
-      </c>
-      <c r="I159" s="8" t="s">
-        <v>505</v>
-      </c>
-      <c r="J159" s="8" t="s">
-        <v>506</v>
-      </c>
-      <c r="K159" s="4" t="s">
-        <v>504</v>
       </c>
       <c r="L159" s="4">
         <v>1</v>
@@ -8370,28 +8692,28 @@
         <v>159</v>
       </c>
       <c r="B160" s="4" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C160" s="4" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D160" s="4" t="s">
         <v>35</v>
       </c>
       <c r="E160" s="4" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="F160" s="4" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="I160" s="8" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="J160" s="8" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="K160" s="4" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="L160" s="4">
         <v>0.1</v>
@@ -8411,28 +8733,28 @@
         <v>160</v>
       </c>
       <c r="B161" s="4" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C161" s="4" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="D161" s="4" t="s">
         <v>35</v>
       </c>
       <c r="E161" s="4" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="F161" s="4" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="I161" s="8" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="J161" s="8" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="K161" s="4" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="L161" s="4">
         <v>0.1</v>
@@ -8452,31 +8774,31 @@
         <v>161</v>
       </c>
       <c r="B162" s="4" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C162" s="4" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D162" s="4" t="s">
         <v>35</v>
       </c>
       <c r="E162" s="4" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="F162" s="4" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="G162" s="4" t="s">
         <v>192</v>
       </c>
       <c r="I162" s="9" t="s">
+        <v>516</v>
+      </c>
+      <c r="J162" s="9" t="s">
         <v>517</v>
       </c>
-      <c r="J162" s="9" t="s">
-        <v>518</v>
-      </c>
       <c r="K162" s="4" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="L162" s="4">
         <v>0.1</v>
@@ -8494,28 +8816,28 @@
         <v>162</v>
       </c>
       <c r="B163" s="4" t="s">
+        <v>518</v>
+      </c>
+      <c r="C163" s="4" t="s">
+        <v>521</v>
+      </c>
+      <c r="D163" s="4" t="s">
         <v>519</v>
       </c>
-      <c r="C163" s="4" t="s">
-        <v>522</v>
-      </c>
-      <c r="D163" s="4" t="s">
+      <c r="E163" s="4" t="s">
         <v>520</v>
-      </c>
-      <c r="E163" s="4" t="s">
-        <v>521</v>
       </c>
       <c r="F163" s="4" t="s">
         <v>103</v>
       </c>
       <c r="I163" s="9" t="s">
+        <v>522</v>
+      </c>
+      <c r="J163" s="5" t="s">
+        <v>524</v>
+      </c>
+      <c r="K163" s="4" t="s">
         <v>523</v>
-      </c>
-      <c r="J163" s="5" t="s">
-        <v>525</v>
-      </c>
-      <c r="K163" s="4" t="s">
-        <v>524</v>
       </c>
       <c r="L163" s="4">
         <v>1E-3</v>
@@ -8530,28 +8852,28 @@
         <v>163</v>
       </c>
       <c r="B164" s="4" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C164" s="4" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D164" s="4" t="s">
         <v>103</v>
       </c>
       <c r="E164" s="4" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="F164" s="4" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="I164" s="9" t="s">
+        <v>525</v>
+      </c>
+      <c r="J164" s="5" t="s">
         <v>526</v>
       </c>
-      <c r="J164" s="5" t="s">
+      <c r="K164" s="4" t="s">
         <v>527</v>
-      </c>
-      <c r="K164" s="4" t="s">
-        <v>528</v>
       </c>
       <c r="L164" s="4">
         <v>1E-3</v>
@@ -8565,28 +8887,28 @@
         <v>164</v>
       </c>
       <c r="B165" s="4" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C165" s="4" t="s">
+        <v>528</v>
+      </c>
+      <c r="D165" s="4" t="s">
         <v>529</v>
       </c>
-      <c r="D165" s="4" t="s">
+      <c r="E165" s="4" t="s">
         <v>530</v>
       </c>
-      <c r="E165" s="4" t="s">
+      <c r="F165" s="4" t="s">
         <v>531</v>
       </c>
-      <c r="F165" s="4" t="s">
+      <c r="I165" s="9" t="s">
         <v>532</v>
       </c>
-      <c r="I165" s="9" t="s">
+      <c r="J165" s="5" t="s">
         <v>533</v>
       </c>
-      <c r="J165" s="5" t="s">
+      <c r="K165" s="4" t="s">
         <v>534</v>
-      </c>
-      <c r="K165" s="4" t="s">
-        <v>535</v>
       </c>
       <c r="L165" s="4">
         <v>0.5</v>
@@ -8600,28 +8922,28 @@
         <v>165</v>
       </c>
       <c r="B166" s="4" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C166" s="4" t="s">
+        <v>530</v>
+      </c>
+      <c r="D166" s="4" t="s">
         <v>531</v>
       </c>
-      <c r="D166" s="4" t="s">
-        <v>532</v>
-      </c>
       <c r="E166" s="4" t="s">
+        <v>528</v>
+      </c>
+      <c r="F166" s="4" t="s">
         <v>529</v>
       </c>
-      <c r="F166" s="4" t="s">
-        <v>530</v>
-      </c>
       <c r="I166" s="9" t="s">
+        <v>535</v>
+      </c>
+      <c r="J166" s="5" t="s">
         <v>536</v>
       </c>
-      <c r="J166" s="5" t="s">
+      <c r="K166" s="4" t="s">
         <v>537</v>
-      </c>
-      <c r="K166" s="4" t="s">
-        <v>538</v>
       </c>
       <c r="L166" s="4">
         <v>0.1</v>
@@ -8635,28 +8957,28 @@
         <v>166</v>
       </c>
       <c r="B167" s="4" t="s">
+        <v>518</v>
+      </c>
+      <c r="C167" s="4" t="s">
+        <v>521</v>
+      </c>
+      <c r="D167" s="4" t="s">
         <v>519</v>
       </c>
-      <c r="C167" s="4" t="s">
-        <v>522</v>
-      </c>
-      <c r="D167" s="4" t="s">
-        <v>520</v>
-      </c>
       <c r="E167" s="4" t="s">
+        <v>538</v>
+      </c>
+      <c r="F167" s="4" t="s">
         <v>539</v>
       </c>
-      <c r="F167" s="4" t="s">
+      <c r="I167" s="4" t="s">
         <v>540</v>
       </c>
-      <c r="I167" s="4" t="s">
+      <c r="J167" s="5" t="s">
         <v>541</v>
       </c>
-      <c r="J167" s="5" t="s">
-        <v>542</v>
-      </c>
       <c r="K167" s="4" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="L167" s="4">
         <v>1E-3</v>
@@ -8670,28 +8992,28 @@
         <v>167</v>
       </c>
       <c r="B168" s="4" t="s">
+        <v>518</v>
+      </c>
+      <c r="C168" s="4" t="s">
+        <v>538</v>
+      </c>
+      <c r="D168" s="4" t="s">
+        <v>539</v>
+      </c>
+      <c r="E168" s="4" t="s">
+        <v>521</v>
+      </c>
+      <c r="F168" s="4" t="s">
         <v>519</v>
       </c>
-      <c r="C168" s="4" t="s">
-        <v>539</v>
-      </c>
-      <c r="D168" s="4" t="s">
-        <v>540</v>
-      </c>
-      <c r="E168" s="4" t="s">
-        <v>522</v>
-      </c>
-      <c r="F168" s="4" t="s">
-        <v>520</v>
-      </c>
       <c r="I168" s="4" t="s">
+        <v>542</v>
+      </c>
+      <c r="J168" s="5" t="s">
         <v>543</v>
       </c>
-      <c r="J168" s="5" t="s">
+      <c r="K168" s="4" t="s">
         <v>544</v>
-      </c>
-      <c r="K168" s="4" t="s">
-        <v>545</v>
       </c>
       <c r="L168" s="4">
         <v>1E-3</v>
@@ -8700,14 +9022,901 @@
         <v>100</v>
       </c>
     </row>
+    <row r="169" spans="1:15" x14ac:dyDescent="0.85">
+      <c r="A169" s="4">
+        <v>168</v>
+      </c>
+      <c r="B169" s="4" t="s">
+        <v>573</v>
+      </c>
+      <c r="C169" s="4" t="s">
+        <v>550</v>
+      </c>
+      <c r="D169" s="4" t="s">
+        <v>547</v>
+      </c>
+      <c r="E169" s="4" t="s">
+        <v>557</v>
+      </c>
+      <c r="F169" s="4" t="s">
+        <v>545</v>
+      </c>
+      <c r="I169" s="4" t="s">
+        <v>546</v>
+      </c>
+      <c r="J169" s="5" t="s">
+        <v>549</v>
+      </c>
+      <c r="K169" s="4" t="s">
+        <v>548</v>
+      </c>
+      <c r="L169" s="4">
+        <v>0</v>
+      </c>
+      <c r="M169" s="4">
+        <v>299792458</v>
+      </c>
+      <c r="N169" s="4">
+        <v>299792458</v>
+      </c>
+    </row>
+    <row r="170" spans="1:15" x14ac:dyDescent="0.85">
+      <c r="A170" s="4">
+        <v>169</v>
+      </c>
+      <c r="B170" s="4" t="s">
+        <v>573</v>
+      </c>
+      <c r="C170" s="4" t="s">
+        <v>551</v>
+      </c>
+      <c r="D170" s="4" t="s">
+        <v>552</v>
+      </c>
+      <c r="E170" s="4" t="s">
+        <v>557</v>
+      </c>
+      <c r="F170" s="4" t="s">
+        <v>545</v>
+      </c>
+      <c r="H170" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="I170" s="4" t="s">
+        <v>554</v>
+      </c>
+      <c r="J170" s="5" t="s">
+        <v>555</v>
+      </c>
+      <c r="K170" s="4" t="s">
+        <v>553</v>
+      </c>
+      <c r="L170" s="4">
+        <v>0</v>
+      </c>
+      <c r="M170" s="10">
+        <v>99.999999998999996</v>
+      </c>
+    </row>
+    <row r="171" spans="1:15" x14ac:dyDescent="0.85">
+      <c r="A171" s="4">
+        <v>170</v>
+      </c>
+      <c r="B171" s="4" t="s">
+        <v>572</v>
+      </c>
+      <c r="C171" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="D171" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="E171" s="4" t="s">
+        <v>556</v>
+      </c>
+      <c r="F171" s="4" t="s">
+        <v>547</v>
+      </c>
+      <c r="I171" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="J171" s="5" t="s">
+        <v>559</v>
+      </c>
+      <c r="K171" s="4" t="s">
+        <v>560</v>
+      </c>
+      <c r="L171" s="4">
+        <v>-273</v>
+      </c>
+      <c r="M171" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="172" spans="1:15" x14ac:dyDescent="0.85">
+      <c r="A172" s="4">
+        <v>171</v>
+      </c>
+      <c r="B172" s="4" t="s">
+        <v>561</v>
+      </c>
+      <c r="C172" s="4" t="s">
+        <v>562</v>
+      </c>
+      <c r="D172" s="4" t="s">
+        <v>563</v>
+      </c>
+      <c r="E172" s="4" t="s">
+        <v>564</v>
+      </c>
+      <c r="F172" s="4" t="s">
+        <v>565</v>
+      </c>
+      <c r="I172" s="4" t="s">
+        <v>566</v>
+      </c>
+      <c r="J172" s="5" t="s">
+        <v>567</v>
+      </c>
+      <c r="K172" s="4" t="s">
+        <v>568</v>
+      </c>
+      <c r="L172" s="4">
+        <v>1E-3</v>
+      </c>
+      <c r="M172" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="173" spans="1:15" x14ac:dyDescent="0.85">
+      <c r="A173" s="4">
+        <v>172</v>
+      </c>
+      <c r="B173" s="4" t="s">
+        <v>561</v>
+      </c>
+      <c r="C173" s="4" t="s">
+        <v>564</v>
+      </c>
+      <c r="D173" s="4" t="s">
+        <v>565</v>
+      </c>
+      <c r="E173" s="4" t="s">
+        <v>562</v>
+      </c>
+      <c r="F173" s="4" t="s">
+        <v>563</v>
+      </c>
+      <c r="I173" s="4" t="s">
+        <v>569</v>
+      </c>
+      <c r="J173" s="5" t="s">
+        <v>570</v>
+      </c>
+      <c r="K173" s="4" t="s">
+        <v>571</v>
+      </c>
+      <c r="L173" s="4">
+        <v>1E-3</v>
+      </c>
+      <c r="M173" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="174" spans="1:15" x14ac:dyDescent="0.85">
+      <c r="A174" s="4">
+        <v>173</v>
+      </c>
+      <c r="B174" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="C174" s="4" t="s">
+        <v>579</v>
+      </c>
+      <c r="D174" s="4" t="s">
+        <v>575</v>
+      </c>
+      <c r="E174" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="F174" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="I174" s="4" t="s">
+        <v>576</v>
+      </c>
+      <c r="J174" s="5" t="s">
+        <v>577</v>
+      </c>
+      <c r="K174" s="4" t="s">
+        <v>578</v>
+      </c>
+      <c r="L174" s="4">
+        <v>0</v>
+      </c>
+      <c r="M174" s="4">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="175" spans="1:15" x14ac:dyDescent="0.85">
+      <c r="A175" s="4">
+        <v>174</v>
+      </c>
+      <c r="B175" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="C175" s="4" t="s">
+        <v>579</v>
+      </c>
+      <c r="D175" s="4" t="s">
+        <v>575</v>
+      </c>
+      <c r="E175" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="F175" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="I175" s="4" t="s">
+        <v>580</v>
+      </c>
+      <c r="J175" s="5" t="s">
+        <v>581</v>
+      </c>
+      <c r="K175" s="4" t="s">
+        <v>578</v>
+      </c>
+      <c r="L175" s="4">
+        <v>0</v>
+      </c>
+      <c r="M175" s="4">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="176" spans="1:15" x14ac:dyDescent="0.85">
+      <c r="A176" s="4">
+        <v>175</v>
+      </c>
+      <c r="B176" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="C176" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="D176" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="E176" s="4" t="s">
+        <v>579</v>
+      </c>
+      <c r="F176" s="4" t="s">
+        <v>575</v>
+      </c>
+      <c r="I176" s="4" t="s">
+        <v>582</v>
+      </c>
+      <c r="J176" s="5" t="s">
+        <v>583</v>
+      </c>
+      <c r="K176" s="4" t="s">
+        <v>584</v>
+      </c>
+      <c r="L176" s="4">
+        <v>0</v>
+      </c>
+      <c r="M176" s="4">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="177" spans="1:13" x14ac:dyDescent="0.85">
+      <c r="A177" s="4">
+        <v>176</v>
+      </c>
+      <c r="B177" s="4" t="s">
+        <v>574</v>
+      </c>
+      <c r="C177" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="D177" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="E177" s="4" t="s">
+        <v>585</v>
+      </c>
+      <c r="F177" s="4" t="s">
+        <v>586</v>
+      </c>
+      <c r="I177" s="4" t="s">
+        <v>587</v>
+      </c>
+      <c r="J177" s="5" t="s">
+        <v>588</v>
+      </c>
+      <c r="K177" s="4" t="s">
+        <v>560</v>
+      </c>
+      <c r="L177" s="4">
+        <v>-273.14999999999998</v>
+      </c>
+      <c r="M177" s="4">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="178" spans="1:13" x14ac:dyDescent="0.85">
+      <c r="A178" s="4">
+        <v>177</v>
+      </c>
+      <c r="B178" s="4" t="s">
+        <v>574</v>
+      </c>
+      <c r="C178" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="D178" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="E178" s="4" t="s">
+        <v>589</v>
+      </c>
+      <c r="F178" s="4" t="s">
+        <v>590</v>
+      </c>
+      <c r="I178" s="4" t="s">
+        <v>591</v>
+      </c>
+      <c r="J178" s="5" t="s">
+        <v>592</v>
+      </c>
+      <c r="K178" s="4" t="s">
+        <v>560</v>
+      </c>
+      <c r="L178" s="4">
+        <v>-273.14999999999998</v>
+      </c>
+      <c r="M178" s="4">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="179" spans="1:13" x14ac:dyDescent="0.85">
+      <c r="A179" s="4">
+        <v>178</v>
+      </c>
+      <c r="B179" s="4" t="s">
+        <v>574</v>
+      </c>
+      <c r="C179" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="D179" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="E179" s="4" t="s">
+        <v>589</v>
+      </c>
+      <c r="F179" s="4" t="s">
+        <v>590</v>
+      </c>
+      <c r="I179" s="4" t="s">
+        <v>593</v>
+      </c>
+      <c r="J179" s="5" t="s">
+        <v>597</v>
+      </c>
+      <c r="K179" s="4" t="s">
+        <v>594</v>
+      </c>
+      <c r="L179" s="4">
+        <v>-459.67</v>
+      </c>
+      <c r="M179" s="4">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="180" spans="1:13" x14ac:dyDescent="0.85">
+      <c r="A180" s="4">
+        <v>179</v>
+      </c>
+      <c r="B180" s="4" t="s">
+        <v>574</v>
+      </c>
+      <c r="C180" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="D180" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="E180" s="4" t="s">
+        <v>585</v>
+      </c>
+      <c r="F180" s="4" t="s">
+        <v>586</v>
+      </c>
+      <c r="I180" s="4" t="s">
+        <v>595</v>
+      </c>
+      <c r="J180" s="5" t="s">
+        <v>596</v>
+      </c>
+      <c r="K180" s="4" t="s">
+        <v>594</v>
+      </c>
+      <c r="L180" s="4">
+        <v>-459.67</v>
+      </c>
+      <c r="M180" s="4">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="181" spans="1:13" x14ac:dyDescent="0.85">
+      <c r="A181" s="4">
+        <v>180</v>
+      </c>
+      <c r="B181" s="4" t="s">
+        <v>598</v>
+      </c>
+      <c r="C181" s="4" t="s">
+        <v>599</v>
+      </c>
+      <c r="D181" s="4" t="s">
+        <v>600</v>
+      </c>
+      <c r="E181" s="4" t="s">
+        <v>602</v>
+      </c>
+      <c r="F181" s="4" t="s">
+        <v>603</v>
+      </c>
+      <c r="I181" s="4" t="s">
+        <v>604</v>
+      </c>
+      <c r="J181" s="5" t="s">
+        <v>605</v>
+      </c>
+      <c r="K181" s="4" t="s">
+        <v>606</v>
+      </c>
+      <c r="L181" s="4">
+        <v>1E-3</v>
+      </c>
+      <c r="M181" s="4">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="182" spans="1:13" x14ac:dyDescent="0.85">
+      <c r="A182" s="4">
+        <v>181</v>
+      </c>
+      <c r="B182" s="4" t="s">
+        <v>598</v>
+      </c>
+      <c r="C182" s="4" t="s">
+        <v>602</v>
+      </c>
+      <c r="D182" s="4" t="s">
+        <v>603</v>
+      </c>
+      <c r="E182" s="4" t="s">
+        <v>599</v>
+      </c>
+      <c r="F182" s="4" t="s">
+        <v>600</v>
+      </c>
+      <c r="I182" s="4" t="s">
+        <v>607</v>
+      </c>
+      <c r="J182" s="5" t="s">
+        <v>608</v>
+      </c>
+      <c r="K182" s="4" t="s">
+        <v>601</v>
+      </c>
+      <c r="L182" s="4">
+        <v>1055.0558530000001</v>
+      </c>
+      <c r="M182" s="4">
+        <v>10550558.5262</v>
+      </c>
+    </row>
+    <row r="183" spans="1:13" x14ac:dyDescent="0.85">
+      <c r="A183" s="4">
+        <v>182</v>
+      </c>
+      <c r="B183" s="4" t="s">
+        <v>598</v>
+      </c>
+      <c r="C183" s="4" t="s">
+        <v>599</v>
+      </c>
+      <c r="D183" s="4" t="s">
+        <v>600</v>
+      </c>
+      <c r="E183" s="4" t="s">
+        <v>616</v>
+      </c>
+      <c r="F183" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="I183" s="4" t="s">
+        <v>610</v>
+      </c>
+      <c r="J183" s="5" t="s">
+        <v>612</v>
+      </c>
+      <c r="K183" s="4" t="s">
+        <v>613</v>
+      </c>
+      <c r="L183" s="4">
+        <v>1E-3</v>
+      </c>
+      <c r="M183" s="4">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="184" spans="1:13" x14ac:dyDescent="0.85">
+      <c r="A184" s="4">
+        <v>183</v>
+      </c>
+      <c r="B184" s="4" t="s">
+        <v>598</v>
+      </c>
+      <c r="C184" s="4" t="s">
+        <v>616</v>
+      </c>
+      <c r="D184" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="E184" s="4" t="s">
+        <v>599</v>
+      </c>
+      <c r="F184" s="4" t="s">
+        <v>600</v>
+      </c>
+      <c r="I184" s="4" t="s">
+        <v>611</v>
+      </c>
+      <c r="J184" s="5" t="s">
+        <v>614</v>
+      </c>
+      <c r="K184" s="4" t="s">
+        <v>606</v>
+      </c>
+      <c r="L184" s="4">
+        <v>1E-3</v>
+      </c>
+      <c r="M184" s="4">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="185" spans="1:13" x14ac:dyDescent="0.85">
+      <c r="A185" s="4">
+        <v>184</v>
+      </c>
+      <c r="B185" s="4" t="s">
+        <v>561</v>
+      </c>
+      <c r="C185" s="4" t="s">
+        <v>615</v>
+      </c>
+      <c r="D185" s="4" t="s">
+        <v>617</v>
+      </c>
+      <c r="E185" s="4" t="s">
+        <v>618</v>
+      </c>
+      <c r="F185" s="4" t="s">
+        <v>619</v>
+      </c>
+      <c r="I185" s="4" t="s">
+        <v>620</v>
+      </c>
+      <c r="J185" s="5" t="s">
+        <v>621</v>
+      </c>
+      <c r="K185" s="4" t="s">
+        <v>622</v>
+      </c>
+      <c r="L185" s="4">
+        <v>1</v>
+      </c>
+      <c r="M185" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="186" spans="1:13" x14ac:dyDescent="0.85">
+      <c r="A186" s="4">
+        <v>185</v>
+      </c>
+      <c r="B186" s="4" t="s">
+        <v>561</v>
+      </c>
+      <c r="C186" s="4" t="s">
+        <v>618</v>
+      </c>
+      <c r="D186" s="4" t="s">
+        <v>619</v>
+      </c>
+      <c r="E186" s="4" t="s">
+        <v>615</v>
+      </c>
+      <c r="F186" s="4" t="s">
+        <v>617</v>
+      </c>
+      <c r="I186" s="4" t="s">
+        <v>623</v>
+      </c>
+      <c r="J186" s="5" t="s">
+        <v>624</v>
+      </c>
+      <c r="K186" s="4" t="s">
+        <v>625</v>
+      </c>
+      <c r="L186" s="4">
+        <v>1</v>
+      </c>
+      <c r="M186" s="4">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="187" spans="1:13" x14ac:dyDescent="0.85">
+      <c r="A187" s="4">
+        <v>186</v>
+      </c>
+      <c r="B187" s="4" t="s">
+        <v>561</v>
+      </c>
+      <c r="C187" s="4" t="s">
+        <v>564</v>
+      </c>
+      <c r="D187" s="4" t="s">
+        <v>565</v>
+      </c>
+      <c r="E187" s="4" t="s">
+        <v>520</v>
+      </c>
+      <c r="F187" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="I187" s="4" t="s">
+        <v>626</v>
+      </c>
+      <c r="J187" s="5" t="s">
+        <v>627</v>
+      </c>
+      <c r="K187" s="4" t="s">
+        <v>571</v>
+      </c>
+      <c r="L187" s="4">
+        <v>1</v>
+      </c>
+      <c r="M187" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="188" spans="1:13" x14ac:dyDescent="0.85">
+      <c r="A188" s="4">
+        <v>187</v>
+      </c>
+      <c r="B188" s="4" t="s">
+        <v>561</v>
+      </c>
+      <c r="C188" s="4" t="s">
+        <v>628</v>
+      </c>
+      <c r="D188" s="4" t="s">
+        <v>565</v>
+      </c>
+      <c r="E188" s="4" t="s">
+        <v>520</v>
+      </c>
+      <c r="F188" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="I188" s="4" t="s">
+        <v>629</v>
+      </c>
+      <c r="J188" s="5" t="s">
+        <v>630</v>
+      </c>
+      <c r="K188" s="4" t="s">
+        <v>631</v>
+      </c>
+      <c r="L188" s="4">
+        <v>1</v>
+      </c>
+      <c r="M188" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="189" spans="1:13" x14ac:dyDescent="0.85">
+      <c r="A189" s="4">
+        <v>188</v>
+      </c>
+      <c r="B189" s="4" t="s">
+        <v>561</v>
+      </c>
+      <c r="C189" s="4" t="s">
+        <v>520</v>
+      </c>
+      <c r="D189" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="E189" s="4" t="s">
+        <v>564</v>
+      </c>
+      <c r="F189" s="4" t="s">
+        <v>565</v>
+      </c>
+      <c r="I189" s="4" t="s">
+        <v>632</v>
+      </c>
+      <c r="J189" s="5" t="s">
+        <v>633</v>
+      </c>
+      <c r="K189" s="4" t="s">
+        <v>527</v>
+      </c>
+      <c r="L189" s="4">
+        <v>1</v>
+      </c>
+      <c r="M189" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="190" spans="1:13" x14ac:dyDescent="0.85">
+      <c r="A190" s="4">
+        <v>189</v>
+      </c>
+      <c r="B190" s="4" t="s">
+        <v>561</v>
+      </c>
+      <c r="C190" s="4" t="s">
+        <v>520</v>
+      </c>
+      <c r="D190" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="E190" s="4" t="s">
+        <v>628</v>
+      </c>
+      <c r="F190" s="4" t="s">
+        <v>565</v>
+      </c>
+      <c r="I190" s="4" t="s">
+        <v>634</v>
+      </c>
+      <c r="J190" s="5" t="s">
+        <v>635</v>
+      </c>
+      <c r="K190" s="4" t="s">
+        <v>527</v>
+      </c>
+      <c r="L190" s="4">
+        <v>1</v>
+      </c>
+      <c r="M190" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="191" spans="1:13" x14ac:dyDescent="0.85">
+      <c r="A191" s="4">
+        <v>190</v>
+      </c>
+      <c r="B191" s="4" t="s">
+        <v>561</v>
+      </c>
+      <c r="C191" s="4" t="s">
+        <v>520</v>
+      </c>
+      <c r="D191" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="E191" s="4" t="s">
+        <v>636</v>
+      </c>
+      <c r="F191" s="4" t="s">
+        <v>637</v>
+      </c>
+      <c r="I191" s="4" t="s">
+        <v>638</v>
+      </c>
+      <c r="J191" s="5" t="s">
+        <v>642</v>
+      </c>
+      <c r="K191" s="4" t="s">
+        <v>527</v>
+      </c>
+      <c r="L191" s="4">
+        <v>1</v>
+      </c>
+      <c r="M191" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="192" spans="1:13" x14ac:dyDescent="0.85">
+      <c r="A192" s="4">
+        <v>191</v>
+      </c>
+      <c r="B192" s="4" t="s">
+        <v>561</v>
+      </c>
+      <c r="C192" s="4" t="s">
+        <v>636</v>
+      </c>
+      <c r="D192" s="4" t="s">
+        <v>637</v>
+      </c>
+      <c r="E192" s="4" t="s">
+        <v>520</v>
+      </c>
+      <c r="F192" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="I192" s="4" t="s">
+        <v>639</v>
+      </c>
+      <c r="J192" s="5" t="s">
+        <v>641</v>
+      </c>
+      <c r="K192" s="4" t="s">
+        <v>640</v>
+      </c>
+      <c r="L192" s="4">
+        <v>1</v>
+      </c>
+      <c r="M192" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="193" spans="1:15" ht="228" x14ac:dyDescent="0.85">
+      <c r="A193" s="4">
+        <v>192</v>
+      </c>
+      <c r="B193" s="4" t="s">
+        <v>459</v>
+      </c>
+      <c r="C193" s="4" t="s">
+        <v>646</v>
+      </c>
+      <c r="D193" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E193" s="4" t="s">
+        <v>644</v>
+      </c>
+      <c r="F193" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="I193" s="4" t="s">
+        <v>647</v>
+      </c>
+      <c r="J193" s="8" t="s">
+        <v>648</v>
+      </c>
+      <c r="K193" s="4" t="s">
+        <v>643</v>
+      </c>
+      <c r="L193" s="4">
+        <v>1E-3</v>
+      </c>
+      <c r="M193" s="4">
+        <v>1</v>
+      </c>
+      <c r="N193" s="4">
+        <v>1</v>
+      </c>
+      <c r="O193" s="4">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:Q157" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <autoFilter ref="A1:Q178" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q154">
       <sortCondition ref="E1:E154"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>